--- a/data/fractionation/230329 Batch 143 Water Yr Summary.xlsx
+++ b/data/fractionation/230329 Batch 143 Water Yr Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA69AC-C6F0-4A28-B934-894E00DE913E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F571A79E-B071-4F33-8364-E953BE7C59C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="217">
   <si>
     <t>calculated density p(20)</t>
   </si>
@@ -767,19 +767,7 @@
     <t>Percent DNA Recovered</t>
   </si>
   <si>
-    <t>IJKL</t>
-  </si>
-  <si>
     <t>MNOP</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
   <si>
     <t>O</t>
@@ -994,7 +982,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1137,21 +1125,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1338,15 +1317,11 @@
     <xf numFmtId="165" fontId="16" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5006,7 +4981,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5199,7 +5174,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5392,7 +5367,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AG$4:$AG$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5585,7 +5560,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AJ$4:$AJ$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5781,7 +5756,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AM$4:$AM$25</c:f>
+              <c:f>Summary!$AA$4:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5977,7 +5952,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AP$4:$AP$25</c:f>
+              <c:f>Summary!$AD$4:$AD$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6173,7 +6148,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AS$4:$AS$25</c:f>
+              <c:f>Summary!$AG$4:$AG$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6369,7 +6344,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AV$4:$AV$25</c:f>
+              <c:f>Summary!$AJ$4:$AJ$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6912,150 +6887,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.7635016419999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7602233619999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7558523220000009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.751672515000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.746017482000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7394609219999992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7341883550000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7276317950000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7232607550000019</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7167041950000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7134259150000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7057765950000014</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7003127950000021</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6937562350000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6893851949999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6839213950000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6795503550000017</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6708082750000006</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6434892750000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5320277550000014</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3169452679999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1060425880000011</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AB$4:$AB$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3990571114620048E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0265098646008068E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2862930290253369E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20037299995469737</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47393103089869365</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.98272609010788592</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9844639742663344</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.7493351227179823</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.2107789179963007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.473723507129625</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4213977223822098</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.1622730214162447</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.3089072547657987</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.9381309845961638</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.1326963078800969</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.63209317686714483</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.41586111081855598</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.31562427106403934</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24375585398238062</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.20403141850105425</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.9939847739449834E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.7214167290961021E-3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7105,150 +6947,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.7529565080000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7551420279999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7529565080000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7474927080000011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7431216680000023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7365651080000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7321940680000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7256375080000019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.720173707999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7149011410000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7105301010000016</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7039735410000016</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6985097410000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6919531810000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.687582141</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6810255810000019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.675561780999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6690052210000008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6449645010000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.535688501000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3226003009999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1116976210000011</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AE$4:$AE$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.9530454881029693E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0032663393435516E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13185381126864104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25729727080773773</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50361520364782619</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4203048626728292</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8426499458533869</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9738112930605523</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.791711121199469</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.663008958118363</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.9099273579336131</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.1823779036851585</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.3449792321956564</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.243002189999302</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71672811810564774</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.52412837276584989</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.34468508200269071</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.20830142310783337</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21966506852337128</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.17935291925745211</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.5327082880891969E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.6494141718100309E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7298,132 +7007,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AG$5:$AG$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.759895534</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.756617254</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7522462140000012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7467824140000019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7402258540000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7347620540000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7292982540000015</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7227416940000015</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7172778940000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7107213340000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7063502940000017</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6997937340000018</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6943299340000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6890573670000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6835935670000008</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6781297670000015</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6693876870000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6333266070000025</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5120302470000002</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AH$5:$AH$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.10223598953326145</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18547501883113163</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38455077676436861</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84749853782679985</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4543367962964859</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6995424415916305</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7205753912685902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.127918855314343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.281765620683686</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.60845214639132</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.0732093804428757</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5248351526970048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.5103779295198003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.418635567829021</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.89913615613501341</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.59006983466801666</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.47091448221763227</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.41632315131264769</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28311802822163706</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7473,132 +7067,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AJ$5:$AJ$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7568084870000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7535302070000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.749159167000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7436953670000026</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7371388070000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7327677670000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.727303967000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7207474069999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7152836069999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7100110400000013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7032632470000024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6979906800000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6936196399999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6881558400000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6826920400000009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6783210000000022</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6706716799999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6389816400000008</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5165925199999997</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AK$5:$AK$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.0589446047614903E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13660162704643561</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17840018250943657</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49688998898677667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8540971400917553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7162891919710017</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.4268481966704458</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.067775543516712</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.957480421035882</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.414191324739178</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1411971838246355</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.2495992743210156</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2070692520621766</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3170979103091704</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.72595494354385892</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.51911744678448046</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.37299370127947773</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.38623232735563801</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19850381482556786</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7651,7 +7130,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AM$5:$AM$23</c:f>
+              <c:f>Summary!$AA$5:$AA$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7717,7 +7196,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AN$5:$AN$23</c:f>
+              <c:f>Summary!$AB$5:$AB$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7829,7 +7308,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AP$5:$AP$23</c:f>
+              <c:f>Summary!$AD$5:$AD$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7895,7 +7374,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AQ$5:$AQ$23</c:f>
+              <c:f>Summary!$AE$5:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8007,7 +7486,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AS$5:$AS$23</c:f>
+              <c:f>Summary!$AG$5:$AG$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8073,7 +7552,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AT$5:$AT$23</c:f>
+              <c:f>Summary!$AH$5:$AH$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8185,7 +7664,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AV$5:$AV$23</c:f>
+              <c:f>Summary!$AJ$5:$AJ$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8251,7 +7730,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AW$5:$AW$23</c:f>
+              <c:f>Summary!$AK$5:$AK$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8319,803 +7798,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-3492-40D8-82C4-426C9371F0E1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2032038064"/>
-        <c:axId val="2032073152"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2032038064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
-          <c:min val="1.6500000000000001"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>density (g/ml)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2032073152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2032073152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="28"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>DNA (ng/ul)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2032038064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>DNA/</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Density OLD/NEW 2021</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10195592132966735"/>
-          <c:y val="0.11960348154906593"/>
-          <c:w val="0.82007715813406667"/>
-          <c:h val="0.66268752079677473"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Second 2021</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Summary!$AS$5:$AS$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7627913480000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7595130680000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.754049268000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7507709880000011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7442144280000011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7376578679999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7301997810000014</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.724735981000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7181794210000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.712715621000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7072518210000016</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6974169809999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6876</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6897676610000012</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6832111010000013</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6777473010000019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6679124610000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6220165410000007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4734011809999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Summary!$AT$5:$AT$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-2.2975089825000589E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.28361843136513E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.2167280137465207E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1170875569129692E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.1829408963584047E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3487931242006681</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1376134445432378</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13.812288942181334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.234916730350577</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.82570681100089</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.5022800744590743</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.1784099521668319</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8176633527123518</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.471490957794509</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.31465127627054207</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.30853803725471635</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.33503877461376219</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.20737937141537097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D80C-42CE-9D58-B76AA8B09673}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>First 2021</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Summary!$C$4:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.7708231340000022</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7686376140000011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7653593340000029</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7609882940000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.756617254</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7522462140000012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7478751740000007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7435041340000019</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.741318613999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7358548139999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7325765340000014</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7294894870000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7251184470000016</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7218401670000016</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7187531200000006</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.7154748400000006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7132893200000012</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7078255200000019</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7045472400000019</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7012689600000019</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6979906800000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.6936196399999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Summary!$D$4:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>-1.1510114882384404E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4157495119879392E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0551110856287979E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2611151276471095E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.8983388727655174E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5531010194395073E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6573787645410632E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4424705083593052E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16372701548733104</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.52404113188743595</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1617199169874437</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.8310789256687445</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.460547155457862</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.354246927651218</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.494310020815934</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.556998700026551</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.63528126752014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.9585961168425099</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.7854063895958348</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.9930382668107891</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4481880089780008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2704311701056521</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D80C-42CE-9D58-B76AA8B09673}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9533,46 +8215,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11160,522 +9802,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11785,44 +9911,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>337039</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>97693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>55522</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>2114</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11A8FC2-7635-4873-ACA4-6B0FB737B690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12463,23 +10551,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69140625" customWidth="1"/>
+    <col min="4" max="4" width="17.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" customWidth="1"/>
+    <col min="7" max="7" width="18.69140625" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12509,16 +10597,16 @@
         <v>200</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>201</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>197</v>
@@ -12543,7 +10631,7 @@
         <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G5" s="66">
         <f>TubeLoading!J29</f>
@@ -12553,11 +10641,11 @@
         <f>Summary!D26</f>
         <v>56.776517261908808</v>
       </c>
-      <c r="I5" s="116">
+      <c r="I5" s="114">
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12579,7 +10667,7 @@
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G6" s="66">
         <f>TubeLoading!J30</f>
@@ -12589,7 +10677,7 @@
         <f>Summary!G26</f>
         <v>55.097552134507829</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="115">
         <v>37</v>
       </c>
     </row>
@@ -12612,7 +10700,7 @@
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G7" s="66">
         <f>TubeLoading!J31</f>
@@ -12622,7 +10710,7 @@
         <f>Summary!J26</f>
         <v>53.056036146585427</v>
       </c>
-      <c r="I7" s="116">
+      <c r="I7" s="114">
         <v>37</v>
       </c>
     </row>
@@ -12645,7 +10733,7 @@
         <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G8" s="66">
         <f>TubeLoading!J32</f>
@@ -12655,7 +10743,7 @@
         <f>Summary!M26</f>
         <v>57.622146731846172</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="115">
         <v>37</v>
       </c>
     </row>
@@ -12678,7 +10766,7 @@
         <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G9" s="66">
         <f>TubeLoading!J33</f>
@@ -12688,7 +10776,7 @@
         <f>Summary!P26</f>
         <v>44.543408475176868</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="114">
         <v>37</v>
       </c>
     </row>
@@ -12711,7 +10799,7 @@
         <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G10" s="66">
         <f>TubeLoading!J34</f>
@@ -12721,7 +10809,7 @@
         <f>Summary!S26</f>
         <v>75.593595322285182</v>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="115">
         <v>37</v>
       </c>
     </row>
@@ -12744,7 +10832,7 @@
         <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G11" s="66">
         <f>TubeLoading!J35</f>
@@ -12754,7 +10842,7 @@
         <f>Summary!V26</f>
         <v>64.286969553839086</v>
       </c>
-      <c r="I11" s="116">
+      <c r="I11" s="114">
         <v>37</v>
       </c>
     </row>
@@ -12777,7 +10865,7 @@
         <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G12" s="66">
         <f>TubeLoading!J36</f>
@@ -12787,18 +10875,18 @@
         <f>Summary!Y26</f>
         <v>73.330591175662391</v>
       </c>
-      <c r="I12" s="117">
+      <c r="I12" s="115">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="66">
-        <f>TubeLoading!F37</f>
-        <v>3971</v>
+        <f>TubeLoading!F41</f>
+        <v>4016</v>
       </c>
       <c r="B13" s="66" t="str">
-        <f>TubeLoading!A37</f>
-        <v>Tube I</v>
+        <f>TubeLoading!A41</f>
+        <v>Tube M</v>
       </c>
       <c r="C13" s="66" t="s">
         <v>202</v>
@@ -12807,31 +10895,31 @@
         <v>45014</v>
       </c>
       <c r="E13">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="66">
-        <f>TubeLoading!J37</f>
-        <v>4000</v>
+        <f>TubeLoading!J41</f>
+        <v>3999.9999999999995</v>
       </c>
       <c r="H13" s="50">
         <f>Summary!AB26</f>
-        <v>49.050892058750009</v>
-      </c>
-      <c r="I13" s="116">
+        <v>80.45097095349729</v>
+      </c>
+      <c r="I13" s="114">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="66">
-        <f>TubeLoading!F38</f>
-        <v>2393</v>
+        <f>TubeLoading!F42</f>
+        <v>2445</v>
       </c>
       <c r="B14" s="66" t="str">
-        <f>TubeLoading!A38</f>
-        <v>Tube J</v>
+        <f>TubeLoading!A42</f>
+        <v>Tube N</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>202</v>
@@ -12840,31 +10928,31 @@
         <v>45014</v>
       </c>
       <c r="E14">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G14" s="66">
-        <f>TubeLoading!J38</f>
+        <f>TubeLoading!J42</f>
         <v>4000</v>
       </c>
       <c r="H14" s="50">
         <f>Summary!AE26</f>
-        <v>57.599254022197812</v>
-      </c>
-      <c r="I14" s="117">
+        <v>73.835192341047971</v>
+      </c>
+      <c r="I14" s="115">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="66">
-        <f>TubeLoading!F39</f>
-        <v>4011</v>
+        <f>TubeLoading!F43</f>
+        <v>2021</v>
       </c>
       <c r="B15" s="66" t="str">
-        <f>TubeLoading!A39</f>
-        <v>Tube K</v>
+        <f>TubeLoading!A43</f>
+        <v>Tube O</v>
       </c>
       <c r="C15" s="66" t="s">
         <v>202</v>
@@ -12873,31 +10961,34 @@
         <v>45014</v>
       </c>
       <c r="E15">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G15" s="66">
-        <f>TubeLoading!J39</f>
-        <v>4000</v>
+        <f>TubeLoading!J43</f>
+        <v>3999.9999999999995</v>
       </c>
       <c r="H15" s="50">
         <f>Summary!AH26</f>
-        <v>72.795625801061632</v>
-      </c>
-      <c r="I15" s="116">
+        <v>66.667936426690574</v>
+      </c>
+      <c r="I15" s="114">
         <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="66">
-        <f>TubeLoading!F40</f>
-        <v>3961</v>
+        <f>TubeLoading!F44</f>
+        <v>1502</v>
       </c>
       <c r="B16" s="66" t="str">
-        <f>TubeLoading!A40</f>
-        <v>Tube L</v>
+        <f>TubeLoading!A44</f>
+        <v>Tube P</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>202</v>
@@ -12906,161 +10997,26 @@
         <v>45014</v>
       </c>
       <c r="E16">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G16" s="66">
-        <f>TubeLoading!J40</f>
+        <f>TubeLoading!J44</f>
         <v>4000</v>
       </c>
       <c r="H16" s="50">
         <f>Summary!AK26</f>
-        <v>61.577672782028991</v>
-      </c>
-      <c r="I16" s="117">
+        <v>71.313343562102091</v>
+      </c>
+      <c r="I16" s="115">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="66">
-        <f>TubeLoading!F41</f>
-        <v>4016</v>
-      </c>
-      <c r="B17" s="66" t="str">
-        <f>TubeLoading!A41</f>
-        <v>Tube M</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="67">
-        <v>45014</v>
-      </c>
-      <c r="E17">
-        <v>140</v>
-      </c>
-      <c r="F17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="66">
-        <f>TubeLoading!J41</f>
-        <v>3999.9999999999995</v>
-      </c>
-      <c r="H17" s="50">
-        <f>Summary!AN26</f>
-        <v>80.45097095349729</v>
-      </c>
-      <c r="I17" s="116">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="66">
-        <f>TubeLoading!F42</f>
-        <v>2445</v>
-      </c>
-      <c r="B18" s="66" t="str">
-        <f>TubeLoading!A42</f>
-        <v>Tube N</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="67">
-        <v>45014</v>
-      </c>
-      <c r="E18">
-        <v>140</v>
-      </c>
-      <c r="F18" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="66">
-        <f>TubeLoading!J42</f>
-        <v>4000</v>
-      </c>
-      <c r="H18" s="50">
-        <f>Summary!AQ26</f>
-        <v>73.835192341047971</v>
-      </c>
-      <c r="I18" s="117">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="66">
-        <f>TubeLoading!F43</f>
-        <v>2021</v>
-      </c>
-      <c r="B19" s="66" t="str">
-        <f>TubeLoading!A43</f>
-        <v>Tube O</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="67">
-        <v>45014</v>
-      </c>
-      <c r="E19">
-        <v>140</v>
-      </c>
-      <c r="F19" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="66">
-        <f>TubeLoading!J43</f>
-        <v>3999.9999999999995</v>
-      </c>
-      <c r="H19" s="50">
-        <f>Summary!AT26</f>
-        <v>66.667936426690574</v>
-      </c>
-      <c r="I19" s="116">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="66">
-        <f>TubeLoading!F44</f>
-        <v>1502</v>
-      </c>
-      <c r="B20" s="66" t="str">
-        <f>TubeLoading!A44</f>
-        <v>Tube P</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="67">
-        <v>45014</v>
-      </c>
-      <c r="E20">
-        <v>140</v>
-      </c>
-      <c r="F20" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="66">
-        <f>TubeLoading!J44</f>
-        <v>4000</v>
-      </c>
-      <c r="H20" s="50">
-        <f>Summary!AW26</f>
-        <v>71.313343562102091</v>
-      </c>
-      <c r="I20" s="117">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>211</v>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -13076,9 +11032,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -13693,9 +11649,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14310,9 +12266,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14926,9 +12882,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -15542,9 +13498,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -16158,9 +14114,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -16774,9 +14730,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -17390,9 +15346,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -19225,9 +17181,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -19603,7 +17559,7 @@
         <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -19841,9 +17797,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -21669,307 +19625,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
-  <dimension ref="A1:AW86"/>
+  <dimension ref="A1:AK86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AL33" sqref="AL33"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.90625" style="56"/>
-    <col min="8" max="8" width="10.90625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="56"/>
+    <col min="1" max="1" width="9.53515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3828125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.921875" style="56"/>
+    <col min="8" max="8" width="10.921875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="10.921875" style="56"/>
     <col min="10" max="11" width="11" style="56" customWidth="1"/>
-    <col min="12" max="16384" width="10.90625" style="56"/>
+    <col min="12" max="16384" width="10.921875" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="13" thickTop="1">
+    <row r="1" spans="1:37" ht="12.9" thickTop="1">
       <c r="A1" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="101">
+      <c r="B1" s="99">
         <f>TubeLoading!F29</f>
         <v>1773</v>
       </c>
-      <c r="C1" s="103" t="str">
+      <c r="C1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$29,"density")</f>
         <v>1773-density</v>
       </c>
-      <c r="D1" s="103" t="str">
+      <c r="D1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$29,"conc")</f>
         <v>1773-conc</v>
       </c>
-      <c r="E1" s="101">
+      <c r="E1" s="99">
         <f>TubeLoading!F30</f>
         <v>3942</v>
       </c>
-      <c r="F1" s="103" t="str">
+      <c r="F1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$30,"density")</f>
         <v>3942-density</v>
       </c>
-      <c r="G1" s="103" t="str">
+      <c r="G1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$30,"conc")</f>
         <v>3942-conc</v>
       </c>
-      <c r="H1" s="101">
+      <c r="H1" s="99">
         <f>TubeLoading!F31</f>
         <v>3944</v>
       </c>
-      <c r="I1" s="103" t="str">
+      <c r="I1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$31,"density")</f>
         <v>3944-density</v>
       </c>
-      <c r="J1" s="103" t="str">
+      <c r="J1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$31,"conc")</f>
         <v>3944-conc</v>
       </c>
-      <c r="K1" s="101">
+      <c r="K1" s="99">
         <f>TubeLoading!F32</f>
         <v>1515</v>
       </c>
-      <c r="L1" s="103" t="str">
+      <c r="L1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$32,"density")</f>
         <v>1515-density</v>
       </c>
-      <c r="M1" s="103" t="str">
+      <c r="M1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$32,"conc")</f>
         <v>1515-conc</v>
       </c>
-      <c r="N1" s="102">
+      <c r="N1" s="100">
         <f>TubeLoading!F33</f>
         <v>3193</v>
       </c>
-      <c r="O1" s="103" t="str">
+      <c r="O1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"density")</f>
         <v>3193-density</v>
       </c>
-      <c r="P1" s="103" t="str">
+      <c r="P1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"conc")</f>
         <v>3193-conc</v>
       </c>
-      <c r="Q1" s="102">
+      <c r="Q1" s="100">
         <f>TubeLoading!F34</f>
         <v>2383</v>
       </c>
-      <c r="R1" s="103" t="str">
+      <c r="R1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"density")</f>
         <v>2383-density</v>
       </c>
-      <c r="S1" s="103" t="str">
+      <c r="S1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"conc")</f>
         <v>2383-conc</v>
       </c>
-      <c r="T1" s="102">
+      <c r="T1" s="100">
         <f>TubeLoading!F35</f>
         <v>3654</v>
       </c>
-      <c r="U1" s="103" t="str">
+      <c r="U1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"density")</f>
         <v>3654-density</v>
       </c>
-      <c r="V1" s="103" t="str">
+      <c r="V1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"conc")</f>
         <v>3654-conc</v>
       </c>
-      <c r="W1" s="102">
+      <c r="W1" s="100">
         <f>TubeLoading!F36</f>
         <v>1794</v>
       </c>
-      <c r="X1" s="103" t="str">
+      <c r="X1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"density")</f>
         <v>1794-density</v>
       </c>
-      <c r="Y1" s="103" t="str">
+      <c r="Y1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"conc")</f>
         <v>1794-conc</v>
       </c>
-      <c r="Z1" s="102">
-        <f>TubeLoading!F37</f>
-        <v>3971</v>
-      </c>
-      <c r="AA1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"density")</f>
-        <v>3971-density</v>
-      </c>
-      <c r="AB1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"conc")</f>
-        <v>3971-conc</v>
-      </c>
-      <c r="AC1" s="102">
-        <f>TubeLoading!F38</f>
-        <v>2393</v>
-      </c>
-      <c r="AD1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"density")</f>
-        <v>2393-density</v>
-      </c>
-      <c r="AE1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"conc")</f>
-        <v>2393-conc</v>
-      </c>
-      <c r="AF1" s="102">
-        <f>TubeLoading!F39</f>
-        <v>4011</v>
-      </c>
-      <c r="AG1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"density")</f>
-        <v>4011-density</v>
-      </c>
-      <c r="AH1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"conc")</f>
-        <v>4011-conc</v>
-      </c>
-      <c r="AI1" s="102">
-        <f>TubeLoading!F40</f>
-        <v>3961</v>
-      </c>
-      <c r="AJ1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"density")</f>
-        <v>3961-density</v>
-      </c>
-      <c r="AK1" s="103" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"conc")</f>
-        <v>3961-conc</v>
-      </c>
-      <c r="AL1" s="102">
+      <c r="Z1" s="100">
         <f>TubeLoading!F41</f>
         <v>4016</v>
       </c>
-      <c r="AM1" s="103" t="str">
+      <c r="AA1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$41,"density")</f>
         <v>4016-density</v>
       </c>
-      <c r="AN1" s="103" t="str">
+      <c r="AB1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$41,"conc")</f>
         <v>4016-conc</v>
       </c>
-      <c r="AO1" s="102">
+      <c r="AC1" s="100">
         <f>TubeLoading!F42</f>
         <v>2445</v>
       </c>
-      <c r="AP1" s="103" t="str">
+      <c r="AD1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$42,"density")</f>
         <v>2445-density</v>
       </c>
-      <c r="AQ1" s="103" t="str">
+      <c r="AE1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$42,"conc")</f>
         <v>2445-conc</v>
       </c>
-      <c r="AR1" s="102">
+      <c r="AF1" s="100">
         <f>TubeLoading!F43</f>
         <v>2021</v>
       </c>
-      <c r="AS1" s="103" t="str">
+      <c r="AG1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$43,"density")</f>
         <v>2021-density</v>
       </c>
-      <c r="AT1" s="103" t="str">
+      <c r="AH1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$43,"conc")</f>
         <v>2021-conc</v>
       </c>
-      <c r="AU1" s="102">
+      <c r="AI1" s="100">
         <f>TubeLoading!F44</f>
         <v>1502</v>
       </c>
-      <c r="AV1" s="103" t="str">
+      <c r="AJ1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$44,"density")</f>
         <v>1502-density</v>
       </c>
-      <c r="AW1" s="103" t="str">
+      <c r="AK1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$44,"conc")</f>
         <v>1502-conc</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:37">
       <c r="A2" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="121" t="s">
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="121" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="121" t="s">
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="118" t="s">
+      <c r="L2" s="120"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="119"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="118" t="s">
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="119"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="118" t="s">
+      <c r="R2" s="117"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="118" t="s">
+      <c r="U2" s="117"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="118" t="s">
+      <c r="X2" s="117"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG2" s="119"/>
-      <c r="AH2" s="120"/>
-      <c r="AI2" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="119"/>
-      <c r="AK2" s="120"/>
-      <c r="AL2" s="118" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM2" s="119"/>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="118" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP2" s="119"/>
-      <c r="AQ2" s="120"/>
-      <c r="AR2" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS2" s="119"/>
-      <c r="AT2" s="120"/>
-      <c r="AU2" s="118" t="s">
-        <v>208</v>
-      </c>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="120"/>
-    </row>
-    <row r="3" spans="1:49">
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="118"/>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="62" t="s">
         <v>168</v>
       </c>
@@ -22081,44 +19969,8 @@
       <c r="AK3" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="AL3" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM3" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN3" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO3" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP3" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ3" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR3" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS3" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT3" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU3" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV3" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW3" s="86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49">
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="56">
         <v>1</v>
       </c>
@@ -22211,95 +20063,51 @@
         <v>4.1425655064496721E-3</v>
       </c>
       <c r="Z4" s="69" t="str">
-        <f>'Tube I'!G2</f>
-        <v>A1</v>
-      </c>
-      <c r="AA4" s="70">
-        <f>'Tube I'!F2</f>
-        <v>1.7635016419999996</v>
-      </c>
-      <c r="AB4" s="71">
-        <v>1.3990571114620048E-2</v>
-      </c>
-      <c r="AC4" s="69" t="str">
-        <f>'Tube J'!G2</f>
-        <v>G3</v>
-      </c>
-      <c r="AD4" s="70">
-        <f>'Tube J'!F2</f>
-        <v>1.7529565080000005</v>
-      </c>
-      <c r="AE4" s="71">
-        <v>1.9530454881029693E-3</v>
-      </c>
-      <c r="AF4" s="69" t="str">
-        <f>'Tube K'!G2</f>
-        <v>D6</v>
-      </c>
-      <c r="AG4" s="70">
-        <f>'Tube K'!F2</f>
-        <v>1.7577100140000006</v>
-      </c>
-      <c r="AH4" s="71">
-        <v>4.2840196015293486E-2</v>
-      </c>
-      <c r="AI4" s="69" t="str">
-        <f>'Tube L'!G2</f>
-        <v>C9</v>
-      </c>
-      <c r="AJ4" s="70">
-        <f>'Tube L'!F2</f>
-        <v>1.7546229670000013</v>
-      </c>
-      <c r="AK4" s="71">
-        <v>3.6842265559736437E-2</v>
-      </c>
-      <c r="AL4" s="69" t="str">
         <f>'Tube M'!G2</f>
         <v>A1</v>
       </c>
-      <c r="AM4" s="70">
+      <c r="AA4" s="70">
         <f>'Tube M'!F2</f>
         <v>1.778417816000001</v>
       </c>
-      <c r="AN4" s="71">
+      <c r="AB4" s="71">
         <v>-1.9260806273593511E-2</v>
       </c>
-      <c r="AO4" s="69" t="str">
+      <c r="AC4" s="69" t="str">
         <f>'Tube N'!G2</f>
         <v>G3</v>
       </c>
-      <c r="AP4" s="70">
+      <c r="AD4" s="70">
         <f>'Tube N'!F2</f>
         <v>1.7665886890000024</v>
       </c>
-      <c r="AQ4" s="71">
+      <c r="AE4" s="71">
         <v>-3.631424088795001E-2</v>
       </c>
-      <c r="AR4" s="69" t="str">
+      <c r="AF4" s="69" t="str">
         <f>'Tube O'!G2</f>
         <v>D6</v>
       </c>
-      <c r="AS4" s="70">
+      <c r="AG4" s="70">
         <f>'Tube O'!F2</f>
         <v>1.7584203079999998</v>
       </c>
-      <c r="AT4" s="71">
+      <c r="AH4" s="71">
         <v>-2.2378046971212845E-2</v>
       </c>
-      <c r="AU4" s="69" t="str">
+      <c r="AI4" s="69" t="str">
         <f>'Tube P'!G2</f>
         <v>C9</v>
       </c>
-      <c r="AV4" s="70">
+      <c r="AJ4" s="70">
         <f>'Tube P'!F2</f>
         <v>1.756617254</v>
       </c>
-      <c r="AW4" s="71">
+      <c r="AK4" s="71">
         <v>-2.0268071547348245E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:37">
       <c r="A5" s="56">
         <v>2</v>
       </c>
@@ -22392,95 +20200,51 @@
         <v>3.1364586365325429E-2</v>
       </c>
       <c r="Z5" s="72" t="str">
-        <f>'Tube I'!G3</f>
-        <v>B1</v>
-      </c>
-      <c r="AA5" s="73">
-        <f>'Tube I'!F3</f>
-        <v>1.7602233619999996</v>
-      </c>
-      <c r="AB5" s="74">
-        <v>5.0265098646008068E-2</v>
-      </c>
-      <c r="AC5" s="72" t="str">
-        <f>'Tube J'!G3</f>
-        <v>H3</v>
-      </c>
-      <c r="AD5" s="73">
-        <f>'Tube J'!F3</f>
-        <v>1.7551420279999999</v>
-      </c>
-      <c r="AE5" s="74">
-        <v>4.0032663393435516E-2</v>
-      </c>
-      <c r="AF5" s="72" t="str">
-        <f>'Tube K'!G3</f>
-        <v>C6</v>
-      </c>
-      <c r="AG5" s="73">
-        <f>'Tube K'!F3</f>
-        <v>1.759895534</v>
-      </c>
-      <c r="AH5" s="74">
-        <v>0.10223598953326145</v>
-      </c>
-      <c r="AI5" s="72" t="str">
-        <f>'Tube L'!G3</f>
-        <v>D9</v>
-      </c>
-      <c r="AJ5" s="73">
-        <f>'Tube L'!F3</f>
-        <v>1.7568084870000007</v>
-      </c>
-      <c r="AK5" s="74">
-        <v>6.0589446047614903E-2</v>
-      </c>
-      <c r="AL5" s="72" t="str">
         <f>'Tube M'!G3</f>
         <v>B1</v>
       </c>
-      <c r="AM5" s="73">
+      <c r="AA5" s="73">
         <f>'Tube M'!F3</f>
         <v>1.7696757360000017</v>
       </c>
-      <c r="AN5" s="74">
+      <c r="AB5" s="74">
         <v>-9.0888505915609711E-3</v>
       </c>
-      <c r="AO5" s="72" t="str">
+      <c r="AC5" s="72" t="str">
         <f>'Tube N'!G3</f>
         <v>H3</v>
       </c>
-      <c r="AP5" s="73">
+      <c r="AD5" s="73">
         <f>'Tube N'!F3</f>
         <v>1.7654959290000019</v>
       </c>
-      <c r="AQ5" s="74">
+      <c r="AE5" s="74">
         <v>-3.0937932732867681E-2</v>
       </c>
-      <c r="AR5" s="72" t="str">
+      <c r="AF5" s="72" t="str">
         <f>'Tube O'!G3</f>
         <v>C6</v>
       </c>
-      <c r="AS5" s="73">
+      <c r="AG5" s="73">
         <f>'Tube O'!F3</f>
         <v>1.7627913480000004</v>
       </c>
-      <c r="AT5" s="74">
+      <c r="AH5" s="74">
         <v>-2.2975089825000589E-2</v>
       </c>
-      <c r="AU5" s="72" t="str">
+      <c r="AI5" s="72" t="str">
         <f>'Tube P'!G3</f>
         <v>D9</v>
       </c>
-      <c r="AV5" s="73">
+      <c r="AJ5" s="73">
         <f>'Tube P'!F3</f>
         <v>1.763173814</v>
       </c>
-      <c r="AW5" s="74">
+      <c r="AK5" s="74">
         <v>-2.26125333696168E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:37">
       <c r="A6" s="56">
         <v>3</v>
       </c>
@@ -22573,95 +20337,51 @@
         <v>8.4720704572724292E-2</v>
       </c>
       <c r="Z6" s="72" t="str">
-        <f>'Tube I'!G4</f>
-        <v>C1</v>
-      </c>
-      <c r="AA6" s="73">
-        <f>'Tube I'!F4</f>
-        <v>1.7558523220000009</v>
-      </c>
-      <c r="AB6" s="74">
-        <v>7.2862930290253369E-2</v>
-      </c>
-      <c r="AC6" s="72" t="str">
-        <f>'Tube J'!G4</f>
-        <v>H4</v>
-      </c>
-      <c r="AD6" s="73">
-        <f>'Tube J'!F4</f>
-        <v>1.7529565080000005</v>
-      </c>
-      <c r="AE6" s="74">
-        <v>0.13185381126864104</v>
-      </c>
-      <c r="AF6" s="72" t="str">
-        <f>'Tube K'!G4</f>
-        <v>B6</v>
-      </c>
-      <c r="AG6" s="73">
-        <f>'Tube K'!F4</f>
-        <v>1.756617254</v>
-      </c>
-      <c r="AH6" s="74">
-        <v>0.18547501883113163</v>
-      </c>
-      <c r="AI6" s="72" t="str">
-        <f>'Tube L'!G4</f>
-        <v>E9</v>
-      </c>
-      <c r="AJ6" s="73">
-        <f>'Tube L'!F4</f>
-        <v>1.7535302070000007</v>
-      </c>
-      <c r="AK6" s="74">
-        <v>0.13660162704643561</v>
-      </c>
-      <c r="AL6" s="72" t="str">
         <f>'Tube M'!G4</f>
         <v>C1</v>
       </c>
-      <c r="AM6" s="73">
+      <c r="AA6" s="73">
         <f>'Tube M'!F4</f>
         <v>1.7653046960000012</v>
       </c>
-      <c r="AN6" s="74">
+      <c r="AB6" s="74">
         <v>-1.07127253001656E-2</v>
       </c>
-      <c r="AO6" s="72" t="str">
+      <c r="AC6" s="72" t="str">
         <f>'Tube N'!G4</f>
         <v>H4</v>
       </c>
-      <c r="AP6" s="73">
+      <c r="AD6" s="73">
         <f>'Tube N'!F4</f>
         <v>1.762408881999999</v>
       </c>
-      <c r="AQ6" s="74">
+      <c r="AE6" s="74">
         <v>-3.9780268731960007E-2</v>
       </c>
-      <c r="AR6" s="72" t="str">
+      <c r="AF6" s="72" t="str">
         <f>'Tube O'!G4</f>
         <v>B6</v>
       </c>
-      <c r="AS6" s="73">
+      <c r="AG6" s="73">
         <f>'Tube O'!F4</f>
         <v>1.7595130680000004</v>
       </c>
-      <c r="AT6" s="74">
+      <c r="AH6" s="74">
         <v>-1.28361843136513E-2</v>
       </c>
-      <c r="AU6" s="72" t="str">
+      <c r="AI6" s="72" t="str">
         <f>'Tube P'!G4</f>
         <v>E9</v>
       </c>
-      <c r="AV6" s="73">
+      <c r="AJ6" s="73">
         <f>'Tube P'!F4</f>
         <v>1.7609882940000006</v>
       </c>
-      <c r="AW6" s="74">
+      <c r="AK6" s="74">
         <v>-2.4975540027317691E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:37">
       <c r="A7" s="56">
         <v>4</v>
       </c>
@@ -22754,95 +20474,51 @@
         <v>0.20980255047667609</v>
       </c>
       <c r="Z7" s="72" t="str">
-        <f>'Tube I'!G5</f>
-        <v>D1</v>
-      </c>
-      <c r="AA7" s="73">
-        <f>'Tube I'!F5</f>
-        <v>1.751672515000001</v>
-      </c>
-      <c r="AB7" s="74">
-        <v>0.20037299995469737</v>
-      </c>
-      <c r="AC7" s="72" t="str">
-        <f>'Tube J'!G5</f>
-        <v>G4</v>
-      </c>
-      <c r="AD7" s="73">
-        <f>'Tube J'!F5</f>
-        <v>1.7474927080000011</v>
-      </c>
-      <c r="AE7" s="74">
-        <v>0.25729727080773773</v>
-      </c>
-      <c r="AF7" s="72" t="str">
-        <f>'Tube K'!G5</f>
-        <v>A6</v>
-      </c>
-      <c r="AG7" s="73">
-        <f>'Tube K'!F5</f>
-        <v>1.7522462140000012</v>
-      </c>
-      <c r="AH7" s="74">
-        <v>0.38455077676436861</v>
-      </c>
-      <c r="AI7" s="72" t="str">
-        <f>'Tube L'!G5</f>
-        <v>F9</v>
-      </c>
-      <c r="AJ7" s="73">
-        <f>'Tube L'!F5</f>
-        <v>1.749159167000002</v>
-      </c>
-      <c r="AK7" s="74">
-        <v>0.17840018250943657</v>
-      </c>
-      <c r="AL7" s="72" t="str">
         <f>'Tube M'!G5</f>
         <v>D1</v>
       </c>
-      <c r="AM7" s="73">
+      <c r="AA7" s="73">
         <f>'Tube M'!F5</f>
         <v>1.7609336559999988</v>
       </c>
-      <c r="AN7" s="74">
+      <c r="AB7" s="74">
         <v>2.5181330286629337E-2</v>
       </c>
-      <c r="AO7" s="72" t="str">
+      <c r="AC7" s="72" t="str">
         <f>'Tube N'!G5</f>
         <v>G4</v>
       </c>
-      <c r="AP7" s="73">
+      <c r="AD7" s="73">
         <f>'Tube N'!F5</f>
         <v>1.7591306020000008</v>
       </c>
-      <c r="AQ7" s="74">
+      <c r="AE7" s="74">
         <v>-1.3137761498474376E-2</v>
       </c>
-      <c r="AR7" s="72" t="str">
+      <c r="AF7" s="72" t="str">
         <f>'Tube O'!G5</f>
         <v>A6</v>
       </c>
-      <c r="AS7" s="73">
+      <c r="AG7" s="73">
         <f>'Tube O'!F5</f>
         <v>1.754049268000001</v>
       </c>
-      <c r="AT7" s="74">
+      <c r="AH7" s="74">
         <v>-4.2167280137465207E-3</v>
       </c>
-      <c r="AU7" s="72" t="str">
+      <c r="AI7" s="72" t="str">
         <f>'Tube P'!G5</f>
         <v>F9</v>
       </c>
-      <c r="AV7" s="73">
+      <c r="AJ7" s="73">
         <f>'Tube P'!F5</f>
         <v>1.7555244940000012</v>
       </c>
-      <c r="AW7" s="74">
+      <c r="AK7" s="74">
         <v>-4.289607887565162E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:37">
       <c r="A8" s="56">
         <v>5</v>
       </c>
@@ -22935,95 +20611,51 @@
         <v>0.53246092780398058</v>
       </c>
       <c r="Z8" s="72" t="str">
-        <f>'Tube I'!G6</f>
-        <v>E1</v>
-      </c>
-      <c r="AA8" s="73">
-        <f>'Tube I'!F6</f>
-        <v>1.746017482000001</v>
-      </c>
-      <c r="AB8" s="74">
-        <v>0.47393103089869365</v>
-      </c>
-      <c r="AC8" s="72" t="str">
-        <f>'Tube J'!G6</f>
-        <v>F4</v>
-      </c>
-      <c r="AD8" s="73">
-        <f>'Tube J'!F6</f>
-        <v>1.7431216680000023</v>
-      </c>
-      <c r="AE8" s="74">
-        <v>0.50361520364782619</v>
-      </c>
-      <c r="AF8" s="72" t="str">
-        <f>'Tube K'!G6</f>
-        <v>A7</v>
-      </c>
-      <c r="AG8" s="73">
-        <f>'Tube K'!F6</f>
-        <v>1.7467824140000019</v>
-      </c>
-      <c r="AH8" s="74">
-        <v>0.84749853782679985</v>
-      </c>
-      <c r="AI8" s="72" t="str">
-        <f>'Tube L'!G6</f>
-        <v>G9</v>
-      </c>
-      <c r="AJ8" s="73">
-        <f>'Tube L'!F6</f>
-        <v>1.7436953670000026</v>
-      </c>
-      <c r="AK8" s="74">
-        <v>0.49688998898677667</v>
-      </c>
-      <c r="AL8" s="72" t="str">
         <f>'Tube M'!G6</f>
         <v>E1</v>
       </c>
-      <c r="AM8" s="73">
+      <c r="AA8" s="73">
         <f>'Tube M'!F6</f>
         <v>1.7543770960000007</v>
       </c>
-      <c r="AN8" s="74">
+      <c r="AB8" s="74">
         <v>0.20306859261396207</v>
       </c>
-      <c r="AO8" s="72" t="str">
+      <c r="AC8" s="72" t="str">
         <f>'Tube N'!G6</f>
         <v>F4</v>
       </c>
-      <c r="AP8" s="73">
+      <c r="AD8" s="73">
         <f>'Tube N'!F6</f>
         <v>1.7514812820000003</v>
       </c>
-      <c r="AQ8" s="74">
+      <c r="AE8" s="74">
         <v>-3.3201279753309033E-2</v>
       </c>
-      <c r="AR8" s="72" t="str">
+      <c r="AF8" s="72" t="str">
         <f>'Tube O'!G6</f>
         <v>A7</v>
       </c>
-      <c r="AS8" s="73">
+      <c r="AG8" s="73">
         <f>'Tube O'!F6</f>
         <v>1.7507709880000011</v>
       </c>
-      <c r="AT8" s="74">
+      <c r="AH8" s="74">
         <v>1.1170875569129692E-2</v>
       </c>
-      <c r="AU8" s="72" t="str">
+      <c r="AI8" s="72" t="str">
         <f>'Tube P'!G6</f>
         <v>G9</v>
       </c>
-      <c r="AV8" s="73">
+      <c r="AJ8" s="73">
         <f>'Tube P'!F6</f>
         <v>1.7511534540000007</v>
       </c>
-      <c r="AW8" s="74">
+      <c r="AK8" s="74">
         <v>4.8797633538395085E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:37">
       <c r="A9" s="56">
         <v>6</v>
       </c>
@@ -23116,95 +20748,51 @@
         <v>1.2094760523075958</v>
       </c>
       <c r="Z9" s="72" t="str">
-        <f>'Tube I'!G7</f>
-        <v>F1</v>
-      </c>
-      <c r="AA9" s="73">
-        <f>'Tube I'!F7</f>
-        <v>1.7394609219999992</v>
-      </c>
-      <c r="AB9" s="74">
-        <v>0.98272609010788592</v>
-      </c>
-      <c r="AC9" s="72" t="str">
-        <f>'Tube J'!G7</f>
-        <v>E4</v>
-      </c>
-      <c r="AD9" s="73">
-        <f>'Tube J'!F7</f>
-        <v>1.7365651080000006</v>
-      </c>
-      <c r="AE9" s="74">
-        <v>1.4203048626728292</v>
-      </c>
-      <c r="AF9" s="72" t="str">
-        <f>'Tube K'!G7</f>
-        <v>B7</v>
-      </c>
-      <c r="AG9" s="73">
-        <f>'Tube K'!F7</f>
-        <v>1.7402258540000002</v>
-      </c>
-      <c r="AH9" s="74">
-        <v>1.4543367962964859</v>
-      </c>
-      <c r="AI9" s="72" t="str">
-        <f>'Tube L'!G7</f>
-        <v>H9</v>
-      </c>
-      <c r="AJ9" s="73">
-        <f>'Tube L'!F7</f>
-        <v>1.7371388070000009</v>
-      </c>
-      <c r="AK9" s="74">
-        <v>0.8540971400917553</v>
-      </c>
-      <c r="AL9" s="72" t="str">
         <f>'Tube M'!G7</f>
         <v>F1</v>
       </c>
-      <c r="AM9" s="73">
+      <c r="AA9" s="73">
         <f>'Tube M'!F7</f>
         <v>1.746727776000002</v>
       </c>
-      <c r="AN9" s="74">
+      <c r="AB9" s="74">
         <v>0.48310675943885589</v>
       </c>
-      <c r="AO9" s="72" t="str">
+      <c r="AC9" s="72" t="str">
         <f>'Tube N'!G7</f>
         <v>E4</v>
       </c>
-      <c r="AP9" s="73">
+      <c r="AD9" s="73">
         <f>'Tube N'!F7</f>
         <v>1.7449247220000021</v>
       </c>
-      <c r="AQ9" s="74">
+      <c r="AE9" s="74">
         <v>-3.6907362884874887E-3</v>
       </c>
-      <c r="AR9" s="72" t="str">
+      <c r="AF9" s="72" t="str">
         <f>'Tube O'!G7</f>
         <v>B7</v>
       </c>
-      <c r="AS9" s="73">
+      <c r="AG9" s="73">
         <f>'Tube O'!F7</f>
         <v>1.7442144280000011</v>
       </c>
-      <c r="AT9" s="74">
+      <c r="AH9" s="74">
         <v>9.1829408963584047E-2</v>
       </c>
-      <c r="AU9" s="72" t="str">
+      <c r="AI9" s="72" t="str">
         <f>'Tube P'!G7</f>
         <v>H9</v>
       </c>
-      <c r="AV9" s="73">
+      <c r="AJ9" s="73">
         <f>'Tube P'!F7</f>
         <v>1.7445968940000025</v>
       </c>
-      <c r="AW9" s="74">
+      <c r="AK9" s="74">
         <v>0.13751671711228819</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:37">
       <c r="A10" s="56">
         <v>7</v>
       </c>
@@ -23297,95 +20885,51 @@
         <v>2.670654578974172</v>
       </c>
       <c r="Z10" s="72" t="str">
-        <f>'Tube I'!G8</f>
-        <v>G1</v>
-      </c>
-      <c r="AA10" s="73">
-        <f>'Tube I'!F8</f>
-        <v>1.7341883550000006</v>
-      </c>
-      <c r="AB10" s="74">
-        <v>1.9844639742663344</v>
-      </c>
-      <c r="AC10" s="72" t="str">
-        <f>'Tube J'!G8</f>
-        <v>D4</v>
-      </c>
-      <c r="AD10" s="73">
-        <f>'Tube J'!F8</f>
-        <v>1.7321940680000001</v>
-      </c>
-      <c r="AE10" s="74">
-        <v>2.8426499458533869</v>
-      </c>
-      <c r="AF10" s="72" t="str">
-        <f>'Tube K'!G8</f>
-        <v>C7</v>
-      </c>
-      <c r="AG10" s="73">
-        <f>'Tube K'!F8</f>
-        <v>1.7347620540000008</v>
-      </c>
-      <c r="AH10" s="74">
-        <v>2.6995424415916305</v>
-      </c>
-      <c r="AI10" s="72" t="str">
-        <f>'Tube L'!G8</f>
-        <v>H10</v>
-      </c>
-      <c r="AJ10" s="73">
-        <f>'Tube L'!F8</f>
-        <v>1.7327677670000003</v>
-      </c>
-      <c r="AK10" s="75">
-        <v>1.7162891919710017</v>
-      </c>
-      <c r="AL10" s="72" t="str">
         <f>'Tube M'!G8</f>
         <v>G1</v>
       </c>
-      <c r="AM10" s="73">
+      <c r="AA10" s="73">
         <f>'Tube M'!F8</f>
         <v>1.7401712160000002</v>
       </c>
-      <c r="AN10" s="74">
+      <c r="AB10" s="74">
         <v>1.0814671128458431</v>
       </c>
-      <c r="AO10" s="72" t="str">
+      <c r="AC10" s="72" t="str">
         <f>'Tube N'!G8</f>
         <v>D4</v>
       </c>
-      <c r="AP10" s="73">
+      <c r="AD10" s="73">
         <f>'Tube N'!F8</f>
         <v>1.7383681620000004</v>
       </c>
-      <c r="AQ10" s="74">
+      <c r="AE10" s="74">
         <v>0.10572731620310376</v>
       </c>
-      <c r="AR10" s="72" t="str">
+      <c r="AF10" s="72" t="str">
         <f>'Tube O'!G8</f>
         <v>C7</v>
       </c>
-      <c r="AS10" s="73">
+      <c r="AG10" s="73">
         <f>'Tube O'!F8</f>
         <v>1.7376578679999994</v>
       </c>
-      <c r="AT10" s="74">
+      <c r="AH10" s="74">
         <v>0.3487931242006681</v>
       </c>
-      <c r="AU10" s="72" t="str">
+      <c r="AI10" s="72" t="str">
         <f>'Tube P'!G8</f>
         <v>H10</v>
       </c>
-      <c r="AV10" s="73">
+      <c r="AJ10" s="73">
         <f>'Tube P'!F8</f>
         <v>1.7391330939999996</v>
       </c>
-      <c r="AW10" s="75">
+      <c r="AK10" s="75">
         <v>0.36713105098143145</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:37">
       <c r="A11" s="56">
         <v>8</v>
       </c>
@@ -23478,95 +21022,51 @@
         <v>7.8226424013937317</v>
       </c>
       <c r="Z11" s="72" t="str">
-        <f>'Tube I'!G9</f>
-        <v>H1</v>
-      </c>
-      <c r="AA11" s="73">
-        <f>'Tube I'!F9</f>
-        <v>1.7276317950000006</v>
-      </c>
-      <c r="AB11" s="74">
-        <v>3.7493351227179823</v>
-      </c>
-      <c r="AC11" s="72" t="str">
-        <f>'Tube J'!G9</f>
-        <v>C4</v>
-      </c>
-      <c r="AD11" s="73">
-        <f>'Tube J'!F9</f>
-        <v>1.7256375080000019</v>
-      </c>
-      <c r="AE11" s="74">
-        <v>5.9738112930605523</v>
-      </c>
-      <c r="AF11" s="72" t="str">
-        <f>'Tube K'!G9</f>
-        <v>D7</v>
-      </c>
-      <c r="AG11" s="73">
-        <f>'Tube K'!F9</f>
-        <v>1.7292982540000015</v>
-      </c>
-      <c r="AH11" s="74">
-        <v>5.7205753912685902</v>
-      </c>
-      <c r="AI11" s="72" t="str">
-        <f>'Tube L'!G9</f>
-        <v>G10</v>
-      </c>
-      <c r="AJ11" s="73">
-        <f>'Tube L'!F9</f>
-        <v>1.727303967000001</v>
-      </c>
-      <c r="AK11" s="75">
-        <v>4.4268481966704458</v>
-      </c>
-      <c r="AL11" s="72" t="str">
         <f>'Tube M'!G9</f>
         <v>H1</v>
       </c>
-      <c r="AM11" s="73">
+      <c r="AA11" s="73">
         <f>'Tube M'!F9</f>
         <v>1.7336146560000003</v>
       </c>
-      <c r="AN11" s="74">
+      <c r="AB11" s="74">
         <v>3.4931326444996196</v>
       </c>
-      <c r="AO11" s="72" t="str">
+      <c r="AC11" s="72" t="str">
         <f>'Tube N'!G9</f>
         <v>C4</v>
       </c>
-      <c r="AP11" s="73">
+      <c r="AD11" s="73">
         <f>'Tube N'!F9</f>
         <v>1.7329043620000011</v>
       </c>
-      <c r="AQ11" s="74">
+      <c r="AE11" s="74">
         <v>1.3466151722515773</v>
       </c>
-      <c r="AR11" s="72" t="str">
+      <c r="AF11" s="72" t="str">
         <f>'Tube O'!G9</f>
         <v>D7</v>
       </c>
-      <c r="AS11" s="73">
+      <c r="AG11" s="73">
         <f>'Tube O'!F9</f>
         <v>1.7301997810000014</v>
       </c>
-      <c r="AT11" s="74">
+      <c r="AH11" s="74">
         <v>2.1376134445432378</v>
       </c>
-      <c r="AU11" s="72" t="str">
+      <c r="AI11" s="72" t="str">
         <f>'Tube P'!G9</f>
         <v>G10</v>
       </c>
-      <c r="AV11" s="73">
+      <c r="AJ11" s="73">
         <f>'Tube P'!F9</f>
         <v>1.7325765340000014</v>
       </c>
-      <c r="AW11" s="75">
+      <c r="AK11" s="75">
         <v>1.3773724794825835</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:37">
       <c r="A12" s="56">
         <v>9</v>
       </c>
@@ -23659,95 +21159,51 @@
         <v>16.825580113159116</v>
       </c>
       <c r="Z12" s="72" t="str">
-        <f>'Tube I'!G10</f>
-        <v>H2</v>
-      </c>
-      <c r="AA12" s="73">
-        <f>'Tube I'!F10</f>
-        <v>1.7232607550000019</v>
-      </c>
-      <c r="AB12" s="74">
-        <v>7.2107789179963007</v>
-      </c>
-      <c r="AC12" s="72" t="str">
-        <f>'Tube J'!G10</f>
-        <v>B4</v>
-      </c>
-      <c r="AD12" s="73">
-        <f>'Tube J'!F10</f>
-        <v>1.720173707999999</v>
-      </c>
-      <c r="AE12" s="74">
-        <v>11.791711121199469</v>
-      </c>
-      <c r="AF12" s="72" t="str">
-        <f>'Tube K'!G10</f>
-        <v>E7</v>
-      </c>
-      <c r="AG12" s="73">
-        <f>'Tube K'!F10</f>
-        <v>1.7227416940000015</v>
-      </c>
-      <c r="AH12" s="74">
-        <v>13.127918855314343</v>
-      </c>
-      <c r="AI12" s="72" t="str">
-        <f>'Tube L'!G10</f>
-        <v>F10</v>
-      </c>
-      <c r="AJ12" s="73">
-        <f>'Tube L'!F10</f>
-        <v>1.7207474069999993</v>
-      </c>
-      <c r="AK12" s="75">
-        <v>10.067775543516712</v>
-      </c>
-      <c r="AL12" s="72" t="str">
         <f>'Tube M'!G10</f>
         <v>H2</v>
       </c>
-      <c r="AM12" s="73">
+      <c r="AA12" s="73">
         <f>'Tube M'!F10</f>
         <v>1.7292436160000015</v>
       </c>
-      <c r="AN12" s="74">
+      <c r="AB12" s="74">
         <v>9.9684851382542998</v>
       </c>
-      <c r="AO12" s="72" t="str">
+      <c r="AC12" s="72" t="str">
         <f>'Tube N'!G10</f>
         <v>B4</v>
       </c>
-      <c r="AP12" s="73">
+      <c r="AD12" s="73">
         <f>'Tube N'!F10</f>
         <v>1.7274405620000017</v>
       </c>
-      <c r="AQ12" s="74">
+      <c r="AE12" s="74">
         <v>11.944523832149699</v>
       </c>
-      <c r="AR12" s="72" t="str">
+      <c r="AF12" s="72" t="str">
         <f>'Tube O'!G10</f>
         <v>E7</v>
       </c>
-      <c r="AS12" s="73">
+      <c r="AG12" s="73">
         <f>'Tube O'!F10</f>
         <v>1.724735981000002</v>
       </c>
-      <c r="AT12" s="74">
+      <c r="AH12" s="74">
         <v>13.812288942181334</v>
       </c>
-      <c r="AU12" s="72" t="str">
+      <c r="AI12" s="72" t="str">
         <f>'Tube P'!G10</f>
         <v>F10</v>
       </c>
-      <c r="AV12" s="73">
+      <c r="AJ12" s="73">
         <f>'Tube P'!F10</f>
         <v>1.7271127340000021</v>
       </c>
-      <c r="AW12" s="75">
+      <c r="AK12" s="75">
         <v>8.3925853727849447</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:37">
       <c r="A13" s="56">
         <v>10</v>
       </c>
@@ -23840,95 +21296,51 @@
         <v>17.212606027150656</v>
       </c>
       <c r="Z13" s="72" t="str">
-        <f>'Tube I'!G11</f>
-        <v>G2</v>
-      </c>
-      <c r="AA13" s="73">
-        <f>'Tube I'!F11</f>
-        <v>1.7167041950000002</v>
-      </c>
-      <c r="AB13" s="74">
-        <v>10.473723507129625</v>
-      </c>
-      <c r="AC13" s="72" t="str">
-        <f>'Tube J'!G11</f>
-        <v>A4</v>
-      </c>
-      <c r="AD13" s="73">
-        <f>'Tube J'!F11</f>
-        <v>1.7149011410000004</v>
-      </c>
-      <c r="AE13" s="74">
-        <v>13.663008958118363</v>
-      </c>
-      <c r="AF13" s="72" t="str">
-        <f>'Tube K'!G11</f>
-        <v>F7</v>
-      </c>
-      <c r="AG13" s="73">
-        <f>'Tube K'!F11</f>
-        <v>1.7172778940000004</v>
-      </c>
-      <c r="AH13" s="74">
-        <v>15.281765620683686</v>
-      </c>
-      <c r="AI13" s="72" t="str">
-        <f>'Tube L'!G11</f>
-        <v>E10</v>
-      </c>
-      <c r="AJ13" s="73">
-        <f>'Tube L'!F11</f>
-        <v>1.7152836069999999</v>
-      </c>
-      <c r="AK13" s="74">
-        <v>12.957480421035882</v>
-      </c>
-      <c r="AL13" s="72" t="str">
         <f>'Tube M'!G11</f>
         <v>G2</v>
       </c>
-      <c r="AM13" s="73">
+      <c r="AA13" s="73">
         <f>'Tube M'!F11</f>
         <v>1.7226870560000016</v>
       </c>
-      <c r="AN13" s="74">
+      <c r="AB13" s="74">
         <v>21.450682597248576</v>
       </c>
-      <c r="AO13" s="72" t="str">
+      <c r="AC13" s="72" t="str">
         <f>'Tube N'!G11</f>
         <v>A4</v>
       </c>
-      <c r="AP13" s="73">
+      <c r="AD13" s="73">
         <f>'Tube N'!F11</f>
         <v>1.7210752350000025</v>
       </c>
-      <c r="AQ13" s="74">
+      <c r="AE13" s="74">
         <v>22.29222163583761</v>
       </c>
-      <c r="AR13" s="72" t="str">
+      <c r="AF13" s="72" t="str">
         <f>'Tube O'!G11</f>
         <v>F7</v>
       </c>
-      <c r="AS13" s="73">
+      <c r="AG13" s="73">
         <f>'Tube O'!F11</f>
         <v>1.7181794210000003</v>
       </c>
-      <c r="AT13" s="74">
+      <c r="AH13" s="74">
         <v>18.234916730350577</v>
       </c>
-      <c r="AU13" s="72" t="str">
+      <c r="AI13" s="72" t="str">
         <f>'Tube P'!G11</f>
         <v>E10</v>
       </c>
-      <c r="AV13" s="73">
+      <c r="AJ13" s="73">
         <f>'Tube P'!F11</f>
         <v>1.7205561740000004</v>
       </c>
-      <c r="AW13" s="74">
+      <c r="AK13" s="74">
         <v>16.185376531622445</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:37">
       <c r="A14" s="56">
         <v>11</v>
       </c>
@@ -24021,95 +21433,51 @@
         <v>12.502931635667879</v>
       </c>
       <c r="Z14" s="72" t="str">
-        <f>'Tube I'!G12</f>
-        <v>F2</v>
-      </c>
-      <c r="AA14" s="73">
-        <f>'Tube I'!F12</f>
-        <v>1.7134259150000002</v>
-      </c>
-      <c r="AB14" s="74">
-        <v>9.4213977223822098</v>
-      </c>
-      <c r="AC14" s="72" t="str">
-        <f>'Tube J'!G12</f>
-        <v>A5</v>
-      </c>
-      <c r="AD14" s="73">
-        <f>'Tube J'!F12</f>
-        <v>1.7105301010000016</v>
-      </c>
-      <c r="AE14" s="74">
-        <v>9.9099273579336131</v>
-      </c>
-      <c r="AF14" s="72" t="str">
-        <f>'Tube K'!G12</f>
-        <v>G7</v>
-      </c>
-      <c r="AG14" s="73">
-        <f>'Tube K'!F12</f>
-        <v>1.7107213340000005</v>
-      </c>
-      <c r="AH14" s="74">
-        <v>13.60845214639132</v>
-      </c>
-      <c r="AI14" s="72" t="str">
-        <f>'Tube L'!G12</f>
-        <v>D10</v>
-      </c>
-      <c r="AJ14" s="73">
-        <f>'Tube L'!F12</f>
-        <v>1.7100110400000013</v>
-      </c>
-      <c r="AK14" s="76">
-        <v>12.414191324739178</v>
-      </c>
-      <c r="AL14" s="72" t="str">
         <f>'Tube M'!G12</f>
         <v>F2</v>
       </c>
-      <c r="AM14" s="73">
+      <c r="AA14" s="73">
         <f>'Tube M'!F12</f>
         <v>1.7161304959999999</v>
       </c>
-      <c r="AN14" s="74">
+      <c r="AB14" s="74">
         <v>18.324604676134882</v>
       </c>
-      <c r="AO14" s="72" t="str">
+      <c r="AC14" s="72" t="str">
         <f>'Tube N'!G12</f>
         <v>A5</v>
       </c>
-      <c r="AP14" s="73">
+      <c r="AD14" s="73">
         <f>'Tube N'!F12</f>
         <v>1.7167041950000002</v>
       </c>
-      <c r="AQ14" s="74">
+      <c r="AE14" s="74">
         <v>18.235797641953198</v>
       </c>
-      <c r="AR14" s="72" t="str">
+      <c r="AF14" s="72" t="str">
         <f>'Tube O'!G12</f>
         <v>G7</v>
       </c>
-      <c r="AS14" s="73">
+      <c r="AG14" s="73">
         <f>'Tube O'!F12</f>
         <v>1.712715621000001</v>
       </c>
-      <c r="AT14" s="74">
+      <c r="AH14" s="74">
         <v>15.82570681100089</v>
       </c>
-      <c r="AU14" s="72" t="str">
+      <c r="AI14" s="72" t="str">
         <f>'Tube P'!G12</f>
         <v>D10</v>
       </c>
-      <c r="AV14" s="73">
+      <c r="AJ14" s="73">
         <f>'Tube P'!F12</f>
         <v>1.715092374000001</v>
       </c>
-      <c r="AW14" s="76">
+      <c r="AK14" s="76">
         <v>19.022443992235285</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:37">
       <c r="A15" s="56">
         <v>12</v>
       </c>
@@ -24202,95 +21570,51 @@
         <v>6.4920750888033103</v>
       </c>
       <c r="Z15" s="72" t="str">
-        <f>'Tube I'!G13</f>
-        <v>E2</v>
-      </c>
-      <c r="AA15" s="73">
-        <f>'Tube I'!F13</f>
-        <v>1.7057765950000014</v>
-      </c>
-      <c r="AB15" s="74">
-        <v>6.1622730214162447</v>
-      </c>
-      <c r="AC15" s="72" t="str">
-        <f>'Tube J'!G13</f>
-        <v>B5</v>
-      </c>
-      <c r="AD15" s="73">
-        <f>'Tube J'!F13</f>
-        <v>1.7039735410000016</v>
-      </c>
-      <c r="AE15" s="74">
-        <v>5.1823779036851585</v>
-      </c>
-      <c r="AF15" s="72" t="str">
-        <f>'Tube K'!G13</f>
-        <v>H7</v>
-      </c>
-      <c r="AG15" s="73">
-        <f>'Tube K'!F13</f>
-        <v>1.7063502940000017</v>
-      </c>
-      <c r="AH15" s="74">
-        <v>8.0732093804428757</v>
-      </c>
-      <c r="AI15" s="72" t="str">
-        <f>'Tube L'!G13</f>
-        <v>C10</v>
-      </c>
-      <c r="AJ15" s="73">
-        <f>'Tube L'!F13</f>
-        <v>1.7032632470000024</v>
-      </c>
-      <c r="AK15" s="76">
-        <v>8.1411971838246355</v>
-      </c>
-      <c r="AL15" s="72" t="str">
         <f>'Tube M'!G13</f>
         <v>E2</v>
       </c>
-      <c r="AM15" s="73">
+      <c r="AA15" s="73">
         <f>'Tube M'!F13</f>
         <v>1.7117594560000011</v>
       </c>
-      <c r="AN15" s="74">
+      <c r="AB15" s="74">
         <v>13.158090764632249</v>
       </c>
-      <c r="AO15" s="72" t="str">
+      <c r="AC15" s="72" t="str">
         <f>'Tube N'!G13</f>
         <v>B5</v>
       </c>
-      <c r="AP15" s="73">
+      <c r="AD15" s="73">
         <f>'Tube N'!F13</f>
         <v>1.7101476350000002</v>
       </c>
-      <c r="AQ15" s="74">
+      <c r="AE15" s="74">
         <v>11.569216695762584</v>
       </c>
-      <c r="AR15" s="72" t="str">
+      <c r="AF15" s="72" t="str">
         <f>'Tube O'!G13</f>
         <v>H7</v>
       </c>
-      <c r="AS15" s="73">
+      <c r="AG15" s="73">
         <f>'Tube O'!F13</f>
         <v>1.7072518210000016</v>
       </c>
-      <c r="AT15" s="74">
+      <c r="AH15" s="74">
         <v>9.5022800744590743</v>
       </c>
-      <c r="AU15" s="72" t="str">
+      <c r="AI15" s="72" t="str">
         <f>'Tube P'!G13</f>
         <v>C10</v>
       </c>
-      <c r="AV15" s="73">
+      <c r="AJ15" s="73">
         <f>'Tube P'!F13</f>
         <v>1.7096285740000017</v>
       </c>
-      <c r="AW15" s="76">
+      <c r="AK15" s="76">
         <v>13.873540936065636</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:37">
       <c r="A16" s="56">
         <v>13</v>
       </c>
@@ -24383,95 +21707,51 @@
         <v>2.6712828920512535</v>
       </c>
       <c r="Z16" s="72" t="str">
-        <f>'Tube I'!G14</f>
-        <v>D2</v>
-      </c>
-      <c r="AA16" s="73">
-        <f>'Tube I'!F14</f>
-        <v>1.7003127950000021</v>
-      </c>
-      <c r="AB16" s="74">
-        <v>3.3089072547657987</v>
-      </c>
-      <c r="AC16" s="72" t="str">
-        <f>'Tube J'!G14</f>
-        <v>C5</v>
-      </c>
-      <c r="AD16" s="73">
-        <f>'Tube J'!F14</f>
-        <v>1.6985097410000005</v>
-      </c>
-      <c r="AE16" s="74">
-        <v>2.3449792321956564</v>
-      </c>
-      <c r="AF16" s="72" t="str">
-        <f>'Tube K'!G14</f>
-        <v>H8</v>
-      </c>
-      <c r="AG16" s="73">
-        <f>'Tube K'!F14</f>
-        <v>1.6997937340000018</v>
-      </c>
-      <c r="AH16" s="74">
-        <v>4.5248351526970048</v>
-      </c>
-      <c r="AI16" s="72" t="str">
-        <f>'Tube L'!G14</f>
-        <v>B10</v>
-      </c>
-      <c r="AJ16" s="73">
-        <f>'Tube L'!F14</f>
-        <v>1.6979906800000002</v>
-      </c>
-      <c r="AK16" s="76">
-        <v>4.2495992743210156</v>
-      </c>
-      <c r="AL16" s="72" t="str">
         <f>'Tube M'!G14</f>
         <v>D2</v>
       </c>
-      <c r="AM16" s="73">
+      <c r="AA16" s="73">
         <f>'Tube M'!F14</f>
         <v>1.7052028960000012</v>
       </c>
-      <c r="AN16" s="74">
+      <c r="AB16" s="74">
         <v>6.295960012504989</v>
       </c>
-      <c r="AO16" s="72" t="str">
+      <c r="AC16" s="72" t="str">
         <f>'Tube N'!G14</f>
         <v>C5</v>
       </c>
-      <c r="AP16" s="73">
+      <c r="AD16" s="73">
         <f>'Tube N'!F14</f>
         <v>1.7046838350000009</v>
       </c>
-      <c r="AQ16" s="74">
+      <c r="AE16" s="74">
         <v>4.1424341088283043</v>
       </c>
-      <c r="AR16" s="72" t="str">
+      <c r="AF16" s="72" t="str">
         <f>'Tube O'!G14</f>
         <v>H8</v>
       </c>
-      <c r="AS16" s="73">
+      <c r="AG16" s="73">
         <f>'Tube O'!F14</f>
         <v>1.6974169809999999</v>
       </c>
-      <c r="AT16" s="74">
+      <c r="AH16" s="74">
         <v>4.1784099521668319</v>
       </c>
-      <c r="AU16" s="72" t="str">
+      <c r="AI16" s="72" t="str">
         <f>'Tube P'!G14</f>
         <v>B10</v>
       </c>
-      <c r="AV16" s="73">
+      <c r="AJ16" s="73">
         <f>'Tube P'!F14</f>
         <v>1.7030720140000017</v>
       </c>
-      <c r="AW16" s="76">
+      <c r="AK16" s="76">
         <v>5.942441010764397</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:37">
       <c r="A17" s="56">
         <v>14</v>
       </c>
@@ -24564,94 +21844,50 @@
         <v>1.6668998085147069</v>
       </c>
       <c r="Z17" s="72" t="str">
-        <f>'Tube I'!G15</f>
-        <v>C2</v>
-      </c>
-      <c r="AA17" s="73">
-        <f>'Tube I'!F15</f>
-        <v>1.6937562350000004</v>
-      </c>
-      <c r="AB17" s="74">
-        <v>1.9381309845961638</v>
-      </c>
-      <c r="AC17" s="72" t="str">
-        <f>'Tube J'!G15</f>
-        <v>D5</v>
-      </c>
-      <c r="AD17" s="73">
-        <f>'Tube J'!F15</f>
-        <v>1.6919531810000006</v>
-      </c>
-      <c r="AE17" s="74">
-        <v>1.243002189999302</v>
-      </c>
-      <c r="AF17" s="72" t="str">
-        <f>'Tube K'!G15</f>
-        <v>G8</v>
-      </c>
-      <c r="AG17" s="73">
-        <f>'Tube K'!F15</f>
-        <v>1.6943299340000006</v>
-      </c>
-      <c r="AH17" s="74">
-        <v>2.5103779295198003</v>
-      </c>
-      <c r="AI17" s="72" t="str">
-        <f>'Tube L'!G15</f>
-        <v>A10</v>
-      </c>
-      <c r="AJ17" s="73">
-        <f>'Tube L'!F15</f>
-        <v>1.6936196399999996</v>
-      </c>
-      <c r="AK17" s="74">
-        <v>2.2070692520621766</v>
-      </c>
-      <c r="AL17" s="72" t="str">
         <f>'Tube M'!G15</f>
         <v>C2</v>
       </c>
-      <c r="AM17" s="73">
+      <c r="AA17" s="73">
         <f>'Tube M'!F15</f>
         <v>1.6986463360000013</v>
       </c>
-      <c r="AN17" s="74">
+      <c r="AB17" s="74">
         <v>2.3498129555369558</v>
       </c>
-      <c r="AO17" s="72" t="str">
+      <c r="AC17" s="72" t="str">
         <f>'Tube N'!G15</f>
         <v>D5</v>
       </c>
-      <c r="AP17" s="73">
+      <c r="AD17" s="73">
         <f>'Tube N'!F15</f>
         <v>1.6981272749999992</v>
       </c>
-      <c r="AQ17" s="74">
+      <c r="AE17" s="74">
         <v>1.5845553041505323</v>
       </c>
-      <c r="AR17" s="113" t="str">
+      <c r="AF17" s="111" t="str">
         <f>'Tube O'!G15</f>
         <v>G8</v>
       </c>
-      <c r="AS17" s="114">
+      <c r="AG17" s="112">
         <v>1.6876</v>
       </c>
-      <c r="AT17" s="115">
+      <c r="AH17" s="113">
         <v>0</v>
       </c>
-      <c r="AU17" s="72" t="str">
+      <c r="AI17" s="72" t="str">
         <f>'Tube P'!G15</f>
         <v>A10</v>
       </c>
-      <c r="AV17" s="73">
+      <c r="AJ17" s="73">
         <f>'Tube P'!F15</f>
         <v>1.6976082140000006</v>
       </c>
-      <c r="AW17" s="74">
+      <c r="AK17" s="74">
         <v>2.4639658915061049</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:37">
       <c r="A18" s="56">
         <v>15</v>
       </c>
@@ -24744,95 +21980,51 @@
         <v>1.1722350020350139</v>
       </c>
       <c r="Z18" s="72" t="str">
-        <f>'Tube I'!G16</f>
-        <v>B2</v>
-      </c>
-      <c r="AA18" s="73">
-        <f>'Tube I'!F16</f>
-        <v>1.6893851949999998</v>
-      </c>
-      <c r="AB18" s="74">
-        <v>1.1326963078800969</v>
-      </c>
-      <c r="AC18" s="72" t="str">
-        <f>'Tube J'!G16</f>
-        <v>E5</v>
-      </c>
-      <c r="AD18" s="73">
-        <f>'Tube J'!F16</f>
-        <v>1.687582141</v>
-      </c>
-      <c r="AE18" s="74">
-        <v>0.71672811810564774</v>
-      </c>
-      <c r="AF18" s="72" t="str">
-        <f>'Tube K'!G16</f>
-        <v>F8</v>
-      </c>
-      <c r="AG18" s="73">
-        <f>'Tube K'!F16</f>
-        <v>1.6890573670000002</v>
-      </c>
-      <c r="AH18" s="74">
-        <v>1.418635567829021</v>
-      </c>
-      <c r="AI18" s="72" t="str">
-        <f>'Tube L'!G16</f>
-        <v>A11</v>
-      </c>
-      <c r="AJ18" s="73">
-        <f>'Tube L'!F16</f>
-        <v>1.6881558400000003</v>
-      </c>
-      <c r="AK18" s="74">
-        <v>1.3170979103091704</v>
-      </c>
-      <c r="AL18" s="72" t="str">
         <f>'Tube M'!G16</f>
         <v>B2</v>
       </c>
-      <c r="AM18" s="73">
+      <c r="AA18" s="73">
         <f>'Tube M'!F16</f>
         <v>1.6933737690000008</v>
       </c>
-      <c r="AN18" s="74">
+      <c r="AB18" s="74">
         <v>1.3798496749477529</v>
       </c>
-      <c r="AO18" s="72" t="str">
+      <c r="AC18" s="72" t="str">
         <f>'Tube N'!G16</f>
         <v>E5</v>
       </c>
-      <c r="AP18" s="73">
+      <c r="AD18" s="73">
         <f>'Tube N'!F16</f>
         <v>1.6926634749999998</v>
       </c>
-      <c r="AQ18" s="74">
+      <c r="AE18" s="74">
         <v>0.98504193888390212</v>
       </c>
-      <c r="AR18" s="72" t="str">
+      <c r="AF18" s="72" t="str">
         <f>'Tube O'!G16</f>
         <v>F8</v>
       </c>
-      <c r="AS18" s="73">
+      <c r="AG18" s="73">
         <f>'Tube O'!F16</f>
         <v>1.6897676610000012</v>
       </c>
-      <c r="AT18" s="74">
+      <c r="AH18" s="74">
         <v>0.8176633527123518</v>
       </c>
-      <c r="AU18" s="72" t="str">
+      <c r="AI18" s="72" t="str">
         <f>'Tube P'!G16</f>
         <v>A11</v>
       </c>
-      <c r="AV18" s="73">
+      <c r="AJ18" s="73">
         <f>'Tube P'!F16</f>
         <v>1.6923356470000002</v>
       </c>
-      <c r="AW18" s="74">
+      <c r="AK18" s="74">
         <v>1.4229340817683054</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:37">
       <c r="A19" s="56">
         <v>16</v>
       </c>
@@ -24925,95 +22117,51 @@
         <v>0.65650037123294924</v>
       </c>
       <c r="Z19" s="72" t="str">
-        <f>'Tube I'!G17</f>
-        <v>A2</v>
-      </c>
-      <c r="AA19" s="73">
-        <f>'Tube I'!F17</f>
-        <v>1.6839213950000005</v>
-      </c>
-      <c r="AB19" s="74">
-        <v>0.63209317686714483</v>
-      </c>
-      <c r="AC19" s="72" t="str">
-        <f>'Tube J'!G17</f>
-        <v>F5</v>
-      </c>
-      <c r="AD19" s="73">
-        <f>'Tube J'!F17</f>
-        <v>1.6810255810000019</v>
-      </c>
-      <c r="AE19" s="74">
-        <v>0.52412837276584989</v>
-      </c>
-      <c r="AF19" s="72" t="str">
-        <f>'Tube K'!G17</f>
-        <v>E8</v>
-      </c>
-      <c r="AG19" s="73">
-        <f>'Tube K'!F17</f>
-        <v>1.6835935670000008</v>
-      </c>
-      <c r="AH19" s="74">
-        <v>0.89913615613501341</v>
-      </c>
-      <c r="AI19" s="72" t="str">
-        <f>'Tube L'!G17</f>
-        <v>B11</v>
-      </c>
-      <c r="AJ19" s="73">
-        <f>'Tube L'!F17</f>
-        <v>1.6826920400000009</v>
-      </c>
-      <c r="AK19" s="74">
-        <v>0.72595494354385892</v>
-      </c>
-      <c r="AL19" s="72" t="str">
         <f>'Tube M'!G17</f>
         <v>A2</v>
       </c>
-      <c r="AM19" s="73">
+      <c r="AA19" s="73">
         <f>'Tube M'!F17</f>
         <v>1.6879099689999997</v>
       </c>
-      <c r="AN19" s="74">
+      <c r="AB19" s="74">
         <v>0.76568008941625665</v>
       </c>
-      <c r="AO19" s="72" t="str">
+      <c r="AC19" s="72" t="str">
         <f>'Tube N'!G17</f>
         <v>F5</v>
       </c>
-      <c r="AP19" s="73">
+      <c r="AD19" s="73">
         <f>'Tube N'!F17</f>
         <v>1.6861069150000016</v>
       </c>
-      <c r="AQ19" s="74">
+      <c r="AE19" s="74">
         <v>0.54133783878258568</v>
       </c>
-      <c r="AR19" s="72" t="str">
+      <c r="AF19" s="72" t="str">
         <f>'Tube O'!G17</f>
         <v>E8</v>
       </c>
-      <c r="AS19" s="73">
+      <c r="AG19" s="73">
         <f>'Tube O'!F17</f>
         <v>1.6832111010000013</v>
       </c>
-      <c r="AT19" s="74">
+      <c r="AH19" s="74">
         <v>0.471490957794509</v>
       </c>
-      <c r="AU19" s="72" t="str">
+      <c r="AI19" s="72" t="str">
         <f>'Tube P'!G17</f>
         <v>B11</v>
       </c>
-      <c r="AV19" s="73">
+      <c r="AJ19" s="73">
         <f>'Tube P'!F17</f>
         <v>1.6868718470000008</v>
       </c>
-      <c r="AW19" s="74">
+      <c r="AK19" s="74">
         <v>0.6259825331673764</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:37">
       <c r="A20" s="56">
         <v>17</v>
       </c>
@@ -25106,95 +22254,51 @@
         <v>0.38046691109525588</v>
       </c>
       <c r="Z20" s="72" t="str">
-        <f>'Tube I'!G18</f>
-        <v>A3</v>
-      </c>
-      <c r="AA20" s="73">
-        <f>'Tube I'!F18</f>
-        <v>1.6795503550000017</v>
-      </c>
-      <c r="AB20" s="74">
-        <v>0.41586111081855598</v>
-      </c>
-      <c r="AC20" s="72" t="str">
-        <f>'Tube J'!G18</f>
-        <v>G5</v>
-      </c>
-      <c r="AD20" s="73">
-        <f>'Tube J'!F18</f>
-        <v>1.675561780999999</v>
-      </c>
-      <c r="AE20" s="74">
-        <v>0.34468508200269071</v>
-      </c>
-      <c r="AF20" s="72" t="str">
-        <f>'Tube K'!G18</f>
-        <v>D8</v>
-      </c>
-      <c r="AG20" s="73">
-        <f>'Tube K'!F18</f>
-        <v>1.6781297670000015</v>
-      </c>
-      <c r="AH20" s="74">
-        <v>0.59006983466801666</v>
-      </c>
-      <c r="AI20" s="72" t="str">
-        <f>'Tube L'!G18</f>
-        <v>C11</v>
-      </c>
-      <c r="AJ20" s="73">
-        <f>'Tube L'!F18</f>
-        <v>1.6783210000000022</v>
-      </c>
-      <c r="AK20" s="74">
-        <v>0.51911744678448046</v>
-      </c>
-      <c r="AL20" s="72" t="str">
         <f>'Tube M'!G18</f>
         <v>A3</v>
       </c>
-      <c r="AM20" s="73">
+      <c r="AA20" s="73">
         <f>'Tube M'!F18</f>
         <v>1.6824461690000003</v>
       </c>
-      <c r="AN20" s="74">
+      <c r="AB20" s="74">
         <v>0.40776082336894204</v>
       </c>
-      <c r="AO20" s="72" t="str">
+      <c r="AC20" s="72" t="str">
         <f>'Tube N'!G18</f>
         <v>G5</v>
       </c>
-      <c r="AP20" s="73">
+      <c r="AD20" s="73">
         <f>'Tube N'!F18</f>
         <v>1.6806431150000023</v>
       </c>
-      <c r="AQ20" s="74">
+      <c r="AE20" s="74">
         <v>0.28401286038670026</v>
       </c>
-      <c r="AR20" s="72" t="str">
+      <c r="AF20" s="72" t="str">
         <f>'Tube O'!G18</f>
         <v>D8</v>
       </c>
-      <c r="AS20" s="73">
+      <c r="AG20" s="73">
         <f>'Tube O'!F18</f>
         <v>1.6777473010000019</v>
       </c>
-      <c r="AT20" s="74">
+      <c r="AH20" s="74">
         <v>0.31465127627054207</v>
       </c>
-      <c r="AU20" s="72" t="str">
+      <c r="AI20" s="72" t="str">
         <f>'Tube P'!G18</f>
         <v>C11</v>
       </c>
-      <c r="AV20" s="73">
+      <c r="AJ20" s="73">
         <f>'Tube P'!F18</f>
         <v>1.6803152870000009</v>
       </c>
-      <c r="AW20" s="74">
+      <c r="AK20" s="74">
         <v>0.36225956363776451</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:37">
       <c r="A21" s="56">
         <v>18</v>
       </c>
@@ -25287,95 +22391,51 @@
         <v>0.34377385774461211</v>
       </c>
       <c r="Z21" s="72" t="str">
-        <f>'Tube I'!G19</f>
-        <v>B3</v>
-      </c>
-      <c r="AA21" s="73">
-        <f>'Tube I'!F19</f>
-        <v>1.6708082750000006</v>
-      </c>
-      <c r="AB21" s="74">
-        <v>0.31562427106403934</v>
-      </c>
-      <c r="AC21" s="72" t="str">
-        <f>'Tube J'!G19</f>
-        <v>H5</v>
-      </c>
-      <c r="AD21" s="73">
-        <f>'Tube J'!F19</f>
-        <v>1.6690052210000008</v>
-      </c>
-      <c r="AE21" s="74">
-        <v>0.20830142310783337</v>
-      </c>
-      <c r="AF21" s="72" t="str">
-        <f>'Tube K'!G19</f>
-        <v>C8</v>
-      </c>
-      <c r="AG21" s="73">
-        <f>'Tube K'!F19</f>
-        <v>1.6693876870000004</v>
-      </c>
-      <c r="AH21" s="74">
-        <v>0.47091448221763227</v>
-      </c>
-      <c r="AI21" s="72" t="str">
-        <f>'Tube L'!G19</f>
-        <v>D11</v>
-      </c>
-      <c r="AJ21" s="73">
-        <f>'Tube L'!F19</f>
-        <v>1.6706716799999999</v>
-      </c>
-      <c r="AK21" s="74">
-        <v>0.37299370127947773</v>
-      </c>
-      <c r="AL21" s="72" t="str">
         <f>'Tube M'!G19</f>
         <v>B3</v>
       </c>
-      <c r="AM21" s="73">
+      <c r="AA21" s="73">
         <f>'Tube M'!F19</f>
         <v>1.6758896090000022</v>
       </c>
-      <c r="AN21" s="74">
+      <c r="AB21" s="74">
         <v>0.29276000123877305</v>
       </c>
-      <c r="AO21" s="72" t="str">
+      <c r="AC21" s="72" t="str">
         <f>'Tube N'!G19</f>
         <v>H5</v>
       </c>
-      <c r="AP21" s="73">
+      <c r="AD21" s="73">
         <f>'Tube N'!F19</f>
         <v>1.672993795</v>
       </c>
-      <c r="AQ21" s="74">
+      <c r="AE21" s="74">
         <v>0.22507097188323297</v>
       </c>
-      <c r="AR21" s="72" t="str">
+      <c r="AF21" s="72" t="str">
         <f>'Tube O'!G19</f>
         <v>C8</v>
       </c>
-      <c r="AS21" s="73">
+      <c r="AG21" s="73">
         <f>'Tube O'!F19</f>
         <v>1.6679124610000002</v>
       </c>
-      <c r="AT21" s="74">
+      <c r="AH21" s="74">
         <v>0.30853803725471635</v>
       </c>
-      <c r="AU21" s="72" t="str">
+      <c r="AI21" s="72" t="str">
         <f>'Tube P'!G19</f>
         <v>D11</v>
       </c>
-      <c r="AV21" s="73">
+      <c r="AJ21" s="73">
         <f>'Tube P'!F19</f>
         <v>1.6737587269999992</v>
       </c>
-      <c r="AW21" s="74">
+      <c r="AK21" s="74">
         <v>0.30441268479843542</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:37">
       <c r="A22" s="56">
         <v>19</v>
       </c>
@@ -25468,95 +22528,51 @@
         <v>0.37279096058593852</v>
       </c>
       <c r="Z22" s="72" t="str">
-        <f>'Tube I'!G20</f>
-        <v>C3</v>
-      </c>
-      <c r="AA22" s="73">
-        <f>'Tube I'!F20</f>
-        <v>1.6434892750000003</v>
-      </c>
-      <c r="AB22" s="74">
-        <v>0.24375585398238062</v>
-      </c>
-      <c r="AC22" s="72" t="str">
-        <f>'Tube J'!G20</f>
-        <v>H6</v>
-      </c>
-      <c r="AD22" s="73">
-        <f>'Tube J'!F20</f>
-        <v>1.6449645010000005</v>
-      </c>
-      <c r="AE22" s="74">
-        <v>0.21966506852337128</v>
-      </c>
-      <c r="AF22" s="72" t="str">
-        <f>'Tube K'!G20</f>
-        <v>B8</v>
-      </c>
-      <c r="AG22" s="73">
-        <f>'Tube K'!F20</f>
-        <v>1.6333266070000025</v>
-      </c>
-      <c r="AH22" s="74">
-        <v>0.41632315131264769</v>
-      </c>
-      <c r="AI22" s="72" t="str">
-        <f>'Tube L'!G20</f>
-        <v>E11</v>
-      </c>
-      <c r="AJ22" s="73">
-        <f>'Tube L'!F20</f>
-        <v>1.6389816400000008</v>
-      </c>
-      <c r="AK22" s="74">
-        <v>0.38623232735563801</v>
-      </c>
-      <c r="AL22" s="72" t="str">
         <f>'Tube M'!G20</f>
         <v>C3</v>
       </c>
-      <c r="AM22" s="73">
+      <c r="AA22" s="73">
         <f>'Tube M'!F20</f>
         <v>1.6594982090000006</v>
       </c>
-      <c r="AN22" s="74">
+      <c r="AB22" s="74">
         <v>0.28464394883330324</v>
       </c>
-      <c r="AO22" s="72" t="str">
+      <c r="AC22" s="72" t="str">
         <f>'Tube N'!G20</f>
         <v>H6</v>
       </c>
-      <c r="AP22" s="73">
+      <c r="AD22" s="73">
         <f>'Tube N'!F20</f>
         <v>1.6489530749999997</v>
       </c>
-      <c r="AQ22" s="74">
+      <c r="AE22" s="74">
         <v>0.30684574816920362</v>
       </c>
-      <c r="AR22" s="72" t="str">
+      <c r="AF22" s="72" t="str">
         <f>'Tube O'!G20</f>
         <v>B8</v>
       </c>
-      <c r="AS22" s="73">
+      <c r="AG22" s="73">
         <f>'Tube O'!F20</f>
         <v>1.6220165410000007</v>
       </c>
-      <c r="AT22" s="74">
+      <c r="AH22" s="74">
         <v>0.33503877461376219</v>
       </c>
-      <c r="AU22" s="72" t="str">
+      <c r="AI22" s="72" t="str">
         <f>'Tube P'!G20</f>
         <v>E11</v>
       </c>
-      <c r="AV22" s="73">
+      <c r="AJ22" s="73">
         <f>'Tube P'!F20</f>
         <v>1.6529962870000006</v>
       </c>
-      <c r="AW22" s="74">
+      <c r="AK22" s="74">
         <v>0.37039832998299582</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:37">
       <c r="A23" s="56">
         <v>20</v>
       </c>
@@ -25649,95 +22665,51 @@
         <v>0.24361587357315337</v>
       </c>
       <c r="Z23" s="72" t="str">
-        <f>'Tube I'!G21</f>
-        <v>D3</v>
-      </c>
-      <c r="AA23" s="73">
-        <f>'Tube I'!F21</f>
-        <v>1.5320277550000014</v>
-      </c>
-      <c r="AB23" s="74">
-        <v>0.20403141850105425</v>
-      </c>
-      <c r="AC23" s="72" t="str">
-        <f>'Tube J'!G21</f>
-        <v>G6</v>
-      </c>
-      <c r="AD23" s="73">
-        <f>'Tube J'!F21</f>
-        <v>1.535688501000001</v>
-      </c>
-      <c r="AE23" s="74">
-        <v>0.17935291925745211</v>
-      </c>
-      <c r="AF23" s="72" t="str">
-        <f>'Tube K'!G21</f>
-        <v>A8</v>
-      </c>
-      <c r="AG23" s="73">
-        <f>'Tube K'!F21</f>
-        <v>1.5120302470000002</v>
-      </c>
-      <c r="AH23" s="74">
-        <v>0.28311802822163706</v>
-      </c>
-      <c r="AI23" s="72" t="str">
-        <f>'Tube L'!G21</f>
-        <v>F11</v>
-      </c>
-      <c r="AJ23" s="73">
-        <f>'Tube L'!F21</f>
-        <v>1.5165925199999997</v>
-      </c>
-      <c r="AK23" s="74">
-        <v>0.19850381482556786</v>
-      </c>
-      <c r="AL23" s="72" t="str">
         <f>'Tube M'!G21</f>
         <v>D3</v>
       </c>
-      <c r="AM23" s="73">
+      <c r="AA23" s="73">
         <f>'Tube M'!F21</f>
         <v>1.5808194889999996</v>
       </c>
-      <c r="AN23" s="74">
+      <c r="AB23" s="74">
         <v>0.31159665368443235</v>
       </c>
-      <c r="AO23" s="72" t="str">
+      <c r="AC23" s="72" t="str">
         <f>'Tube N'!G21</f>
         <v>G6</v>
       </c>
-      <c r="AP23" s="73">
+      <c r="AD23" s="73">
         <f>'Tube N'!F21</f>
         <v>1.543146587999999</v>
       </c>
-      <c r="AQ23" s="74">
+      <c r="AE23" s="74">
         <v>0.23634801406445116</v>
       </c>
-      <c r="AR23" s="72" t="str">
+      <c r="AF23" s="72" t="str">
         <f>'Tube O'!G21</f>
         <v>A8</v>
       </c>
-      <c r="AS23" s="73">
+      <c r="AG23" s="73">
         <f>'Tube O'!F21</f>
         <v>1.4734011809999998</v>
       </c>
-      <c r="AT23" s="74">
+      <c r="AH23" s="74">
         <v>0.20737937141537097</v>
       </c>
-      <c r="AU23" s="72" t="str">
+      <c r="AI23" s="72" t="str">
         <f>'Tube P'!G21</f>
         <v>F11</v>
       </c>
-      <c r="AV23" s="73">
+      <c r="AJ23" s="73">
         <f>'Tube P'!F21</f>
         <v>1.5590189270000003</v>
       </c>
-      <c r="AW23" s="74">
+      <c r="AK23" s="74">
         <v>0.24272611441916739</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:37">
       <c r="A24" s="56">
         <v>21</v>
       </c>
@@ -25830,95 +22802,51 @@
         <v>0.15168361080621834</v>
       </c>
       <c r="Z24" s="69" t="str">
-        <f>'Tube I'!G22</f>
-        <v>E3</v>
-      </c>
-      <c r="AA24" s="70">
-        <f>'Tube I'!F22</f>
-        <v>1.3169452679999996</v>
-      </c>
-      <c r="AB24" s="71">
-        <v>6.9939847739449834E-2</v>
-      </c>
-      <c r="AC24" s="69" t="str">
-        <f>'Tube J'!G22</f>
-        <v>F6</v>
-      </c>
-      <c r="AD24" s="70">
-        <f>'Tube J'!F22</f>
-        <v>1.3226003009999996</v>
-      </c>
-      <c r="AE24" s="71">
-        <v>8.5327082880891969E-2</v>
-      </c>
-      <c r="AF24" s="69" t="str">
-        <f>'Tube K'!G22</f>
-        <v>A9</v>
-      </c>
-      <c r="AG24" s="70">
-        <f>'Tube K'!F22</f>
-        <v>1.3306320870000015</v>
-      </c>
-      <c r="AH24" s="71">
-        <v>0.15403321595495034</v>
-      </c>
-      <c r="AI24" s="69" t="str">
-        <f>'Tube L'!G22</f>
-        <v>G11</v>
-      </c>
-      <c r="AJ24" s="70">
-        <f>'Tube L'!F22</f>
-        <v>1.2794635999999997</v>
-      </c>
-      <c r="AK24" s="71">
-        <v>0.10737907560840333</v>
-      </c>
-      <c r="AL24" s="69" t="str">
         <f>'Tube M'!G22</f>
         <v>E3</v>
       </c>
-      <c r="AM24" s="70">
+      <c r="AA24" s="70">
         <f>'Tube M'!F22</f>
         <v>1.383029929000001</v>
       </c>
-      <c r="AN24" s="71">
+      <c r="AB24" s="71">
         <v>0.14171468903984297</v>
       </c>
-      <c r="AO24" s="69" t="str">
+      <c r="AC24" s="69" t="str">
         <f>'Tube N'!G22</f>
         <v>F6</v>
       </c>
-      <c r="AP24" s="70">
+      <c r="AD24" s="70">
         <f>'Tube N'!F22</f>
         <v>1.3235018279999995</v>
       </c>
-      <c r="AQ24" s="71">
+      <c r="AE24" s="71">
         <v>0.12257788451101033</v>
       </c>
-      <c r="AR24" s="69" t="str">
+      <c r="AF24" s="69" t="str">
         <f>'Tube O'!G22</f>
         <v>A9</v>
       </c>
-      <c r="AS24" s="70">
+      <c r="AG24" s="70">
         <f>'Tube O'!F22</f>
         <v>1.2331852140000006</v>
       </c>
-      <c r="AT24" s="71">
+      <c r="AH24" s="71">
         <v>8.2658623408786866E-2</v>
       </c>
-      <c r="AU24" s="69" t="str">
+      <c r="AI24" s="69" t="str">
         <f>'Tube P'!G22</f>
         <v>G11</v>
       </c>
-      <c r="AV24" s="70">
+      <c r="AJ24" s="70">
         <f>'Tube P'!F22</f>
         <v>1.3481162470000019</v>
       </c>
-      <c r="AW24" s="71">
+      <c r="AK24" s="71">
         <v>0.14465994850337924</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="13" thickBot="1">
+    <row r="25" spans="1:37" ht="12.9" thickBot="1">
       <c r="A25" s="56">
         <v>22</v>
       </c>
@@ -26011,95 +22939,51 @@
         <v>7.7027221348113198E-2</v>
       </c>
       <c r="Z25" s="69" t="str">
-        <f>'Tube I'!G23</f>
-        <v>F3</v>
-      </c>
-      <c r="AA25" s="70">
-        <f>'Tube I'!F23</f>
-        <v>1.1060425880000011</v>
-      </c>
-      <c r="AB25" s="88">
-        <v>7.7214167290961021E-3</v>
-      </c>
-      <c r="AC25" s="89" t="str">
-        <f>'Tube J'!G23</f>
-        <v>E6</v>
-      </c>
-      <c r="AD25" s="70">
-        <f>'Tube J'!F23</f>
-        <v>1.1116976210000011</v>
-      </c>
-      <c r="AE25" s="71">
-        <v>1.6494141718100309E-2</v>
-      </c>
-      <c r="AF25" s="89" t="str">
-        <f>'Tube K'!G23</f>
-        <v>B9</v>
-      </c>
-      <c r="AG25" s="90">
-        <f>'Tube K'!F23</f>
-        <v>1.1077090470000019</v>
-      </c>
-      <c r="AH25" s="71">
-        <v>4.2621327561401211E-2</v>
-      </c>
-      <c r="AI25" s="69" t="str">
-        <f>'Tube L'!G23</f>
-        <v>H11</v>
-      </c>
-      <c r="AJ25" s="90">
-        <f>'Tube L'!F23</f>
-        <v>1.1013437200000009</v>
-      </c>
-      <c r="AK25" s="71">
-        <v>4.3364789499322466E-2</v>
-      </c>
-      <c r="AL25" s="69" t="str">
         <f>'Tube M'!G23</f>
         <v>F3</v>
       </c>
-      <c r="AM25" s="70">
+      <c r="AA25" s="70">
         <f>'Tube M'!F23</f>
         <v>1.1404372089999999</v>
       </c>
-      <c r="AN25" s="71">
+      <c r="AB25" s="71">
         <v>5.3174064862824409E-2</v>
       </c>
-      <c r="AO25" s="89" t="str">
+      <c r="AC25" s="89" t="str">
         <f>'Tube N'!G23</f>
         <v>E6</v>
       </c>
-      <c r="AP25" s="70">
+      <c r="AD25" s="70">
         <f>'Tube N'!F23</f>
         <v>1.1224339879999992</v>
       </c>
-      <c r="AQ25" s="88">
+      <c r="AE25" s="88">
         <v>3.3613356235393188E-2</v>
       </c>
-      <c r="AR25" s="69" t="str">
+      <c r="AF25" s="69" t="str">
         <f>'Tube O'!G23</f>
         <v>B9</v>
       </c>
-      <c r="AS25" s="70">
+      <c r="AG25" s="70">
         <f>'Tube O'!F23</f>
         <v>1.0954974540000002</v>
       </c>
-      <c r="AT25" s="88">
+      <c r="AH25" s="88">
         <v>2.7534671937592476E-2</v>
       </c>
-      <c r="AU25" s="69" t="str">
+      <c r="AI25" s="69" t="str">
         <f>'Tube P'!G23</f>
         <v>H11</v>
       </c>
-      <c r="AV25" s="70">
+      <c r="AJ25" s="70">
         <f>'Tube P'!F23</f>
         <v>1.1350280470000005</v>
       </c>
-      <c r="AW25" s="80">
+      <c r="AK25" s="80">
         <v>8.0676371015666395E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="13" thickTop="1">
+    <row r="26" spans="1:37" ht="12.9" thickTop="1">
       <c r="B26" s="73"/>
       <c r="C26" s="81" t="s">
         <v>190</v>
@@ -26164,72 +23048,40 @@
         <f>SUM(Y5:Y25)*40/TubeLoading!J36*100</f>
         <v>73.330591175662391</v>
       </c>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="92" t="s">
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="AB26" s="82">
-        <f>SUM(AB5:AB25)*40/TubeLoading!J37*100</f>
-        <v>49.050892058750009</v>
+      <c r="AB26" s="92">
+        <f>SUM(AB5:AB25)*40/TubeLoading!J41*100</f>
+        <v>80.45097095349729</v>
       </c>
       <c r="AC26" s="73"/>
-      <c r="AD26" s="92" t="s">
+      <c r="AD26" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="AE26" s="93">
-        <f>SUM(AE5:AE25)*40/TubeLoading!J38*100</f>
-        <v>57.599254022197812</v>
-      </c>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="81" t="s">
+      <c r="AE26" s="82">
+        <f>SUM(AE5:AE25)*40/TubeLoading!J42*100</f>
+        <v>73.835192341047971</v>
+      </c>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="AH26" s="93">
-        <f>SUM(AH5:AH25)*40/TubeLoading!J39*100</f>
-        <v>72.795625801061632</v>
-      </c>
-      <c r="AI26" s="94"/>
+      <c r="AH26" s="82">
+        <f>SUM(AH5:AH25)*40/TubeLoading!J43*100</f>
+        <v>66.667936426690574</v>
+      </c>
+      <c r="AI26" s="83"/>
       <c r="AJ26" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="AK26" s="93">
-        <f>SUM(AK5:AK25)*40/TubeLoading!J40*100</f>
-        <v>61.577672782028991</v>
-      </c>
-      <c r="AL26" s="91"/>
-      <c r="AM26" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN26" s="93">
-        <f>SUM(AN5:AN25)*40/TubeLoading!J41*100</f>
-        <v>80.45097095349729</v>
-      </c>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ26" s="82">
-        <f>SUM(AQ5:AQ25)*40/TubeLoading!J42*100</f>
-        <v>73.835192341047971</v>
-      </c>
-      <c r="AR26" s="91"/>
-      <c r="AS26" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT26" s="82">
-        <f>SUM(AT5:AT25)*40/TubeLoading!J43*100</f>
-        <v>66.667936426690574</v>
-      </c>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW26" s="82">
-        <f>SUM(AW5:AW25)*40/TubeLoading!J44*100</f>
+      <c r="AK26" s="82">
+        <f>SUM(AK5:AK25)*40/TubeLoading!J44*100</f>
         <v>71.313343562102091</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:37">
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
@@ -26243,7 +23095,7 @@
       <c r="L27" s="73"/>
       <c r="M27" s="73"/>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:37">
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
@@ -26257,13 +23109,13 @@
       <c r="L28" s="73"/>
       <c r="M28" s="73"/>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:37">
       <c r="A29" s="62"/>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:37">
       <c r="A30" s="62"/>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:37">
       <c r="A31" s="62"/>
     </row>
     <row r="55" spans="1:13">
@@ -26327,7 +23179,11 @@
       <c r="A86" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="12">
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
@@ -26336,14 +23192,6 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26361,19 +23209,19 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
-    <col min="3" max="3" width="87.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.921875" customWidth="1"/>
+    <col min="2" max="2" width="8.921875" customWidth="1"/>
+    <col min="3" max="3" width="87.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50">
+    <row r="2" spans="1:6" ht="49.75">
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
@@ -26381,7 +23229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="15.9">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -26398,7 +23246,7 @@
         <v>2040000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="15.9">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -26415,7 +23263,7 @@
         <v>1550000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6" ht="15.45">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -26433,7 +23281,7 @@
         <v>1330000000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6" ht="15.45">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -26450,7 +23298,7 @@
         <v>1220000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
+    <row r="7" spans="1:6" ht="15.45">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -26468,7 +23316,7 @@
         <v>1170000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5">
+    <row r="8" spans="1:6" ht="15.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -26485,7 +23333,7 @@
         <v>1140000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5">
+    <row r="9" spans="1:6" ht="15.45">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -26503,7 +23351,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.9">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -26521,7 +23369,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5">
+    <row r="11" spans="1:6" ht="15.45">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -26532,7 +23380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="15.9">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -26543,7 +23391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.9">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -26554,7 +23402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.9">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -26565,7 +23413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.9">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -26577,7 +23425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.9">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -26588,11 +23436,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5">
+    <row r="17" spans="1:4" ht="15.45">
       <c r="A17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.5">
+    <row r="18" spans="1:4" ht="15.45">
       <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
@@ -26601,7 +23449,7 @@
         <v>19.166399999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5">
+    <row r="19" spans="1:4" ht="15.45">
       <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
@@ -26610,7 +23458,7 @@
         <v>2.1295999999999977</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5">
+    <row r="20" spans="1:4" ht="15.45">
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
@@ -26619,126 +23467,126 @@
         <v>108.31629022640612</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5">
+    <row r="22" spans="1:4" ht="15.45">
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="15.5">
+    <row r="23" spans="1:4" ht="15.45">
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.5">
+    <row r="28" spans="1:4" ht="15.45">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5">
+    <row r="29" spans="1:4" ht="15.45">
       <c r="A29" s="3"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5">
+    <row r="30" spans="1:4" ht="15.45">
       <c r="A30" s="3"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15.5">
+    <row r="31" spans="1:4" ht="15.45">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5">
+    <row r="32" spans="1:4" ht="15.45">
       <c r="A32" s="3"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15.5">
+    <row r="33" spans="1:12" ht="15.45">
       <c r="A33" s="3"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="15.5">
+    <row r="34" spans="1:12" ht="15.45">
       <c r="A34" s="3"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15.5">
+    <row r="35" spans="1:12" ht="15.45">
       <c r="A35" s="3"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="15.5">
+    <row r="36" spans="1:12" ht="15.45">
       <c r="A36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15.5">
+    <row r="37" spans="1:12" ht="15.45">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="15.5">
+    <row r="38" spans="1:12" ht="15.45">
       <c r="A38" s="3"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="15.5">
+    <row r="39" spans="1:12" ht="15.45">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.5">
+    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.45">
       <c r="A40" s="17"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:12" ht="15.5">
+    <row r="41" spans="1:12" ht="15.45">
       <c r="A41" s="3"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15.5">
+    <row r="42" spans="1:12" ht="15.45">
       <c r="A42" s="3"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="15.5">
+    <row r="43" spans="1:12" ht="15.45">
       <c r="A43" s="3"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="15.5">
+    <row r="44" spans="1:12" ht="15.45">
       <c r="A44" s="3"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="15.5">
+    <row r="45" spans="1:12" ht="15.45">
       <c r="A45" s="3"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="15.5">
+    <row r="46" spans="1:12" ht="15.45">
       <c r="A46" s="3"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:12" ht="15.5">
+    <row r="47" spans="1:12" ht="15.45">
       <c r="C47" s="11"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" ht="15.5">
+    <row r="48" spans="1:12" ht="15.45">
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.5">
+    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.45">
       <c r="C49" s="21"/>
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="3:12" ht="15.5">
+    <row r="50" spans="3:12" ht="15.45">
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="3:12">
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="3:12" ht="15.5">
+    <row r="52" spans="3:12" ht="15.45">
       <c r="C52" s="11"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="3:12" ht="15.5">
+    <row r="53" spans="3:12" ht="15.45">
       <c r="C53" s="11"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="3:12" ht="15.5">
+    <row r="54" spans="3:12" ht="15.45">
       <c r="C54" s="11"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="3:12" ht="15.5">
+    <row r="55" spans="3:12" ht="15.45">
       <c r="C55" s="11"/>
     </row>
     <row r="56" spans="3:12">
@@ -26764,15 +23612,15 @@
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.3828125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.3828125" customWidth="1"/>
+    <col min="13" max="13" width="12.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -26841,7 +23689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -26934,7 +23782,7 @@
         <v>5.2687020513600036</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13">
+    <row r="19" spans="1:12">
       <c r="A19" s="31">
         <v>4.3</v>
       </c>
@@ -27176,73 +24024,73 @@
       <c r="B27" s="16"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="39">
-      <c r="A28" s="110" t="s">
+    <row r="28" spans="1:12" ht="37.299999999999997">
+      <c r="A28" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="111" t="s">
+      <c r="E28" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="111" t="s">
+      <c r="F28" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="112" t="s">
+      <c r="G28" s="110" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="112" t="s">
+      <c r="H28" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="112" t="s">
+      <c r="I28" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="110" t="s">
+      <c r="J28" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="K28" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="111" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14">
+      <c r="K28" s="109" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" s="109" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.15">
       <c r="A29" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="96">
+      <c r="B29" s="94">
         <v>1.4018999999999999</v>
       </c>
-      <c r="C29" s="96">
+      <c r="C29" s="94">
         <v>19.7</v>
       </c>
-      <c r="D29" s="97">
+      <c r="D29" s="95">
         <f t="shared" ref="D29:D40" si="5">(20-C29)*-0.000175+B29</f>
         <v>1.4018474999999999</v>
       </c>
-      <c r="E29" s="97">
+      <c r="E29" s="95">
         <f t="shared" ref="E29:E40" si="6">D29*10.9276-13.593</f>
         <v>1.7258287409999991</v>
       </c>
-      <c r="F29" s="104">
+      <c r="F29" s="102">
         <v>1773</v>
       </c>
       <c r="G29" s="38">
         <v>139</v>
       </c>
-      <c r="H29" s="98">
+      <c r="H29" s="96">
         <f>4000/G29</f>
         <v>28.776978417266186</v>
       </c>
-      <c r="I29" s="98">
+      <c r="I29" s="96">
         <f>150-H29</f>
         <v>121.22302158273382</v>
       </c>
@@ -27250,7 +24098,7 @@
         <f>G29*H29</f>
         <v>4000</v>
       </c>
-      <c r="K29" s="99">
+      <c r="K29" s="97">
         <f>G$23+0.025</f>
         <v>0.9536257014400038</v>
       </c>
@@ -27259,7 +24107,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14">
+    <row r="30" spans="1:12" ht="14.15">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -27277,7 +24125,7 @@
         <f t="shared" si="6"/>
         <v>1.7253096799999987</v>
       </c>
-      <c r="F30" s="105">
+      <c r="F30" s="103">
         <v>3942</v>
       </c>
       <c r="G30">
@@ -27295,7 +24143,7 @@
         <f>G30*H30</f>
         <v>4000</v>
       </c>
-      <c r="K30" s="99">
+      <c r="K30" s="97">
         <f t="shared" ref="K30:K44" si="8">G$23+0.025</f>
         <v>0.9536257014400038</v>
       </c>
@@ -27304,35 +24152,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14">
+    <row r="31" spans="1:12" ht="14.15">
       <c r="A31" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="96">
+      <c r="B31" s="94">
         <v>1.4018999999999999</v>
       </c>
-      <c r="C31" s="96">
+      <c r="C31" s="94">
         <v>19.8</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="95">
         <f t="shared" si="5"/>
         <v>1.4018649999999999</v>
       </c>
-      <c r="E31" s="97">
+      <c r="E31" s="95">
         <f t="shared" si="6"/>
         <v>1.7260199739999997</v>
       </c>
-      <c r="F31" s="104">
+      <c r="F31" s="102">
         <v>3944</v>
       </c>
       <c r="G31" s="38">
         <v>106</v>
       </c>
-      <c r="H31" s="98">
+      <c r="H31" s="96">
         <f t="shared" si="7"/>
         <v>37.735849056603776</v>
       </c>
-      <c r="I31" s="98">
+      <c r="I31" s="96">
         <f t="shared" ref="I31" si="10">150-H31</f>
         <v>112.26415094339623</v>
       </c>
@@ -27340,7 +24188,7 @@
         <f t="shared" ref="J31" si="11">G31*H31</f>
         <v>4000.0000000000005</v>
       </c>
-      <c r="K31" s="99">
+      <c r="K31" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27349,7 +24197,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14">
+    <row r="32" spans="1:12" ht="14.15">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -27367,7 +24215,7 @@
         <f t="shared" si="6"/>
         <v>1.7271127339999985</v>
       </c>
-      <c r="F32" s="105">
+      <c r="F32" s="103">
         <v>1515</v>
       </c>
       <c r="G32">
@@ -27385,7 +24233,7 @@
         <f>G32*H32</f>
         <v>4000</v>
       </c>
-      <c r="K32" s="99">
+      <c r="K32" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27394,35 +24242,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14">
+    <row r="33" spans="1:12" ht="14.15">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="96">
+      <c r="B33" s="94">
         <v>1.4020999999999999</v>
       </c>
-      <c r="C33" s="96">
+      <c r="C33" s="94">
         <v>20</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="95">
         <f t="shared" si="5"/>
         <v>1.4020999999999999</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="95">
         <f t="shared" si="6"/>
         <v>1.7285879599999987</v>
       </c>
-      <c r="F33" s="104">
+      <c r="F33" s="102">
         <v>3193</v>
       </c>
       <c r="G33" s="38">
         <v>113.4</v>
       </c>
-      <c r="H33" s="98">
+      <c r="H33" s="96">
         <f t="shared" si="7"/>
         <v>35.273368606701936</v>
       </c>
-      <c r="I33" s="98">
+      <c r="I33" s="96">
         <f t="shared" si="12"/>
         <v>114.72663139329806</v>
       </c>
@@ -27430,7 +24278,7 @@
         <f>G33*H33</f>
         <v>4000</v>
       </c>
-      <c r="K33" s="99">
+      <c r="K33" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27457,7 +24305,7 @@
         <f t="shared" si="6"/>
         <v>1.7273039669999992</v>
       </c>
-      <c r="F34" s="106">
+      <c r="F34" s="104">
         <v>2383</v>
       </c>
       <c r="G34">
@@ -27475,7 +24323,7 @@
         <f>G34*H34</f>
         <v>4000</v>
       </c>
-      <c r="K34" s="99">
+      <c r="K34" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27484,35 +24332,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14">
+    <row r="35" spans="1:12" ht="14.15">
       <c r="A35" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="96">
+      <c r="B35" s="94">
         <v>1.4020999999999999</v>
       </c>
-      <c r="C35" s="96">
+      <c r="C35" s="94">
         <v>19.899999999999999</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D35" s="95">
         <f t="shared" si="5"/>
         <v>1.4020824999999999</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="95">
         <f t="shared" si="6"/>
         <v>1.728396726999998</v>
       </c>
-      <c r="F35" s="104">
+      <c r="F35" s="102">
         <v>3654</v>
       </c>
       <c r="G35" s="38">
         <v>151</v>
       </c>
-      <c r="H35" s="98">
+      <c r="H35" s="96">
         <f t="shared" si="7"/>
         <v>26.490066225165563</v>
       </c>
-      <c r="I35" s="98">
+      <c r="I35" s="96">
         <f t="shared" si="12"/>
         <v>123.50993377483444</v>
       </c>
@@ -27520,7 +24368,7 @@
         <f>G35*H35</f>
         <v>4000</v>
       </c>
-      <c r="K35" s="99">
+      <c r="K35" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27529,7 +24377,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14">
+    <row r="36" spans="1:12" ht="14.15">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -27547,7 +24395,7 @@
         <f t="shared" si="6"/>
         <v>1.7273039669999992</v>
       </c>
-      <c r="F36" s="105">
+      <c r="F36" s="103">
         <v>1794</v>
       </c>
       <c r="G36">
@@ -27565,7 +24413,7 @@
         <f t="shared" ref="J36:J44" si="13">G36*H36</f>
         <v>4000</v>
       </c>
-      <c r="K36" s="99">
+      <c r="K36" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27574,35 +24422,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14">
+    <row r="37" spans="1:12" ht="14.15">
       <c r="A37" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="97">
+      <c r="B37" s="95">
         <v>1.4021999999999999</v>
       </c>
-      <c r="C37" s="100">
+      <c r="C37" s="98">
         <v>19.5</v>
       </c>
-      <c r="D37" s="97">
+      <c r="D37" s="95">
         <f t="shared" si="5"/>
         <v>1.4021124999999999</v>
       </c>
-      <c r="E37" s="97">
+      <c r="E37" s="95">
         <f t="shared" si="6"/>
         <v>1.7287245549999994</v>
       </c>
-      <c r="F37" s="104">
+      <c r="F37" s="102">
         <v>3971</v>
       </c>
       <c r="G37" s="38">
         <v>47.1</v>
       </c>
-      <c r="H37" s="98">
+      <c r="H37" s="96">
         <f t="shared" si="7"/>
         <v>84.925690021231418</v>
       </c>
-      <c r="I37" s="98">
+      <c r="I37" s="96">
         <f t="shared" si="12"/>
         <v>65.074309978768582</v>
       </c>
@@ -27610,7 +24458,7 @@
         <f>G37*H37</f>
         <v>4000</v>
       </c>
-      <c r="K37" s="99">
+      <c r="K37" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27619,7 +24467,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14">
+    <row r="38" spans="1:12" ht="14.15">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -27637,7 +24485,7 @@
         <f t="shared" si="6"/>
         <v>1.7254462749999995</v>
       </c>
-      <c r="F38" s="105">
+      <c r="F38" s="103">
         <v>2393</v>
       </c>
       <c r="G38">
@@ -27655,7 +24503,7 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-      <c r="K38" s="99">
+      <c r="K38" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27664,35 +24512,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.5">
+    <row r="39" spans="1:12" ht="14.6">
       <c r="A39" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="97">
+      <c r="B39" s="95">
         <v>1.4021999999999999</v>
       </c>
-      <c r="C39" s="100">
+      <c r="C39" s="98">
         <v>19.5</v>
       </c>
-      <c r="D39" s="97">
+      <c r="D39" s="95">
         <f t="shared" si="5"/>
         <v>1.4021124999999999</v>
       </c>
-      <c r="E39" s="97">
+      <c r="E39" s="95">
         <f t="shared" si="6"/>
         <v>1.7287245549999994</v>
       </c>
-      <c r="F39" s="104">
+      <c r="F39" s="102">
         <v>4011</v>
       </c>
-      <c r="G39" s="109">
+      <c r="G39" s="107">
         <v>75.599999999999994</v>
       </c>
-      <c r="H39" s="98">
+      <c r="H39" s="96">
         <f t="shared" si="7"/>
         <v>52.910052910052912</v>
       </c>
-      <c r="I39" s="98">
+      <c r="I39" s="96">
         <f t="shared" si="12"/>
         <v>97.089947089947088</v>
       </c>
@@ -27700,7 +24548,7 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-      <c r="K39" s="99">
+      <c r="K39" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27709,7 +24557,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14">
+    <row r="40" spans="1:12" ht="14.15">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -27727,7 +24575,7 @@
         <f t="shared" si="6"/>
         <v>1.7276317949999989</v>
       </c>
-      <c r="F40" s="107">
+      <c r="F40" s="105">
         <v>3961</v>
       </c>
       <c r="G40">
@@ -27745,7 +24593,7 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-      <c r="K40" s="99">
+      <c r="K40" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27754,35 +24602,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14">
+    <row r="41" spans="1:12" ht="14.15">
       <c r="A41" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="97">
+      <c r="B41" s="95">
         <v>1.4021999999999999</v>
       </c>
-      <c r="C41" s="100">
+      <c r="C41" s="98">
         <v>19.600000000000001</v>
       </c>
-      <c r="D41" s="97">
+      <c r="D41" s="95">
         <f t="shared" ref="D41:D44" si="14">(20-C41)*-0.000175+B41</f>
         <v>1.4021299999999999</v>
       </c>
-      <c r="E41" s="97">
+      <c r="E41" s="95">
         <f t="shared" ref="E41:E44" si="15">D41*10.9276-13.593</f>
         <v>1.7289157879999983</v>
       </c>
-      <c r="F41" s="108">
+      <c r="F41" s="106">
         <v>4016</v>
       </c>
       <c r="G41" s="38">
         <v>206</v>
       </c>
-      <c r="H41" s="98">
+      <c r="H41" s="96">
         <f t="shared" si="7"/>
         <v>19.417475728155338</v>
       </c>
-      <c r="I41" s="98">
+      <c r="I41" s="96">
         <f t="shared" si="12"/>
         <v>130.58252427184465</v>
       </c>
@@ -27790,7 +24638,7 @@
         <f t="shared" si="13"/>
         <v>3999.9999999999995</v>
       </c>
-      <c r="K41" s="99">
+      <c r="K41" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27799,7 +24647,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14">
+    <row r="42" spans="1:12" ht="14.15">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -27817,7 +24665,7 @@
         <f t="shared" si="15"/>
         <v>1.7287245549999994</v>
       </c>
-      <c r="F42" s="107">
+      <c r="F42" s="105">
         <v>2445</v>
       </c>
       <c r="G42">
@@ -27835,7 +24683,7 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-      <c r="K42" s="99">
+      <c r="K42" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27844,35 +24692,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14">
+    <row r="43" spans="1:12" ht="14.15">
       <c r="A43" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="97">
+      <c r="B43" s="95">
         <v>1.4021999999999999</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="98">
         <v>19.5</v>
       </c>
-      <c r="D43" s="97">
+      <c r="D43" s="95">
         <f t="shared" si="14"/>
         <v>1.4021124999999999</v>
       </c>
-      <c r="E43" s="97">
+      <c r="E43" s="95">
         <f t="shared" si="15"/>
         <v>1.7287245549999994</v>
       </c>
-      <c r="F43" s="108">
+      <c r="F43" s="106">
         <v>2021</v>
       </c>
       <c r="G43" s="38">
         <v>101.9</v>
       </c>
-      <c r="H43" s="98">
+      <c r="H43" s="96">
         <f t="shared" si="7"/>
         <v>39.254170755642782</v>
       </c>
-      <c r="I43" s="98">
+      <c r="I43" s="96">
         <f t="shared" ref="I43:I44" si="16">150-H43</f>
         <v>110.74582924435722</v>
       </c>
@@ -27880,7 +24728,7 @@
         <f t="shared" si="13"/>
         <v>3999.9999999999995</v>
       </c>
-      <c r="K43" s="99">
+      <c r="K43" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27889,7 +24737,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14">
+    <row r="44" spans="1:12" ht="14.15">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -27907,7 +24755,7 @@
         <f t="shared" si="15"/>
         <v>1.7289157879999983</v>
       </c>
-      <c r="F44" s="107">
+      <c r="F44" s="105">
         <v>1502</v>
       </c>
       <c r="G44">
@@ -27925,7 +24773,7 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-      <c r="K44" s="99">
+      <c r="K44" s="97">
         <f t="shared" si="8"/>
         <v>0.9536257014400038</v>
       </c>
@@ -27934,7 +24782,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14">
+    <row r="45" spans="1:12" ht="14.15">
       <c r="A45" s="45" t="s">
         <v>33</v>
       </c>
@@ -27952,7 +24800,7 @@
         <f>D45*10.9276-13.593</f>
         <v>1.8876938160000005</v>
       </c>
-      <c r="F45" s="95"/>
+      <c r="F45" s="93"/>
       <c r="H45" s="50"/>
       <c r="I45" s="50"/>
     </row>
@@ -27960,7 +24808,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="23"/>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -28001,9 +24849,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -28618,9 +25466,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -29235,9 +26083,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -29852,9 +26700,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -30469,9 +27317,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -31086,9 +27934,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>

--- a/data/fractionation/230329 Batch 143 Water Yr Summary.xlsx
+++ b/data/fractionation/230329 Batch 143 Water Yr Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F571A79E-B071-4F33-8364-E953BE7C59C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFAEDE-7ABB-40E4-BCF9-C2F4930403FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <sheet name="Tube P" sheetId="19" r:id="rId19"/>
     <sheet name="time" sheetId="1" r:id="rId20"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId21"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="215">
   <si>
     <t>calculated density p(20)</t>
   </si>
@@ -681,12 +678,6 @@
   </si>
   <si>
     <t>DNA (ng/ul)</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>G</t>
@@ -2296,132 +2287,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$O$5:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7626274340000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.758256394</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7527925940000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7464272670000014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7398707070000015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7354996669999991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7291343399999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7225777799999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7171139799999988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7105574199999989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7050936199999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6996298200000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6932644929999991</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6878006929999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.683429653000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6779658530000017</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.671409293</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6473685729999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5503041660000001</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$P$5:$P$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-5.3538839960976458E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0608585303546176E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10043130380465427</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.175360529597648</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51863065556540644</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2204466196133288</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9027148760908119</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0237378781819473</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.613331556357783</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.4605341772915512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.3960084085803111</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.581010398673115</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.3562277425787963</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.83852948806109751</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.52749612099034315</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.27668119896078913</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17970421821209173</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.17085276786947276</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.11322053679330339</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,132 +2341,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$R$5:$R$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7581197989999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7548415189999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7493777189999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7439139190000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7373573589999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7318935589999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7255282320000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7200644320000009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7146006319999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7102295919999992</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7047657919999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6982092320000017</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6918439049999989</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6863801049999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6798235450000014</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6754525050000009</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6678031850000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6483247379999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5456052980000017</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$S$5:$S$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3851345744681399E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6906363608471935E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22550491251158367</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70629344241902603</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6691083790296721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6870802157983049</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.2523410638667016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.462006311442085</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.7283074693526</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.907065732067259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8807231378408487</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.1848577497107544</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6301457107211246</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.91438975316711246</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.63684669774874458</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.38816203621431278</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.30424702451426316</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.33403759007293782</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.24513757490331053</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,7 +2401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$U$5:$U$23</c:f>
+              <c:f>Summary!$O$5:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2706,7 +2467,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$V$5:$V$23</c:f>
+              <c:f>Summary!$P$5:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2815,7 +2576,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$X$5:$X$23</c:f>
+              <c:f>Summary!$R$5:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2881,7 +2642,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$Y$5:$Y$23</c:f>
+              <c:f>Summary!$S$5:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4215,75 +3976,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$O$4:$O$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.7626274340000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7626274340000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.758256394</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7527925940000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7464272670000014</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7398707070000015</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7354996669999991</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7291343399999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7225777799999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7171139799999988</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7105574199999989</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7050936199999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6996298200000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6932644929999991</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6878006929999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.683429653000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6779658530000017</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.671409293</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6473685729999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5503041660000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3339376860000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1066436060000004</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4402,75 +4100,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$R$4:$R$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.7557430459999992</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7581197989999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7548415189999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7493777189999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7439139190000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7373573589999989</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7318935589999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7255282320000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7200644320000009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7146006319999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7102295919999992</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7047657919999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6982092320000017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6918439049999989</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6863801049999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6798235450000014</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6754525050000009</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6678031850000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6483247379999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5456052980000017</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.3270532980000009</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.1106868180000014</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4595,7 +4230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$U$4:$U$25</c:f>
+              <c:f>Summary!$O$4:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4788,7 +4423,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$X$4:$X$25</c:f>
+              <c:f>Summary!$R$4:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5756,7 +5391,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
+              <c:f>Summary!$U$4:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5952,7 +5587,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
+              <c:f>Summary!$X$4:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6148,7 +5783,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AG$4:$AG$25</c:f>
+              <c:f>Summary!$AA$4:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6344,7 +5979,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AJ$4:$AJ$25</c:f>
+              <c:f>Summary!$AD$4:$AD$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7130,7 +6765,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AA$5:$AA$23</c:f>
+              <c:f>Summary!$U$5:$U$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7196,7 +6831,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AB$5:$AB$23</c:f>
+              <c:f>Summary!$V$5:$V$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7308,7 +6943,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AD$5:$AD$23</c:f>
+              <c:f>Summary!$X$5:$X$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7374,7 +7009,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AE$5:$AE$23</c:f>
+              <c:f>Summary!$Y$5:$Y$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7486,7 +7121,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AG$5:$AG$23</c:f>
+              <c:f>Summary!$AA$5:$AA$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7552,7 +7187,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AH$5:$AH$23</c:f>
+              <c:f>Summary!$AB$5:$AB$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7664,7 +7299,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AJ$5:$AJ$23</c:f>
+              <c:f>Summary!$AD$5:$AD$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7730,7 +7365,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AK$5:$AK$23</c:f>
+              <c:f>Summary!$AE$5:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -9850,8 +9485,8 @@
       <xdr:rowOff>61079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>277436</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
     </xdr:to>
@@ -9880,13 +9515,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>3983</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>45572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>484466</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>111186</xdr:rowOff>
@@ -9996,237 +9631,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Table of Contents"/>
-      <sheetName val="Summary"/>
-      <sheetName val="TubeLoading"/>
-      <sheetName val="Tube A"/>
-      <sheetName val="Tube B"/>
-      <sheetName val="Tube C"/>
-      <sheetName val="Tube D"/>
-      <sheetName val="Tube E"/>
-      <sheetName val="Tube F"/>
-      <sheetName val="Tube G"/>
-      <sheetName val="Tube H"/>
-      <sheetName val="Tube I"/>
-      <sheetName val="Tube J"/>
-      <sheetName val="Tube K"/>
-      <sheetName val="Tube L"/>
-      <sheetName val="Tube M"/>
-      <sheetName val="Tube N"/>
-      <sheetName val="Tube O"/>
-      <sheetName val="Tube P"/>
-      <sheetName val="time"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4">
-            <v>1.7708231340000022</v>
-          </cell>
-          <cell r="D4">
-            <v>-1.1510114882384404E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>1.7686376140000011</v>
-          </cell>
-          <cell r="D5">
-            <v>9.4157495119879392E-3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1.7653593340000029</v>
-          </cell>
-          <cell r="D6">
-            <v>2.0551110856287979E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1.7609882940000006</v>
-          </cell>
-          <cell r="D7">
-            <v>2.2611151276471095E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>1.756617254</v>
-          </cell>
-          <cell r="D8">
-            <v>9.8983388727655174E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>1.7522462140000012</v>
-          </cell>
-          <cell r="D9">
-            <v>4.5531010194395073E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>1.7478751740000007</v>
-          </cell>
-          <cell r="D10">
-            <v>7.6573787645410632E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1.7435041340000019</v>
-          </cell>
-          <cell r="D11">
-            <v>8.4424705083593052E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>1.741318613999999</v>
-          </cell>
-          <cell r="D12">
-            <v>0.16372701548733104</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>1.7358548139999996</v>
-          </cell>
-          <cell r="D13">
-            <v>0.52404113188743595</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>1.7325765340000014</v>
-          </cell>
-          <cell r="D14">
-            <v>1.1617199169874437</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>1.7294894870000004</v>
-          </cell>
-          <cell r="D15">
-            <v>3.8310789256687445</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>1.7251184470000016</v>
-          </cell>
-          <cell r="D16">
-            <v>11.460547155457862</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>1.7218401670000016</v>
-          </cell>
-          <cell r="D17">
-            <v>19.354246927651218</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>1.7187531200000006</v>
-          </cell>
-          <cell r="D18">
-            <v>18.494310020815934</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>1.7154748400000006</v>
-          </cell>
-          <cell r="D19">
-            <v>16.556998700026551</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>1.7132893200000012</v>
-          </cell>
-          <cell r="D20">
-            <v>10.63528126752014</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>1.7078255200000019</v>
-          </cell>
-          <cell r="D21">
-            <v>7.9585961168425099</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>1.7045472400000019</v>
-          </cell>
-          <cell r="D22">
-            <v>3.7854063895958348</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>1.7012689600000019</v>
-          </cell>
-          <cell r="D23">
-            <v>1.9930382668107891</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>1.6979906800000002</v>
-          </cell>
-          <cell r="D24">
-            <v>1.4481880089780008</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>1.6936196399999996</v>
-          </cell>
-          <cell r="D25">
-            <v>1.2704311701056521</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10551,10 +9955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A9" activeCellId="1" sqref="A10:XFD10 A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45"/>
@@ -10572,44 +9976,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="D4" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10622,7 +10026,7 @@
         <v>Tube A</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="67">
         <v>45014</v>
@@ -10631,7 +10035,7 @@
         <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G5" s="66">
         <f>TubeLoading!J29</f>
@@ -10645,7 +10049,7 @@
         <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10658,7 +10062,7 @@
         <v>Tube B</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="67">
         <v>45014</v>
@@ -10667,7 +10071,7 @@
         <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G6" s="66">
         <f>TubeLoading!J30</f>
@@ -10691,7 +10095,7 @@
         <v>Tube C</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="67">
         <v>45014</v>
@@ -10700,7 +10104,7 @@
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" s="66">
         <f>TubeLoading!J31</f>
@@ -10724,7 +10128,7 @@
         <v>Tube D</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D8" s="67">
         <v>45014</v>
@@ -10733,7 +10137,7 @@
         <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G8" s="66">
         <f>TubeLoading!J32</f>
@@ -10749,15 +10153,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="66">
-        <f>TubeLoading!F33</f>
-        <v>3193</v>
+        <f>TubeLoading!F35</f>
+        <v>3654</v>
       </c>
       <c r="B9" s="66" t="str">
-        <f>TubeLoading!A33</f>
-        <v>Tube E</v>
+        <f>TubeLoading!A35</f>
+        <v>Tube G</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" s="67">
         <v>45014</v>
@@ -10766,15 +10170,15 @@
         <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G9" s="66">
-        <f>TubeLoading!J33</f>
+        <f>TubeLoading!J35</f>
         <v>4000</v>
       </c>
       <c r="H9" s="50">
         <f>Summary!P26</f>
-        <v>44.543408475176868</v>
+        <v>64.286969553839086</v>
       </c>
       <c r="I9" s="114">
         <v>37</v>
@@ -10782,15 +10186,15 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="66">
-        <f>TubeLoading!F34</f>
-        <v>2383</v>
+        <f>TubeLoading!F36</f>
+        <v>1794</v>
       </c>
       <c r="B10" s="66" t="str">
-        <f>TubeLoading!A34</f>
-        <v>Tube F</v>
+        <f>TubeLoading!A36</f>
+        <v>Tube H</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D10" s="67">
         <v>45014</v>
@@ -10799,15 +10203,15 @@
         <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G10" s="66">
-        <f>TubeLoading!J34</f>
+        <f>TubeLoading!J36</f>
         <v>4000</v>
       </c>
       <c r="H10" s="50">
         <f>Summary!S26</f>
-        <v>75.593595322285182</v>
+        <v>73.330591175662391</v>
       </c>
       <c r="I10" s="115">
         <v>37</v>
@@ -10815,32 +10219,32 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="66">
-        <f>TubeLoading!F35</f>
-        <v>3654</v>
+        <f>TubeLoading!F41</f>
+        <v>4016</v>
       </c>
       <c r="B11" s="66" t="str">
-        <f>TubeLoading!A35</f>
-        <v>Tube G</v>
+        <f>TubeLoading!A41</f>
+        <v>Tube M</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D11" s="67">
         <v>45014</v>
       </c>
       <c r="E11">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G11" s="66">
-        <f>TubeLoading!J35</f>
-        <v>4000</v>
+        <f>TubeLoading!J41</f>
+        <v>3999.9999999999995</v>
       </c>
       <c r="H11" s="50">
         <f>Summary!V26</f>
-        <v>64.286969553839086</v>
+        <v>80.45097095349729</v>
       </c>
       <c r="I11" s="114">
         <v>37</v>
@@ -10848,32 +10252,32 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="66">
-        <f>TubeLoading!F36</f>
-        <v>1794</v>
+        <f>TubeLoading!F42</f>
+        <v>2445</v>
       </c>
       <c r="B12" s="66" t="str">
-        <f>TubeLoading!A36</f>
-        <v>Tube H</v>
+        <f>TubeLoading!A42</f>
+        <v>Tube N</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D12" s="67">
         <v>45014</v>
       </c>
       <c r="E12">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G12" s="66">
-        <f>TubeLoading!J36</f>
+        <f>TubeLoading!J42</f>
         <v>4000</v>
       </c>
       <c r="H12" s="50">
         <f>Summary!Y26</f>
-        <v>73.330591175662391</v>
+        <v>73.835192341047971</v>
       </c>
       <c r="I12" s="115">
         <v>37</v>
@@ -10881,15 +10285,15 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="66">
-        <f>TubeLoading!F41</f>
-        <v>4016</v>
+        <f>TubeLoading!F43</f>
+        <v>2021</v>
       </c>
       <c r="B13" s="66" t="str">
-        <f>TubeLoading!A41</f>
-        <v>Tube M</v>
+        <f>TubeLoading!A43</f>
+        <v>Tube O</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D13" s="67">
         <v>45014</v>
@@ -10898,31 +10302,34 @@
         <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G13" s="66">
-        <f>TubeLoading!J41</f>
+        <f>TubeLoading!J43</f>
         <v>3999.9999999999995</v>
       </c>
       <c r="H13" s="50">
         <f>Summary!AB26</f>
-        <v>80.45097095349729</v>
+        <v>66.667936426690574</v>
       </c>
       <c r="I13" s="114">
         <v>37</v>
       </c>
+      <c r="J13" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="66">
-        <f>TubeLoading!F42</f>
-        <v>2445</v>
+        <f>TubeLoading!F44</f>
+        <v>1502</v>
       </c>
       <c r="B14" s="66" t="str">
-        <f>TubeLoading!A42</f>
-        <v>Tube N</v>
+        <f>TubeLoading!A44</f>
+        <v>Tube P</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D14" s="67">
         <v>45014</v>
@@ -10931,92 +10338,23 @@
         <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G14" s="66">
-        <f>TubeLoading!J42</f>
+        <f>TubeLoading!J44</f>
         <v>4000</v>
       </c>
       <c r="H14" s="50">
         <f>Summary!AE26</f>
-        <v>73.835192341047971</v>
+        <v>71.313343562102091</v>
       </c>
       <c r="I14" s="115">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="66">
-        <f>TubeLoading!F43</f>
-        <v>2021</v>
-      </c>
-      <c r="B15" s="66" t="str">
-        <f>TubeLoading!A43</f>
-        <v>Tube O</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="67">
-        <v>45014</v>
-      </c>
-      <c r="E15">
-        <v>140</v>
-      </c>
-      <c r="F15" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="66">
-        <f>TubeLoading!J43</f>
-        <v>3999.9999999999995</v>
-      </c>
-      <c r="H15" s="50">
-        <f>Summary!AH26</f>
-        <v>66.667936426690574</v>
-      </c>
-      <c r="I15" s="114">
-        <v>37</v>
-      </c>
-      <c r="J15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="66">
-        <f>TubeLoading!F44</f>
-        <v>1502</v>
-      </c>
-      <c r="B16" s="66" t="str">
-        <f>TubeLoading!A44</f>
-        <v>Tube P</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="67">
-        <v>45014</v>
-      </c>
-      <c r="E16">
-        <v>140</v>
-      </c>
-      <c r="F16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="66">
-        <f>TubeLoading!J44</f>
-        <v>4000</v>
-      </c>
-      <c r="H16" s="50">
-        <f>Summary!AK26</f>
-        <v>71.313343562102091</v>
-      </c>
-      <c r="I16" s="115">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>207</v>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -12074,7 +11412,7 @@
         <v>1.6877187360000008</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12099,7 +11437,7 @@
         <v>1.6811621760000008</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12124,7 +11462,7 @@
         <v>1.6767911360000021</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12149,7 +11487,7 @@
         <v>1.6693330490000005</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -12174,7 +11512,7 @@
         <v>1.6485706090000001</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12199,7 +11537,7 @@
         <v>1.5556860090000004</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12224,7 +11562,7 @@
         <v>1.3568036890000013</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12249,7 +11587,7 @@
         <v>1.1338806490000017</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -14539,7 +13877,7 @@
         <v>1.6881558400000003</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -14564,7 +13902,7 @@
         <v>1.6826920400000009</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -14589,7 +13927,7 @@
         <v>1.6783210000000022</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -14614,7 +13952,7 @@
         <v>1.6706716799999999</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14639,7 +13977,7 @@
         <v>1.6389816400000008</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -14664,7 +14002,7 @@
         <v>1.5165925199999997</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -14689,7 +14027,7 @@
         <v>1.2794635999999997</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -14714,7 +14052,7 @@
         <v>1.1013437200000009</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -17559,7 +16897,7 @@
         <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -18222,7 +17560,7 @@
         <v>1.6923356470000002</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -18247,7 +17585,7 @@
         <v>1.6868718470000008</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -18272,7 +17610,7 @@
         <v>1.6803152870000009</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -18297,7 +17635,7 @@
         <v>1.6737587269999992</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -18322,7 +17660,7 @@
         <v>1.6529962870000006</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -18347,7 +17685,7 @@
         <v>1.5590189270000003</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -18372,7 +17710,7 @@
         <v>1.3481162470000019</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -18397,7 +17735,7 @@
         <v>1.1350280470000005</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -19625,10 +18963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
-  <dimension ref="A1:AK86"/>
+  <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="12.45"/>
@@ -19643,9 +18981,9 @@
     <col min="12" max="16384" width="10.921875" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="12.9" thickTop="1">
+    <row r="1" spans="1:31" ht="12.9" thickTop="1">
       <c r="A1" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B1" s="99">
         <f>TubeLoading!F29</f>
@@ -19696,105 +19034,81 @@
         <v>1515-conc</v>
       </c>
       <c r="N1" s="100">
-        <f>TubeLoading!F33</f>
-        <v>3193</v>
-      </c>
-      <c r="O1" s="101" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"density")</f>
-        <v>3193-density</v>
-      </c>
-      <c r="P1" s="101" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"conc")</f>
-        <v>3193-conc</v>
-      </c>
-      <c r="Q1" s="100">
-        <f>TubeLoading!F34</f>
-        <v>2383</v>
-      </c>
-      <c r="R1" s="101" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"density")</f>
-        <v>2383-density</v>
-      </c>
-      <c r="S1" s="101" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"conc")</f>
-        <v>2383-conc</v>
-      </c>
-      <c r="T1" s="100">
         <f>TubeLoading!F35</f>
         <v>3654</v>
       </c>
-      <c r="U1" s="101" t="str">
+      <c r="O1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"density")</f>
         <v>3654-density</v>
       </c>
-      <c r="V1" s="101" t="str">
+      <c r="P1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"conc")</f>
         <v>3654-conc</v>
       </c>
-      <c r="W1" s="100">
+      <c r="Q1" s="100">
         <f>TubeLoading!F36</f>
         <v>1794</v>
       </c>
-      <c r="X1" s="101" t="str">
+      <c r="R1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"density")</f>
         <v>1794-density</v>
       </c>
-      <c r="Y1" s="101" t="str">
+      <c r="S1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"conc")</f>
         <v>1794-conc</v>
       </c>
-      <c r="Z1" s="100">
+      <c r="T1" s="100">
         <f>TubeLoading!F41</f>
         <v>4016</v>
       </c>
-      <c r="AA1" s="101" t="str">
+      <c r="U1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$41,"density")</f>
         <v>4016-density</v>
       </c>
-      <c r="AB1" s="101" t="str">
+      <c r="V1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$41,"conc")</f>
         <v>4016-conc</v>
       </c>
-      <c r="AC1" s="100">
+      <c r="W1" s="100">
         <f>TubeLoading!F42</f>
         <v>2445</v>
       </c>
-      <c r="AD1" s="101" t="str">
+      <c r="X1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$42,"density")</f>
         <v>2445-density</v>
       </c>
-      <c r="AE1" s="101" t="str">
+      <c r="Y1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$42,"conc")</f>
         <v>2445-conc</v>
       </c>
-      <c r="AF1" s="100">
+      <c r="Z1" s="100">
         <f>TubeLoading!F43</f>
         <v>2021</v>
       </c>
-      <c r="AG1" s="101" t="str">
+      <c r="AA1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$43,"density")</f>
         <v>2021-density</v>
       </c>
-      <c r="AH1" s="101" t="str">
+      <c r="AB1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$43,"conc")</f>
         <v>2021-conc</v>
       </c>
-      <c r="AI1" s="100">
+      <c r="AC1" s="100">
         <f>TubeLoading!F44</f>
         <v>1502</v>
       </c>
-      <c r="AJ1" s="101" t="str">
+      <c r="AD1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$44,"density")</f>
         <v>1502-density</v>
       </c>
-      <c r="AK1" s="101" t="str">
+      <c r="AE1" s="101" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$44,"conc")</f>
         <v>1502-conc</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:31">
       <c r="A2" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="119" t="s">
         <v>169</v>
@@ -19827,150 +19141,122 @@
       <c r="R2" s="117"/>
       <c r="S2" s="118"/>
       <c r="T2" s="116" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="U2" s="117"/>
       <c r="V2" s="118"/>
       <c r="W2" s="116" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="X2" s="117"/>
       <c r="Y2" s="118"/>
       <c r="Z2" s="116" t="s">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="AA2" s="117"/>
       <c r="AB2" s="118"/>
       <c r="AC2" s="116" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="AD2" s="117"/>
       <c r="AE2" s="118"/>
-      <c r="AF2" s="116" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="118"/>
-    </row>
-    <row r="3" spans="1:37">
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="62" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>173</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G3" s="65" t="s">
         <v>173</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>173</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L3" s="64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M3" s="65" t="s">
         <v>173</v>
       </c>
       <c r="N3" s="84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O3" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="Q3" s="84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R3" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="S3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="T3" s="84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U3" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="V3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="W3" s="84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X3" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Y3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="Z3" s="84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AA3" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AB3" s="86" t="s">
         <v>173</v>
       </c>
       <c r="AC3" s="84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AD3" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AE3" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="AF3" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG3" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH3" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI3" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ3" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK3" s="86" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="56">
         <v>1</v>
       </c>
@@ -20019,95 +19305,73 @@
         <v>-2.5927305423049527E-2</v>
       </c>
       <c r="N4" s="69" t="str">
-        <f>'Tube E'!G2</f>
-        <v>A1</v>
-      </c>
-      <c r="O4" s="70">
-        <f>'Tube E'!F2</f>
-        <v>1.7626274340000005</v>
-      </c>
-      <c r="P4" s="71">
-        <v>-2.0463783997860068E-2</v>
-      </c>
-      <c r="Q4" s="69" t="str">
-        <f>'Tube F'!G2</f>
-        <v>G3</v>
-      </c>
-      <c r="R4" s="70">
-        <f>'Tube F'!F2</f>
-        <v>1.7557430459999992</v>
-      </c>
-      <c r="S4" s="71">
-        <v>-1.2482013580888102E-2</v>
-      </c>
-      <c r="T4" s="69" t="str">
         <f>'Tube G'!G2</f>
         <v>D6</v>
       </c>
-      <c r="U4" s="70">
+      <c r="O4" s="70">
         <f>'Tube G'!F2</f>
         <v>1.7556064510000002</v>
       </c>
-      <c r="V4" s="71">
+      <c r="P4" s="71">
         <v>6.3135528703066837E-2</v>
       </c>
-      <c r="W4" s="69" t="str">
+      <c r="Q4" s="69" t="str">
         <f>'Tube H'!G2</f>
         <v>C9</v>
       </c>
-      <c r="X4" s="70">
+      <c r="R4" s="70">
         <f>'Tube H'!F2</f>
         <v>1.7463453100000006</v>
       </c>
-      <c r="Y4" s="71">
+      <c r="S4" s="71">
         <v>4.1425655064496721E-3</v>
       </c>
-      <c r="Z4" s="69" t="str">
+      <c r="T4" s="69" t="str">
         <f>'Tube M'!G2</f>
         <v>A1</v>
       </c>
-      <c r="AA4" s="70">
+      <c r="U4" s="70">
         <f>'Tube M'!F2</f>
         <v>1.778417816000001</v>
       </c>
-      <c r="AB4" s="71">
+      <c r="V4" s="71">
         <v>-1.9260806273593511E-2</v>
       </c>
-      <c r="AC4" s="69" t="str">
+      <c r="W4" s="69" t="str">
         <f>'Tube N'!G2</f>
         <v>G3</v>
       </c>
-      <c r="AD4" s="70">
+      <c r="X4" s="70">
         <f>'Tube N'!F2</f>
         <v>1.7665886890000024</v>
       </c>
-      <c r="AE4" s="71">
+      <c r="Y4" s="71">
         <v>-3.631424088795001E-2</v>
       </c>
-      <c r="AF4" s="69" t="str">
+      <c r="Z4" s="69" t="str">
         <f>'Tube O'!G2</f>
         <v>D6</v>
       </c>
-      <c r="AG4" s="70">
+      <c r="AA4" s="70">
         <f>'Tube O'!F2</f>
         <v>1.7584203079999998</v>
       </c>
-      <c r="AH4" s="71">
+      <c r="AB4" s="71">
         <v>-2.2378046971212845E-2</v>
       </c>
-      <c r="AI4" s="69" t="str">
+      <c r="AC4" s="69" t="str">
         <f>'Tube P'!G2</f>
         <v>C9</v>
       </c>
-      <c r="AJ4" s="70">
+      <c r="AD4" s="70">
         <f>'Tube P'!F2</f>
         <v>1.756617254</v>
       </c>
-      <c r="AK4" s="71">
+      <c r="AE4" s="71">
         <v>-2.0268071547348245E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:31">
       <c r="A5" s="56">
         <v>2</v>
       </c>
@@ -20156,95 +19420,73 @@
         <v>-4.7293463991836454E-2</v>
       </c>
       <c r="N5" s="72" t="str">
-        <f>'Tube E'!G3</f>
-        <v>B1</v>
-      </c>
-      <c r="O5" s="73">
-        <f>'Tube E'!F3</f>
-        <v>1.7626274340000005</v>
-      </c>
-      <c r="P5" s="74">
-        <v>-5.3538839960976458E-4</v>
-      </c>
-      <c r="Q5" s="72" t="str">
-        <f>'Tube F'!G3</f>
-        <v>H3</v>
-      </c>
-      <c r="R5" s="73">
-        <f>'Tube F'!F3</f>
-        <v>1.7581197989999993</v>
-      </c>
-      <c r="S5" s="74">
-        <v>2.3851345744681399E-2</v>
-      </c>
-      <c r="T5" s="72" t="str">
         <f>'Tube G'!G3</f>
         <v>C6</v>
       </c>
-      <c r="U5" s="73">
+      <c r="O5" s="73">
         <f>'Tube G'!F3</f>
         <v>1.756699210999999</v>
       </c>
-      <c r="V5" s="74">
+      <c r="P5" s="74">
         <v>0.15211840212196873</v>
       </c>
-      <c r="W5" s="72" t="str">
+      <c r="Q5" s="72" t="str">
         <f>'Tube H'!G3</f>
         <v>D9</v>
       </c>
-      <c r="X5" s="73">
+      <c r="R5" s="73">
         <f>'Tube H'!F3</f>
         <v>1.7561801500000005</v>
       </c>
-      <c r="Y5" s="74">
+      <c r="S5" s="74">
         <v>3.1364586365325429E-2</v>
       </c>
-      <c r="Z5" s="72" t="str">
+      <c r="T5" s="72" t="str">
         <f>'Tube M'!G3</f>
         <v>B1</v>
       </c>
-      <c r="AA5" s="73">
+      <c r="U5" s="73">
         <f>'Tube M'!F3</f>
         <v>1.7696757360000017</v>
       </c>
-      <c r="AB5" s="74">
+      <c r="V5" s="74">
         <v>-9.0888505915609711E-3</v>
       </c>
-      <c r="AC5" s="72" t="str">
+      <c r="W5" s="72" t="str">
         <f>'Tube N'!G3</f>
         <v>H3</v>
       </c>
-      <c r="AD5" s="73">
+      <c r="X5" s="73">
         <f>'Tube N'!F3</f>
         <v>1.7654959290000019</v>
       </c>
-      <c r="AE5" s="74">
+      <c r="Y5" s="74">
         <v>-3.0937932732867681E-2</v>
       </c>
-      <c r="AF5" s="72" t="str">
+      <c r="Z5" s="72" t="str">
         <f>'Tube O'!G3</f>
         <v>C6</v>
       </c>
-      <c r="AG5" s="73">
+      <c r="AA5" s="73">
         <f>'Tube O'!F3</f>
         <v>1.7627913480000004</v>
       </c>
-      <c r="AH5" s="74">
+      <c r="AB5" s="74">
         <v>-2.2975089825000589E-2</v>
       </c>
-      <c r="AI5" s="72" t="str">
+      <c r="AC5" s="72" t="str">
         <f>'Tube P'!G3</f>
         <v>D9</v>
       </c>
-      <c r="AJ5" s="73">
+      <c r="AD5" s="73">
         <f>'Tube P'!F3</f>
         <v>1.763173814</v>
       </c>
-      <c r="AK5" s="74">
+      <c r="AE5" s="74">
         <v>-2.26125333696168E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:31">
       <c r="A6" s="56">
         <v>3</v>
       </c>
@@ -20293,95 +19535,73 @@
         <v>-4.6978705082012469E-2</v>
       </c>
       <c r="N6" s="72" t="str">
-        <f>'Tube E'!G4</f>
-        <v>C1</v>
-      </c>
-      <c r="O6" s="73">
-        <f>'Tube E'!F4</f>
-        <v>1.758256394</v>
-      </c>
-      <c r="P6" s="74">
-        <v>1.0608585303546176E-2</v>
-      </c>
-      <c r="Q6" s="72" t="str">
-        <f>'Tube F'!G4</f>
-        <v>H4</v>
-      </c>
-      <c r="R6" s="73">
-        <f>'Tube F'!F4</f>
-        <v>1.7548415189999993</v>
-      </c>
-      <c r="S6" s="74">
-        <v>9.6906363608471935E-2</v>
-      </c>
-      <c r="T6" s="72" t="str">
         <f>'Tube G'!G4</f>
         <v>B6</v>
       </c>
-      <c r="U6" s="73">
+      <c r="O6" s="73">
         <f>'Tube G'!F4</f>
         <v>1.7534209310000008</v>
       </c>
-      <c r="V6" s="74">
+      <c r="P6" s="74">
         <v>0.49708762670796364</v>
       </c>
-      <c r="W6" s="72" t="str">
+      <c r="Q6" s="72" t="str">
         <f>'Tube H'!G4</f>
         <v>E9</v>
       </c>
-      <c r="X6" s="73">
+      <c r="R6" s="73">
         <f>'Tube H'!F4</f>
         <v>1.7529018700000005</v>
       </c>
-      <c r="Y6" s="74">
+      <c r="S6" s="74">
         <v>8.4720704572724292E-2</v>
       </c>
-      <c r="Z6" s="72" t="str">
+      <c r="T6" s="72" t="str">
         <f>'Tube M'!G4</f>
         <v>C1</v>
       </c>
-      <c r="AA6" s="73">
+      <c r="U6" s="73">
         <f>'Tube M'!F4</f>
         <v>1.7653046960000012</v>
       </c>
-      <c r="AB6" s="74">
+      <c r="V6" s="74">
         <v>-1.07127253001656E-2</v>
       </c>
-      <c r="AC6" s="72" t="str">
+      <c r="W6" s="72" t="str">
         <f>'Tube N'!G4</f>
         <v>H4</v>
       </c>
-      <c r="AD6" s="73">
+      <c r="X6" s="73">
         <f>'Tube N'!F4</f>
         <v>1.762408881999999</v>
       </c>
-      <c r="AE6" s="74">
+      <c r="Y6" s="74">
         <v>-3.9780268731960007E-2</v>
       </c>
-      <c r="AF6" s="72" t="str">
+      <c r="Z6" s="72" t="str">
         <f>'Tube O'!G4</f>
         <v>B6</v>
       </c>
-      <c r="AG6" s="73">
+      <c r="AA6" s="73">
         <f>'Tube O'!F4</f>
         <v>1.7595130680000004</v>
       </c>
-      <c r="AH6" s="74">
+      <c r="AB6" s="74">
         <v>-1.28361843136513E-2</v>
       </c>
-      <c r="AI6" s="72" t="str">
+      <c r="AC6" s="72" t="str">
         <f>'Tube P'!G4</f>
         <v>E9</v>
       </c>
-      <c r="AJ6" s="73">
+      <c r="AD6" s="73">
         <f>'Tube P'!F4</f>
         <v>1.7609882940000006</v>
       </c>
-      <c r="AK6" s="74">
+      <c r="AE6" s="74">
         <v>-2.4975540027317691E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:31">
       <c r="A7" s="56">
         <v>4</v>
       </c>
@@ -20430,95 +19650,73 @@
         <v>-3.9753029952670667E-2</v>
       </c>
       <c r="N7" s="72" t="str">
-        <f>'Tube E'!G5</f>
-        <v>D1</v>
-      </c>
-      <c r="O7" s="73">
-        <f>'Tube E'!F5</f>
-        <v>1.7527925940000006</v>
-      </c>
-      <c r="P7" s="74">
-        <v>0.10043130380465427</v>
-      </c>
-      <c r="Q7" s="72" t="str">
-        <f>'Tube F'!G5</f>
-        <v>G4</v>
-      </c>
-      <c r="R7" s="73">
-        <f>'Tube F'!F5</f>
-        <v>1.7493777189999999</v>
-      </c>
-      <c r="S7" s="74">
-        <v>0.22550491251158367</v>
-      </c>
-      <c r="T7" s="72" t="str">
         <f>'Tube G'!G5</f>
         <v>A6</v>
       </c>
-      <c r="U7" s="73">
+      <c r="O7" s="73">
         <f>'Tube G'!F5</f>
         <v>1.7494323570000017</v>
       </c>
-      <c r="V7" s="74">
+      <c r="P7" s="74">
         <v>0.82814741683358373</v>
       </c>
-      <c r="W7" s="72" t="str">
+      <c r="Q7" s="72" t="str">
         <f>'Tube H'!G5</f>
         <v>F9</v>
       </c>
-      <c r="X7" s="73">
+      <c r="R7" s="73">
         <f>'Tube H'!F5</f>
         <v>1.7498148230000012</v>
       </c>
-      <c r="Y7" s="74">
+      <c r="S7" s="74">
         <v>0.20980255047667609</v>
       </c>
-      <c r="Z7" s="72" t="str">
+      <c r="T7" s="72" t="str">
         <f>'Tube M'!G5</f>
         <v>D1</v>
       </c>
-      <c r="AA7" s="73">
+      <c r="U7" s="73">
         <f>'Tube M'!F5</f>
         <v>1.7609336559999988</v>
       </c>
-      <c r="AB7" s="74">
+      <c r="V7" s="74">
         <v>2.5181330286629337E-2</v>
       </c>
-      <c r="AC7" s="72" t="str">
+      <c r="W7" s="72" t="str">
         <f>'Tube N'!G5</f>
         <v>G4</v>
       </c>
-      <c r="AD7" s="73">
+      <c r="X7" s="73">
         <f>'Tube N'!F5</f>
         <v>1.7591306020000008</v>
       </c>
-      <c r="AE7" s="74">
+      <c r="Y7" s="74">
         <v>-1.3137761498474376E-2</v>
       </c>
-      <c r="AF7" s="72" t="str">
+      <c r="Z7" s="72" t="str">
         <f>'Tube O'!G5</f>
         <v>A6</v>
       </c>
-      <c r="AG7" s="73">
+      <c r="AA7" s="73">
         <f>'Tube O'!F5</f>
         <v>1.754049268000001</v>
       </c>
-      <c r="AH7" s="74">
+      <c r="AB7" s="74">
         <v>-4.2167280137465207E-3</v>
       </c>
-      <c r="AI7" s="72" t="str">
+      <c r="AC7" s="72" t="str">
         <f>'Tube P'!G5</f>
         <v>F9</v>
       </c>
-      <c r="AJ7" s="73">
+      <c r="AD7" s="73">
         <f>'Tube P'!F5</f>
         <v>1.7555244940000012</v>
       </c>
-      <c r="AK7" s="74">
+      <c r="AE7" s="74">
         <v>-4.289607887565162E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:31">
       <c r="A8" s="56">
         <v>5</v>
       </c>
@@ -20567,95 +19765,73 @@
         <v>-1.256568155723841E-2</v>
       </c>
       <c r="N8" s="72" t="str">
-        <f>'Tube E'!G6</f>
-        <v>E1</v>
-      </c>
-      <c r="O8" s="73">
-        <f>'Tube E'!F6</f>
-        <v>1.7464272670000014</v>
-      </c>
-      <c r="P8" s="74">
-        <v>0.175360529597648</v>
-      </c>
-      <c r="Q8" s="72" t="str">
-        <f>'Tube F'!G6</f>
-        <v>F4</v>
-      </c>
-      <c r="R8" s="73">
-        <f>'Tube F'!F6</f>
-        <v>1.7439139190000006</v>
-      </c>
-      <c r="S8" s="74">
-        <v>0.70629344241902603</v>
-      </c>
-      <c r="T8" s="72" t="str">
         <f>'Tube G'!G6</f>
         <v>A7</v>
       </c>
-      <c r="U8" s="73">
+      <c r="O8" s="73">
         <f>'Tube G'!F6</f>
         <v>1.7446788510000015</v>
       </c>
-      <c r="V8" s="74">
+      <c r="P8" s="74">
         <v>1.3717738549680407</v>
       </c>
-      <c r="W8" s="72" t="str">
+      <c r="Q8" s="72" t="str">
         <f>'Tube H'!G6</f>
         <v>G9</v>
       </c>
-      <c r="X8" s="73">
+      <c r="R8" s="73">
         <f>'Tube H'!F6</f>
         <v>1.7443510230000019</v>
       </c>
-      <c r="Y8" s="74">
+      <c r="S8" s="74">
         <v>0.53246092780398058</v>
       </c>
-      <c r="Z8" s="72" t="str">
+      <c r="T8" s="72" t="str">
         <f>'Tube M'!G6</f>
         <v>E1</v>
       </c>
-      <c r="AA8" s="73">
+      <c r="U8" s="73">
         <f>'Tube M'!F6</f>
         <v>1.7543770960000007</v>
       </c>
-      <c r="AB8" s="74">
+      <c r="V8" s="74">
         <v>0.20306859261396207</v>
       </c>
-      <c r="AC8" s="72" t="str">
+      <c r="W8" s="72" t="str">
         <f>'Tube N'!G6</f>
         <v>F4</v>
       </c>
-      <c r="AD8" s="73">
+      <c r="X8" s="73">
         <f>'Tube N'!F6</f>
         <v>1.7514812820000003</v>
       </c>
-      <c r="AE8" s="74">
+      <c r="Y8" s="74">
         <v>-3.3201279753309033E-2</v>
       </c>
-      <c r="AF8" s="72" t="str">
+      <c r="Z8" s="72" t="str">
         <f>'Tube O'!G6</f>
         <v>A7</v>
       </c>
-      <c r="AG8" s="73">
+      <c r="AA8" s="73">
         <f>'Tube O'!F6</f>
         <v>1.7507709880000011</v>
       </c>
-      <c r="AH8" s="74">
+      <c r="AB8" s="74">
         <v>1.1170875569129692E-2</v>
       </c>
-      <c r="AI8" s="72" t="str">
+      <c r="AC8" s="72" t="str">
         <f>'Tube P'!G6</f>
         <v>G9</v>
       </c>
-      <c r="AJ8" s="73">
+      <c r="AD8" s="73">
         <f>'Tube P'!F6</f>
         <v>1.7511534540000007</v>
       </c>
-      <c r="AK8" s="74">
+      <c r="AE8" s="74">
         <v>4.8797633538395085E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:31">
       <c r="A9" s="56">
         <v>6</v>
       </c>
@@ -20704,95 +19880,73 @@
         <v>-2.2468599358782759E-2</v>
       </c>
       <c r="N9" s="72" t="str">
-        <f>'Tube E'!G7</f>
-        <v>F1</v>
-      </c>
-      <c r="O9" s="73">
-        <f>'Tube E'!F7</f>
-        <v>1.7398707070000015</v>
-      </c>
-      <c r="P9" s="74">
-        <v>0.51863065556540644</v>
-      </c>
-      <c r="Q9" s="72" t="str">
-        <f>'Tube F'!G7</f>
-        <v>E4</v>
-      </c>
-      <c r="R9" s="73">
-        <f>'Tube F'!F7</f>
-        <v>1.7373573589999989</v>
-      </c>
-      <c r="S9" s="74">
-        <v>1.6691083790296721</v>
-      </c>
-      <c r="T9" s="72" t="str">
         <f>'Tube G'!G7</f>
         <v>B7</v>
       </c>
-      <c r="U9" s="73">
+      <c r="O9" s="73">
         <f>'Tube G'!F7</f>
         <v>1.7383135239999987</v>
       </c>
-      <c r="V9" s="74">
+      <c r="P9" s="74">
         <v>2.7118808343174479</v>
       </c>
-      <c r="W9" s="72" t="str">
+      <c r="Q9" s="72" t="str">
         <f>'Tube H'!G7</f>
         <v>H9</v>
       </c>
-      <c r="X9" s="73">
+      <c r="R9" s="73">
         <f>'Tube H'!F7</f>
         <v>1.7377944630000002</v>
       </c>
-      <c r="Y9" s="75">
+      <c r="S9" s="75">
         <v>1.2094760523075958</v>
       </c>
-      <c r="Z9" s="72" t="str">
+      <c r="T9" s="72" t="str">
         <f>'Tube M'!G7</f>
         <v>F1</v>
       </c>
-      <c r="AA9" s="73">
+      <c r="U9" s="73">
         <f>'Tube M'!F7</f>
         <v>1.746727776000002</v>
       </c>
-      <c r="AB9" s="74">
+      <c r="V9" s="74">
         <v>0.48310675943885589</v>
       </c>
-      <c r="AC9" s="72" t="str">
+      <c r="W9" s="72" t="str">
         <f>'Tube N'!G7</f>
         <v>E4</v>
       </c>
-      <c r="AD9" s="73">
+      <c r="X9" s="73">
         <f>'Tube N'!F7</f>
         <v>1.7449247220000021</v>
       </c>
-      <c r="AE9" s="74">
+      <c r="Y9" s="74">
         <v>-3.6907362884874887E-3</v>
       </c>
-      <c r="AF9" s="72" t="str">
+      <c r="Z9" s="72" t="str">
         <f>'Tube O'!G7</f>
         <v>B7</v>
       </c>
-      <c r="AG9" s="73">
+      <c r="AA9" s="73">
         <f>'Tube O'!F7</f>
         <v>1.7442144280000011</v>
       </c>
-      <c r="AH9" s="74">
+      <c r="AB9" s="74">
         <v>9.1829408963584047E-2</v>
       </c>
-      <c r="AI9" s="72" t="str">
+      <c r="AC9" s="72" t="str">
         <f>'Tube P'!G7</f>
         <v>H9</v>
       </c>
-      <c r="AJ9" s="73">
+      <c r="AD9" s="73">
         <f>'Tube P'!F7</f>
         <v>1.7445968940000025</v>
       </c>
-      <c r="AK9" s="74">
+      <c r="AE9" s="74">
         <v>0.13751671711228819</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:31">
       <c r="A10" s="56">
         <v>7</v>
       </c>
@@ -20841,95 +19995,73 @@
         <v>5.6249391568224415E-2</v>
       </c>
       <c r="N10" s="72" t="str">
-        <f>'Tube E'!G8</f>
-        <v>G1</v>
-      </c>
-      <c r="O10" s="73">
-        <f>'Tube E'!F8</f>
-        <v>1.7354996669999991</v>
-      </c>
-      <c r="P10" s="74">
-        <v>1.2204466196133288</v>
-      </c>
-      <c r="Q10" s="72" t="str">
-        <f>'Tube F'!G8</f>
-        <v>D4</v>
-      </c>
-      <c r="R10" s="73">
-        <f>'Tube F'!F8</f>
-        <v>1.7318935589999995</v>
-      </c>
-      <c r="S10" s="74">
-        <v>3.6870802157983049</v>
-      </c>
-      <c r="T10" s="72" t="str">
         <f>'Tube G'!G8</f>
         <v>C7</v>
       </c>
-      <c r="U10" s="73">
+      <c r="O10" s="73">
         <f>'Tube G'!F8</f>
         <v>1.7328497239999994</v>
       </c>
-      <c r="V10" s="74">
+      <c r="P10" s="74">
         <v>4.476840392034898</v>
       </c>
-      <c r="W10" s="72" t="str">
+      <c r="Q10" s="72" t="str">
         <f>'Tube H'!G8</f>
         <v>H10</v>
       </c>
-      <c r="X10" s="73">
+      <c r="R10" s="73">
         <f>'Tube H'!F8</f>
         <v>1.7323306630000008</v>
       </c>
-      <c r="Y10" s="75">
+      <c r="S10" s="75">
         <v>2.670654578974172</v>
       </c>
-      <c r="Z10" s="72" t="str">
+      <c r="T10" s="72" t="str">
         <f>'Tube M'!G8</f>
         <v>G1</v>
       </c>
-      <c r="AA10" s="73">
+      <c r="U10" s="73">
         <f>'Tube M'!F8</f>
         <v>1.7401712160000002</v>
       </c>
-      <c r="AB10" s="74">
+      <c r="V10" s="74">
         <v>1.0814671128458431</v>
       </c>
-      <c r="AC10" s="72" t="str">
+      <c r="W10" s="72" t="str">
         <f>'Tube N'!G8</f>
         <v>D4</v>
       </c>
-      <c r="AD10" s="73">
+      <c r="X10" s="73">
         <f>'Tube N'!F8</f>
         <v>1.7383681620000004</v>
       </c>
-      <c r="AE10" s="74">
+      <c r="Y10" s="74">
         <v>0.10572731620310376</v>
       </c>
-      <c r="AF10" s="72" t="str">
+      <c r="Z10" s="72" t="str">
         <f>'Tube O'!G8</f>
         <v>C7</v>
       </c>
-      <c r="AG10" s="73">
+      <c r="AA10" s="73">
         <f>'Tube O'!F8</f>
         <v>1.7376578679999994</v>
       </c>
-      <c r="AH10" s="74">
+      <c r="AB10" s="74">
         <v>0.3487931242006681</v>
       </c>
-      <c r="AI10" s="72" t="str">
+      <c r="AC10" s="72" t="str">
         <f>'Tube P'!G8</f>
         <v>H10</v>
       </c>
-      <c r="AJ10" s="73">
+      <c r="AD10" s="73">
         <f>'Tube P'!F8</f>
         <v>1.7391330939999996</v>
       </c>
-      <c r="AK10" s="75">
+      <c r="AE10" s="75">
         <v>0.36713105098143145</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:31">
       <c r="A11" s="56">
         <v>8</v>
       </c>
@@ -20978,95 +20110,73 @@
         <v>1.3949642302538967</v>
       </c>
       <c r="N11" s="72" t="str">
-        <f>'Tube E'!G9</f>
-        <v>H1</v>
-      </c>
-      <c r="O11" s="73">
-        <f>'Tube E'!F9</f>
-        <v>1.7291343399999999</v>
-      </c>
-      <c r="P11" s="74">
-        <v>2.9027148760908119</v>
-      </c>
-      <c r="Q11" s="72" t="str">
-        <f>'Tube F'!G9</f>
-        <v>C4</v>
-      </c>
-      <c r="R11" s="73">
-        <f>'Tube F'!F9</f>
-        <v>1.7255282320000003</v>
-      </c>
-      <c r="S11" s="74">
-        <v>7.2523410638667016</v>
-      </c>
-      <c r="T11" s="72" t="str">
         <f>'Tube G'!G9</f>
         <v>D7</v>
       </c>
-      <c r="U11" s="73">
+      <c r="O11" s="73">
         <f>'Tube G'!F9</f>
         <v>1.7262931640000012</v>
       </c>
-      <c r="V11" s="74">
+      <c r="P11" s="74">
         <v>6.9607528696289513</v>
       </c>
-      <c r="W11" s="72" t="str">
+      <c r="Q11" s="72" t="str">
         <f>'Tube H'!G9</f>
         <v>G10</v>
       </c>
-      <c r="X11" s="73">
+      <c r="R11" s="73">
         <f>'Tube H'!F9</f>
         <v>1.7268668630000015</v>
       </c>
-      <c r="Y11" s="75">
+      <c r="S11" s="75">
         <v>7.8226424013937317</v>
       </c>
-      <c r="Z11" s="72" t="str">
+      <c r="T11" s="72" t="str">
         <f>'Tube M'!G9</f>
         <v>H1</v>
       </c>
-      <c r="AA11" s="73">
+      <c r="U11" s="73">
         <f>'Tube M'!F9</f>
         <v>1.7336146560000003</v>
       </c>
-      <c r="AB11" s="74">
+      <c r="V11" s="74">
         <v>3.4931326444996196</v>
       </c>
-      <c r="AC11" s="72" t="str">
+      <c r="W11" s="72" t="str">
         <f>'Tube N'!G9</f>
         <v>C4</v>
       </c>
-      <c r="AD11" s="73">
+      <c r="X11" s="73">
         <f>'Tube N'!F9</f>
         <v>1.7329043620000011</v>
       </c>
-      <c r="AE11" s="74">
+      <c r="Y11" s="74">
         <v>1.3466151722515773</v>
       </c>
-      <c r="AF11" s="72" t="str">
+      <c r="Z11" s="72" t="str">
         <f>'Tube O'!G9</f>
         <v>D7</v>
       </c>
-      <c r="AG11" s="73">
+      <c r="AA11" s="73">
         <f>'Tube O'!F9</f>
         <v>1.7301997810000014</v>
       </c>
-      <c r="AH11" s="74">
+      <c r="AB11" s="74">
         <v>2.1376134445432378</v>
       </c>
-      <c r="AI11" s="72" t="str">
+      <c r="AC11" s="72" t="str">
         <f>'Tube P'!G9</f>
         <v>G10</v>
       </c>
-      <c r="AJ11" s="73">
+      <c r="AD11" s="73">
         <f>'Tube P'!F9</f>
         <v>1.7325765340000014</v>
       </c>
-      <c r="AK11" s="75">
+      <c r="AE11" s="75">
         <v>1.3773724794825835</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:31">
       <c r="A12" s="56">
         <v>9</v>
       </c>
@@ -21115,95 +20225,73 @@
         <v>14.277514778188879</v>
       </c>
       <c r="N12" s="72" t="str">
-        <f>'Tube E'!G10</f>
-        <v>H2</v>
-      </c>
-      <c r="O12" s="73">
-        <f>'Tube E'!F10</f>
-        <v>1.7225777799999999</v>
-      </c>
-      <c r="P12" s="74">
-        <v>7.0237378781819473</v>
-      </c>
-      <c r="Q12" s="72" t="str">
-        <f>'Tube F'!G10</f>
-        <v>B4</v>
-      </c>
-      <c r="R12" s="73">
-        <f>'Tube F'!F10</f>
-        <v>1.7200644320000009</v>
-      </c>
-      <c r="S12" s="74">
-        <v>16.462006311442085</v>
-      </c>
-      <c r="T12" s="72" t="str">
         <f>'Tube G'!G10</f>
         <v>E7</v>
       </c>
-      <c r="U12" s="73">
+      <c r="O12" s="73">
         <f>'Tube G'!F10</f>
         <v>1.7208293640000019</v>
       </c>
-      <c r="V12" s="74">
+      <c r="P12" s="74">
         <v>13.600594508199576</v>
       </c>
-      <c r="W12" s="72" t="str">
+      <c r="Q12" s="72" t="str">
         <f>'Tube H'!G10</f>
         <v>F10</v>
       </c>
-      <c r="X12" s="73">
+      <c r="R12" s="73">
         <f>'Tube H'!F10</f>
         <v>1.7203103030000015</v>
       </c>
-      <c r="Y12" s="75">
+      <c r="S12" s="75">
         <v>16.825580113159116</v>
       </c>
-      <c r="Z12" s="72" t="str">
+      <c r="T12" s="72" t="str">
         <f>'Tube M'!G10</f>
         <v>H2</v>
       </c>
-      <c r="AA12" s="73">
+      <c r="U12" s="73">
         <f>'Tube M'!F10</f>
         <v>1.7292436160000015</v>
       </c>
-      <c r="AB12" s="74">
+      <c r="V12" s="74">
         <v>9.9684851382542998</v>
       </c>
-      <c r="AC12" s="72" t="str">
+      <c r="W12" s="72" t="str">
         <f>'Tube N'!G10</f>
         <v>B4</v>
       </c>
-      <c r="AD12" s="73">
+      <c r="X12" s="73">
         <f>'Tube N'!F10</f>
         <v>1.7274405620000017</v>
       </c>
-      <c r="AE12" s="74">
+      <c r="Y12" s="74">
         <v>11.944523832149699</v>
       </c>
-      <c r="AF12" s="72" t="str">
+      <c r="Z12" s="72" t="str">
         <f>'Tube O'!G10</f>
         <v>E7</v>
       </c>
-      <c r="AG12" s="73">
+      <c r="AA12" s="73">
         <f>'Tube O'!F10</f>
         <v>1.724735981000002</v>
       </c>
-      <c r="AH12" s="74">
+      <c r="AB12" s="74">
         <v>13.812288942181334</v>
       </c>
-      <c r="AI12" s="72" t="str">
+      <c r="AC12" s="72" t="str">
         <f>'Tube P'!G10</f>
         <v>F10</v>
       </c>
-      <c r="AJ12" s="73">
+      <c r="AD12" s="73">
         <f>'Tube P'!F10</f>
         <v>1.7271127340000021</v>
       </c>
-      <c r="AK12" s="75">
+      <c r="AE12" s="75">
         <v>8.3925853727849447</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:31">
       <c r="A13" s="56">
         <v>10</v>
       </c>
@@ -21252,95 +20340,73 @@
         <v>18.110864252641065</v>
       </c>
       <c r="N13" s="72" t="str">
-        <f>'Tube E'!G11</f>
-        <v>G2</v>
-      </c>
-      <c r="O13" s="73">
-        <f>'Tube E'!F11</f>
-        <v>1.7171139799999988</v>
-      </c>
-      <c r="P13" s="75">
-        <v>11.613331556357783</v>
-      </c>
-      <c r="Q13" s="72" t="str">
-        <f>'Tube F'!G11</f>
-        <v>A4</v>
-      </c>
-      <c r="R13" s="73">
-        <f>'Tube F'!F11</f>
-        <v>1.7146006319999998</v>
-      </c>
-      <c r="S13" s="74">
-        <v>18.7283074693526</v>
-      </c>
-      <c r="T13" s="72" t="str">
         <f>'Tube G'!G11</f>
         <v>F7</v>
       </c>
-      <c r="U13" s="73">
+      <c r="O13" s="73">
         <f>'Tube G'!F11</f>
         <v>1.7131800439999996</v>
       </c>
-      <c r="V13" s="74">
+      <c r="P13" s="74">
         <v>11.76713976644281</v>
       </c>
-      <c r="W13" s="72" t="str">
+      <c r="Q13" s="72" t="str">
         <f>'Tube H'!G11</f>
         <v>E10</v>
       </c>
-      <c r="X13" s="73">
+      <c r="R13" s="73">
         <f>'Tube H'!F11</f>
         <v>1.7150377359999993</v>
       </c>
-      <c r="Y13" s="75">
+      <c r="S13" s="75">
         <v>17.212606027150656</v>
       </c>
-      <c r="Z13" s="72" t="str">
+      <c r="T13" s="72" t="str">
         <f>'Tube M'!G11</f>
         <v>G2</v>
       </c>
-      <c r="AA13" s="73">
+      <c r="U13" s="73">
         <f>'Tube M'!F11</f>
         <v>1.7226870560000016</v>
       </c>
-      <c r="AB13" s="74">
+      <c r="V13" s="74">
         <v>21.450682597248576</v>
       </c>
-      <c r="AC13" s="72" t="str">
+      <c r="W13" s="72" t="str">
         <f>'Tube N'!G11</f>
         <v>A4</v>
       </c>
-      <c r="AD13" s="73">
+      <c r="X13" s="73">
         <f>'Tube N'!F11</f>
         <v>1.7210752350000025</v>
       </c>
-      <c r="AE13" s="74">
+      <c r="Y13" s="74">
         <v>22.29222163583761</v>
       </c>
-      <c r="AF13" s="72" t="str">
+      <c r="Z13" s="72" t="str">
         <f>'Tube O'!G11</f>
         <v>F7</v>
       </c>
-      <c r="AG13" s="73">
+      <c r="AA13" s="73">
         <f>'Tube O'!F11</f>
         <v>1.7181794210000003</v>
       </c>
-      <c r="AH13" s="74">
+      <c r="AB13" s="74">
         <v>18.234916730350577</v>
       </c>
-      <c r="AI13" s="72" t="str">
+      <c r="AC13" s="72" t="str">
         <f>'Tube P'!G11</f>
         <v>E10</v>
       </c>
-      <c r="AJ13" s="73">
+      <c r="AD13" s="73">
         <f>'Tube P'!F11</f>
         <v>1.7205561740000004</v>
       </c>
-      <c r="AK13" s="74">
+      <c r="AE13" s="74">
         <v>16.185376531622445</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:31">
       <c r="A14" s="56">
         <v>11</v>
       </c>
@@ -21389,95 +20455,73 @@
         <v>12.059390896181178</v>
       </c>
       <c r="N14" s="72" t="str">
-        <f>'Tube E'!G12</f>
-        <v>F2</v>
-      </c>
-      <c r="O14" s="73">
-        <f>'Tube E'!F12</f>
-        <v>1.7105574199999989</v>
-      </c>
-      <c r="P14" s="75">
-        <v>9.4605341772915512</v>
-      </c>
-      <c r="Q14" s="72" t="str">
-        <f>'Tube F'!G12</f>
-        <v>A5</v>
-      </c>
-      <c r="R14" s="73">
-        <f>'Tube F'!F12</f>
-        <v>1.7102295919999992</v>
-      </c>
-      <c r="S14" s="74">
-        <v>11.907065732067259</v>
-      </c>
-      <c r="T14" s="72" t="str">
         <f>'Tube G'!G12</f>
         <v>G7</v>
       </c>
-      <c r="U14" s="73">
+      <c r="O14" s="73">
         <f>'Tube G'!F12</f>
         <v>1.7088090040000008</v>
       </c>
-      <c r="V14" s="74">
+      <c r="P14" s="74">
         <v>9.3274810221449211</v>
       </c>
-      <c r="W14" s="72" t="str">
+      <c r="Q14" s="72" t="str">
         <f>'Tube H'!G12</f>
         <v>D10</v>
       </c>
-      <c r="X14" s="73">
+      <c r="R14" s="73">
         <f>'Tube H'!F12</f>
         <v>1.709573936</v>
       </c>
-      <c r="Y14" s="75">
+      <c r="S14" s="75">
         <v>12.502931635667879</v>
       </c>
-      <c r="Z14" s="72" t="str">
+      <c r="T14" s="72" t="str">
         <f>'Tube M'!G12</f>
         <v>F2</v>
       </c>
-      <c r="AA14" s="73">
+      <c r="U14" s="73">
         <f>'Tube M'!F12</f>
         <v>1.7161304959999999</v>
       </c>
-      <c r="AB14" s="74">
+      <c r="V14" s="74">
         <v>18.324604676134882</v>
       </c>
-      <c r="AC14" s="72" t="str">
+      <c r="W14" s="72" t="str">
         <f>'Tube N'!G12</f>
         <v>A5</v>
       </c>
-      <c r="AD14" s="73">
+      <c r="X14" s="73">
         <f>'Tube N'!F12</f>
         <v>1.7167041950000002</v>
       </c>
-      <c r="AE14" s="74">
+      <c r="Y14" s="74">
         <v>18.235797641953198</v>
       </c>
-      <c r="AF14" s="72" t="str">
+      <c r="Z14" s="72" t="str">
         <f>'Tube O'!G12</f>
         <v>G7</v>
       </c>
-      <c r="AG14" s="73">
+      <c r="AA14" s="73">
         <f>'Tube O'!F12</f>
         <v>1.712715621000001</v>
       </c>
-      <c r="AH14" s="74">
+      <c r="AB14" s="74">
         <v>15.82570681100089</v>
       </c>
-      <c r="AI14" s="72" t="str">
+      <c r="AC14" s="72" t="str">
         <f>'Tube P'!G12</f>
         <v>D10</v>
       </c>
-      <c r="AJ14" s="73">
+      <c r="AD14" s="73">
         <f>'Tube P'!F12</f>
         <v>1.715092374000001</v>
       </c>
-      <c r="AK14" s="76">
+      <c r="AE14" s="76">
         <v>19.022443992235285</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:31">
       <c r="A15" s="56">
         <v>12</v>
       </c>
@@ -21526,95 +20570,73 @@
         <v>6.1758795646432132</v>
       </c>
       <c r="N15" s="72" t="str">
-        <f>'Tube E'!G13</f>
-        <v>E2</v>
-      </c>
-      <c r="O15" s="73">
-        <f>'Tube E'!F13</f>
-        <v>1.7050936199999995</v>
-      </c>
-      <c r="P15" s="75">
-        <v>5.3960084085803111</v>
-      </c>
-      <c r="Q15" s="72" t="str">
-        <f>'Tube F'!G13</f>
-        <v>B5</v>
-      </c>
-      <c r="R15" s="73">
-        <f>'Tube F'!F13</f>
-        <v>1.7047657919999999</v>
-      </c>
-      <c r="S15" s="74">
-        <v>6.8807231378408487</v>
-      </c>
-      <c r="T15" s="72" t="str">
         <f>'Tube G'!G13</f>
         <v>H7</v>
       </c>
-      <c r="U15" s="73">
+      <c r="O15" s="73">
         <f>'Tube G'!F13</f>
         <v>1.7035364370000003</v>
       </c>
-      <c r="V15" s="74">
+      <c r="P15" s="74">
         <v>6.458357908874663</v>
       </c>
-      <c r="W15" s="72" t="str">
+      <c r="Q15" s="72" t="str">
         <f>'Tube H'!G13</f>
         <v>C10</v>
       </c>
-      <c r="X15" s="73">
+      <c r="R15" s="73">
         <f>'Tube H'!F13</f>
         <v>1.7030173760000018</v>
       </c>
-      <c r="Y15" s="74">
+      <c r="S15" s="74">
         <v>6.4920750888033103</v>
       </c>
-      <c r="Z15" s="72" t="str">
+      <c r="T15" s="72" t="str">
         <f>'Tube M'!G13</f>
         <v>E2</v>
       </c>
-      <c r="AA15" s="73">
+      <c r="U15" s="73">
         <f>'Tube M'!F13</f>
         <v>1.7117594560000011</v>
       </c>
-      <c r="AB15" s="74">
+      <c r="V15" s="74">
         <v>13.158090764632249</v>
       </c>
-      <c r="AC15" s="72" t="str">
+      <c r="W15" s="72" t="str">
         <f>'Tube N'!G13</f>
         <v>B5</v>
       </c>
-      <c r="AD15" s="73">
+      <c r="X15" s="73">
         <f>'Tube N'!F13</f>
         <v>1.7101476350000002</v>
       </c>
-      <c r="AE15" s="74">
+      <c r="Y15" s="74">
         <v>11.569216695762584</v>
       </c>
-      <c r="AF15" s="72" t="str">
+      <c r="Z15" s="72" t="str">
         <f>'Tube O'!G13</f>
         <v>H7</v>
       </c>
-      <c r="AG15" s="73">
+      <c r="AA15" s="73">
         <f>'Tube O'!F13</f>
         <v>1.7072518210000016</v>
       </c>
-      <c r="AH15" s="74">
+      <c r="AB15" s="74">
         <v>9.5022800744590743</v>
       </c>
-      <c r="AI15" s="72" t="str">
+      <c r="AC15" s="72" t="str">
         <f>'Tube P'!G13</f>
         <v>C10</v>
       </c>
-      <c r="AJ15" s="73">
+      <c r="AD15" s="73">
         <f>'Tube P'!F13</f>
         <v>1.7096285740000017</v>
       </c>
-      <c r="AK15" s="76">
+      <c r="AE15" s="76">
         <v>13.873540936065636</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:31">
       <c r="A16" s="56">
         <v>13</v>
       </c>
@@ -21663,95 +20685,73 @@
         <v>2.062644497157772</v>
       </c>
       <c r="N16" s="72" t="str">
-        <f>'Tube E'!G14</f>
-        <v>D2</v>
-      </c>
-      <c r="O16" s="73">
-        <f>'Tube E'!F14</f>
-        <v>1.6996298200000002</v>
-      </c>
-      <c r="P16" s="75">
-        <v>2.581010398673115</v>
-      </c>
-      <c r="Q16" s="72" t="str">
-        <f>'Tube F'!G14</f>
-        <v>C5</v>
-      </c>
-      <c r="R16" s="73">
-        <f>'Tube F'!F14</f>
-        <v>1.6982092320000017</v>
-      </c>
-      <c r="S16" s="74">
-        <v>3.1848577497107544</v>
-      </c>
-      <c r="T16" s="72" t="str">
         <f>'Tube G'!G14</f>
         <v>H8</v>
       </c>
-      <c r="U16" s="73">
+      <c r="O16" s="73">
         <f>'Tube G'!F14</f>
         <v>1.698072637000001</v>
       </c>
-      <c r="V16" s="74">
+      <c r="P16" s="74">
         <v>2.0084376577031704</v>
       </c>
-      <c r="W16" s="72" t="str">
+      <c r="Q16" s="72" t="str">
         <f>'Tube H'!G14</f>
         <v>B10</v>
       </c>
-      <c r="X16" s="73">
+      <c r="R16" s="73">
         <f>'Tube H'!F14</f>
         <v>1.6964608160000001</v>
       </c>
-      <c r="Y16" s="74">
+      <c r="S16" s="74">
         <v>2.6712828920512535</v>
       </c>
-      <c r="Z16" s="72" t="str">
+      <c r="T16" s="72" t="str">
         <f>'Tube M'!G14</f>
         <v>D2</v>
       </c>
-      <c r="AA16" s="73">
+      <c r="U16" s="73">
         <f>'Tube M'!F14</f>
         <v>1.7052028960000012</v>
       </c>
-      <c r="AB16" s="74">
+      <c r="V16" s="74">
         <v>6.295960012504989</v>
       </c>
-      <c r="AC16" s="72" t="str">
+      <c r="W16" s="72" t="str">
         <f>'Tube N'!G14</f>
         <v>C5</v>
       </c>
-      <c r="AD16" s="73">
+      <c r="X16" s="73">
         <f>'Tube N'!F14</f>
         <v>1.7046838350000009</v>
       </c>
-      <c r="AE16" s="74">
+      <c r="Y16" s="74">
         <v>4.1424341088283043</v>
       </c>
-      <c r="AF16" s="72" t="str">
+      <c r="Z16" s="72" t="str">
         <f>'Tube O'!G14</f>
         <v>H8</v>
       </c>
-      <c r="AG16" s="73">
+      <c r="AA16" s="73">
         <f>'Tube O'!F14</f>
         <v>1.6974169809999999</v>
       </c>
-      <c r="AH16" s="74">
+      <c r="AB16" s="74">
         <v>4.1784099521668319</v>
       </c>
-      <c r="AI16" s="72" t="str">
+      <c r="AC16" s="72" t="str">
         <f>'Tube P'!G14</f>
         <v>B10</v>
       </c>
-      <c r="AJ16" s="73">
+      <c r="AD16" s="73">
         <f>'Tube P'!F14</f>
         <v>1.7030720140000017</v>
       </c>
-      <c r="AK16" s="76">
+      <c r="AE16" s="76">
         <v>5.942441010764397</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:31">
       <c r="A17" s="56">
         <v>14</v>
       </c>
@@ -21800,94 +20800,72 @@
         <v>1.2962606413750557</v>
       </c>
       <c r="N17" s="72" t="str">
-        <f>'Tube E'!G15</f>
-        <v>C2</v>
-      </c>
-      <c r="O17" s="73">
-        <f>'Tube E'!F15</f>
-        <v>1.6932644929999991</v>
-      </c>
-      <c r="P17" s="75">
-        <v>1.3562277425787963</v>
-      </c>
-      <c r="Q17" s="72" t="str">
-        <f>'Tube F'!G15</f>
-        <v>D5</v>
-      </c>
-      <c r="R17" s="73">
-        <f>'Tube F'!F15</f>
-        <v>1.6918439049999989</v>
-      </c>
-      <c r="S17" s="74">
-        <v>1.6301457107211246</v>
-      </c>
-      <c r="T17" s="72" t="str">
         <f>'Tube G'!G15</f>
         <v>G8</v>
       </c>
-      <c r="U17" s="73">
+      <c r="O17" s="73">
         <f>'Tube G'!F15</f>
         <v>1.6926088369999999</v>
       </c>
-      <c r="V17" s="74">
+      <c r="P17" s="74">
         <v>1.1658049739109311</v>
       </c>
-      <c r="W17" s="72" t="str">
+      <c r="Q17" s="72" t="str">
         <f>'Tube H'!G15</f>
         <v>A10</v>
       </c>
-      <c r="X17" s="73">
+      <c r="R17" s="73">
         <f>'Tube H'!F15</f>
         <v>1.6920897759999995</v>
       </c>
-      <c r="Y17" s="74">
+      <c r="S17" s="74">
         <v>1.6668998085147069</v>
       </c>
-      <c r="Z17" s="72" t="str">
+      <c r="T17" s="72" t="str">
         <f>'Tube M'!G15</f>
         <v>C2</v>
       </c>
-      <c r="AA17" s="73">
+      <c r="U17" s="73">
         <f>'Tube M'!F15</f>
         <v>1.6986463360000013</v>
       </c>
-      <c r="AB17" s="74">
+      <c r="V17" s="74">
         <v>2.3498129555369558</v>
       </c>
-      <c r="AC17" s="72" t="str">
+      <c r="W17" s="72" t="str">
         <f>'Tube N'!G15</f>
         <v>D5</v>
       </c>
-      <c r="AD17" s="73">
+      <c r="X17" s="73">
         <f>'Tube N'!F15</f>
         <v>1.6981272749999992</v>
       </c>
-      <c r="AE17" s="74">
+      <c r="Y17" s="74">
         <v>1.5845553041505323</v>
       </c>
-      <c r="AF17" s="111" t="str">
+      <c r="Z17" s="111" t="str">
         <f>'Tube O'!G15</f>
         <v>G8</v>
       </c>
-      <c r="AG17" s="112">
+      <c r="AA17" s="112">
         <v>1.6876</v>
       </c>
-      <c r="AH17" s="113">
+      <c r="AB17" s="113">
         <v>0</v>
       </c>
-      <c r="AI17" s="72" t="str">
+      <c r="AC17" s="72" t="str">
         <f>'Tube P'!G15</f>
         <v>A10</v>
       </c>
-      <c r="AJ17" s="73">
+      <c r="AD17" s="73">
         <f>'Tube P'!F15</f>
         <v>1.6976082140000006</v>
       </c>
-      <c r="AK17" s="74">
+      <c r="AE17" s="74">
         <v>2.4639658915061049</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:31">
       <c r="A18" s="56">
         <v>15</v>
       </c>
@@ -21936,95 +20914,73 @@
         <v>0.85869842784610206</v>
       </c>
       <c r="N18" s="72" t="str">
-        <f>'Tube E'!G16</f>
-        <v>B2</v>
-      </c>
-      <c r="O18" s="73">
-        <f>'Tube E'!F16</f>
-        <v>1.6878006929999998</v>
-      </c>
-      <c r="P18" s="75">
-        <v>0.83852948806109751</v>
-      </c>
-      <c r="Q18" s="72" t="str">
-        <f>'Tube F'!G16</f>
-        <v>E5</v>
-      </c>
-      <c r="R18" s="73">
-        <f>'Tube F'!F16</f>
-        <v>1.6863801049999996</v>
-      </c>
-      <c r="S18" s="74">
-        <v>0.91438975316711246</v>
-      </c>
-      <c r="T18" s="72" t="str">
         <f>'Tube G'!G16</f>
         <v>F8</v>
       </c>
-      <c r="U18" s="73">
+      <c r="O18" s="73">
         <f>'Tube G'!F16</f>
         <v>1.6860522769999999</v>
       </c>
-      <c r="V18" s="74">
+      <c r="P18" s="74">
         <v>1.1128268040574072</v>
       </c>
-      <c r="W18" s="72" t="str">
+      <c r="Q18" s="72" t="str">
         <f>'Tube H'!G16</f>
         <v>A11</v>
       </c>
-      <c r="X18" s="73">
+      <c r="R18" s="73">
         <f>'Tube H'!F16</f>
         <v>1.6877187360000008</v>
       </c>
-      <c r="Y18" s="74">
+      <c r="S18" s="74">
         <v>1.1722350020350139</v>
       </c>
-      <c r="Z18" s="72" t="str">
+      <c r="T18" s="72" t="str">
         <f>'Tube M'!G16</f>
         <v>B2</v>
       </c>
-      <c r="AA18" s="73">
+      <c r="U18" s="73">
         <f>'Tube M'!F16</f>
         <v>1.6933737690000008</v>
       </c>
-      <c r="AB18" s="74">
+      <c r="V18" s="74">
         <v>1.3798496749477529</v>
       </c>
-      <c r="AC18" s="72" t="str">
+      <c r="W18" s="72" t="str">
         <f>'Tube N'!G16</f>
         <v>E5</v>
       </c>
-      <c r="AD18" s="73">
+      <c r="X18" s="73">
         <f>'Tube N'!F16</f>
         <v>1.6926634749999998</v>
       </c>
-      <c r="AE18" s="74">
+      <c r="Y18" s="74">
         <v>0.98504193888390212</v>
       </c>
-      <c r="AF18" s="72" t="str">
+      <c r="Z18" s="72" t="str">
         <f>'Tube O'!G16</f>
         <v>F8</v>
       </c>
-      <c r="AG18" s="73">
+      <c r="AA18" s="73">
         <f>'Tube O'!F16</f>
         <v>1.6897676610000012</v>
       </c>
-      <c r="AH18" s="74">
+      <c r="AB18" s="74">
         <v>0.8176633527123518</v>
       </c>
-      <c r="AI18" s="72" t="str">
+      <c r="AC18" s="72" t="str">
         <f>'Tube P'!G16</f>
         <v>A11</v>
       </c>
-      <c r="AJ18" s="73">
+      <c r="AD18" s="73">
         <f>'Tube P'!F16</f>
         <v>1.6923356470000002</v>
       </c>
-      <c r="AK18" s="74">
+      <c r="AE18" s="74">
         <v>1.4229340817683054</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:31">
       <c r="A19" s="56">
         <v>16</v>
       </c>
@@ -22073,95 +21029,73 @@
         <v>0.43108788266417225</v>
       </c>
       <c r="N19" s="72" t="str">
-        <f>'Tube E'!G17</f>
-        <v>A2</v>
-      </c>
-      <c r="O19" s="73">
-        <f>'Tube E'!F17</f>
-        <v>1.683429653000001</v>
-      </c>
-      <c r="P19" s="75">
-        <v>0.52749612099034315</v>
-      </c>
-      <c r="Q19" s="72" t="str">
-        <f>'Tube F'!G17</f>
-        <v>F5</v>
-      </c>
-      <c r="R19" s="73">
-        <f>'Tube F'!F17</f>
-        <v>1.6798235450000014</v>
-      </c>
-      <c r="S19" s="74">
-        <v>0.63684669774874458</v>
-      </c>
-      <c r="T19" s="72" t="str">
         <f>'Tube G'!G17</f>
         <v>E8</v>
       </c>
-      <c r="U19" s="73">
+      <c r="O19" s="73">
         <f>'Tube G'!F17</f>
         <v>1.6805884770000006</v>
       </c>
-      <c r="V19" s="74">
+      <c r="P19" s="74">
         <v>0.48272658833967985</v>
       </c>
-      <c r="W19" s="72" t="str">
+      <c r="Q19" s="72" t="str">
         <f>'Tube H'!G17</f>
         <v>B11</v>
       </c>
-      <c r="X19" s="73">
+      <c r="R19" s="73">
         <f>'Tube H'!F17</f>
         <v>1.6811621760000008</v>
       </c>
-      <c r="Y19" s="74">
+      <c r="S19" s="74">
         <v>0.65650037123294924</v>
       </c>
-      <c r="Z19" s="72" t="str">
+      <c r="T19" s="72" t="str">
         <f>'Tube M'!G17</f>
         <v>A2</v>
       </c>
-      <c r="AA19" s="73">
+      <c r="U19" s="73">
         <f>'Tube M'!F17</f>
         <v>1.6879099689999997</v>
       </c>
-      <c r="AB19" s="74">
+      <c r="V19" s="74">
         <v>0.76568008941625665</v>
       </c>
-      <c r="AC19" s="72" t="str">
+      <c r="W19" s="72" t="str">
         <f>'Tube N'!G17</f>
         <v>F5</v>
       </c>
-      <c r="AD19" s="73">
+      <c r="X19" s="73">
         <f>'Tube N'!F17</f>
         <v>1.6861069150000016</v>
       </c>
-      <c r="AE19" s="74">
+      <c r="Y19" s="74">
         <v>0.54133783878258568</v>
       </c>
-      <c r="AF19" s="72" t="str">
+      <c r="Z19" s="72" t="str">
         <f>'Tube O'!G17</f>
         <v>E8</v>
       </c>
-      <c r="AG19" s="73">
+      <c r="AA19" s="73">
         <f>'Tube O'!F17</f>
         <v>1.6832111010000013</v>
       </c>
-      <c r="AH19" s="74">
+      <c r="AB19" s="74">
         <v>0.471490957794509</v>
       </c>
-      <c r="AI19" s="72" t="str">
+      <c r="AC19" s="72" t="str">
         <f>'Tube P'!G17</f>
         <v>B11</v>
       </c>
-      <c r="AJ19" s="73">
+      <c r="AD19" s="73">
         <f>'Tube P'!F17</f>
         <v>1.6868718470000008</v>
       </c>
-      <c r="AK19" s="74">
+      <c r="AE19" s="74">
         <v>0.6259825331673764</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:31">
       <c r="A20" s="56">
         <v>17</v>
       </c>
@@ -22210,95 +21144,73 @@
         <v>0.25607189082030507</v>
       </c>
       <c r="N20" s="72" t="str">
-        <f>'Tube E'!G18</f>
-        <v>A3</v>
-      </c>
-      <c r="O20" s="73">
-        <f>'Tube E'!F18</f>
-        <v>1.6779658530000017</v>
-      </c>
-      <c r="P20" s="74">
-        <v>0.27668119896078913</v>
-      </c>
-      <c r="Q20" s="72" t="str">
-        <f>'Tube F'!G18</f>
-        <v>G5</v>
-      </c>
-      <c r="R20" s="73">
-        <f>'Tube F'!F18</f>
-        <v>1.6754525050000009</v>
-      </c>
-      <c r="S20" s="74">
-        <v>0.38816203621431278</v>
-      </c>
-      <c r="T20" s="72" t="str">
         <f>'Tube G'!G18</f>
         <v>D8</v>
       </c>
-      <c r="U20" s="73">
+      <c r="O20" s="73">
         <f>'Tube G'!F18</f>
         <v>1.6751246770000012</v>
       </c>
-      <c r="V20" s="74">
+      <c r="P20" s="74">
         <v>0.31327492264885731</v>
       </c>
-      <c r="W20" s="72" t="str">
+      <c r="Q20" s="72" t="str">
         <f>'Tube H'!G18</f>
         <v>C11</v>
       </c>
-      <c r="X20" s="73">
+      <c r="R20" s="73">
         <f>'Tube H'!F18</f>
         <v>1.6767911360000021</v>
       </c>
-      <c r="Y20" s="74">
+      <c r="S20" s="74">
         <v>0.38046691109525588</v>
       </c>
-      <c r="Z20" s="72" t="str">
+      <c r="T20" s="72" t="str">
         <f>'Tube M'!G18</f>
         <v>A3</v>
       </c>
-      <c r="AA20" s="73">
+      <c r="U20" s="73">
         <f>'Tube M'!F18</f>
         <v>1.6824461690000003</v>
       </c>
-      <c r="AB20" s="74">
+      <c r="V20" s="74">
         <v>0.40776082336894204</v>
       </c>
-      <c r="AC20" s="72" t="str">
+      <c r="W20" s="72" t="str">
         <f>'Tube N'!G18</f>
         <v>G5</v>
       </c>
-      <c r="AD20" s="73">
+      <c r="X20" s="73">
         <f>'Tube N'!F18</f>
         <v>1.6806431150000023</v>
       </c>
-      <c r="AE20" s="74">
+      <c r="Y20" s="74">
         <v>0.28401286038670026</v>
       </c>
-      <c r="AF20" s="72" t="str">
+      <c r="Z20" s="72" t="str">
         <f>'Tube O'!G18</f>
         <v>D8</v>
       </c>
-      <c r="AG20" s="73">
+      <c r="AA20" s="73">
         <f>'Tube O'!F18</f>
         <v>1.6777473010000019</v>
       </c>
-      <c r="AH20" s="74">
+      <c r="AB20" s="74">
         <v>0.31465127627054207</v>
       </c>
-      <c r="AI20" s="72" t="str">
+      <c r="AC20" s="72" t="str">
         <f>'Tube P'!G18</f>
         <v>C11</v>
       </c>
-      <c r="AJ20" s="73">
+      <c r="AD20" s="73">
         <f>'Tube P'!F18</f>
         <v>1.6803152870000009</v>
       </c>
-      <c r="AK20" s="74">
+      <c r="AE20" s="74">
         <v>0.36225956363776451</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:31">
       <c r="A21" s="56">
         <v>18</v>
       </c>
@@ -22347,95 +21259,73 @@
         <v>0.24272103530632452</v>
       </c>
       <c r="N21" s="72" t="str">
-        <f>'Tube E'!G19</f>
-        <v>B3</v>
-      </c>
-      <c r="O21" s="73">
-        <f>'Tube E'!F19</f>
-        <v>1.671409293</v>
-      </c>
-      <c r="P21" s="74">
-        <v>0.17970421821209173</v>
-      </c>
-      <c r="Q21" s="72" t="str">
-        <f>'Tube F'!G19</f>
-        <v>H5</v>
-      </c>
-      <c r="R21" s="73">
-        <f>'Tube F'!F19</f>
-        <v>1.6678031850000004</v>
-      </c>
-      <c r="S21" s="74">
-        <v>0.30424702451426316</v>
-      </c>
-      <c r="T21" s="72" t="str">
         <f>'Tube G'!G19</f>
         <v>C8</v>
       </c>
-      <c r="U21" s="73">
+      <c r="O21" s="73">
         <f>'Tube G'!F19</f>
         <v>1.6676665899999996</v>
       </c>
-      <c r="V21" s="74">
+      <c r="P21" s="74">
         <v>0.36239751347270405</v>
       </c>
-      <c r="W21" s="72" t="str">
+      <c r="Q21" s="72" t="str">
         <f>'Tube H'!G19</f>
         <v>D11</v>
       </c>
-      <c r="X21" s="73">
+      <c r="R21" s="73">
         <f>'Tube H'!F19</f>
         <v>1.6693330490000005</v>
       </c>
-      <c r="Y21" s="74">
+      <c r="S21" s="74">
         <v>0.34377385774461211</v>
       </c>
-      <c r="Z21" s="72" t="str">
+      <c r="T21" s="72" t="str">
         <f>'Tube M'!G19</f>
         <v>B3</v>
       </c>
-      <c r="AA21" s="73">
+      <c r="U21" s="73">
         <f>'Tube M'!F19</f>
         <v>1.6758896090000022</v>
       </c>
-      <c r="AB21" s="74">
+      <c r="V21" s="74">
         <v>0.29276000123877305</v>
       </c>
-      <c r="AC21" s="72" t="str">
+      <c r="W21" s="72" t="str">
         <f>'Tube N'!G19</f>
         <v>H5</v>
       </c>
-      <c r="AD21" s="73">
+      <c r="X21" s="73">
         <f>'Tube N'!F19</f>
         <v>1.672993795</v>
       </c>
-      <c r="AE21" s="74">
+      <c r="Y21" s="74">
         <v>0.22507097188323297</v>
       </c>
-      <c r="AF21" s="72" t="str">
+      <c r="Z21" s="72" t="str">
         <f>'Tube O'!G19</f>
         <v>C8</v>
       </c>
-      <c r="AG21" s="73">
+      <c r="AA21" s="73">
         <f>'Tube O'!F19</f>
         <v>1.6679124610000002</v>
       </c>
-      <c r="AH21" s="74">
+      <c r="AB21" s="74">
         <v>0.30853803725471635</v>
       </c>
-      <c r="AI21" s="72" t="str">
+      <c r="AC21" s="72" t="str">
         <f>'Tube P'!G19</f>
         <v>D11</v>
       </c>
-      <c r="AJ21" s="73">
+      <c r="AD21" s="73">
         <f>'Tube P'!F19</f>
         <v>1.6737587269999992</v>
       </c>
-      <c r="AK21" s="74">
+      <c r="AE21" s="74">
         <v>0.30441268479843542</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:31">
       <c r="A22" s="56">
         <v>19</v>
       </c>
@@ -22484,95 +21374,73 @@
         <v>0.27509207621942178</v>
       </c>
       <c r="N22" s="72" t="str">
-        <f>'Tube E'!G20</f>
-        <v>C3</v>
-      </c>
-      <c r="O22" s="73">
-        <f>'Tube E'!F20</f>
-        <v>1.6473685729999996</v>
-      </c>
-      <c r="P22" s="74">
-        <v>0.17085276786947276</v>
-      </c>
-      <c r="Q22" s="72" t="str">
-        <f>'Tube F'!G20</f>
-        <v>H6</v>
-      </c>
-      <c r="R22" s="73">
-        <f>'Tube F'!F20</f>
-        <v>1.6483247379999995</v>
-      </c>
-      <c r="S22" s="74">
-        <v>0.33403759007293782</v>
-      </c>
-      <c r="T22" s="72" t="str">
         <f>'Tube G'!G20</f>
         <v>B8</v>
       </c>
-      <c r="U22" s="73">
+      <c r="O22" s="73">
         <f>'Tube G'!F20</f>
         <v>1.6414403499999999</v>
       </c>
-      <c r="V22" s="74">
+      <c r="P22" s="74">
         <v>0.29573581491759127</v>
       </c>
-      <c r="W22" s="72" t="str">
+      <c r="Q22" s="72" t="str">
         <f>'Tube H'!G20</f>
         <v>E11</v>
       </c>
-      <c r="X22" s="73">
+      <c r="R22" s="73">
         <f>'Tube H'!F20</f>
         <v>1.6485706090000001</v>
       </c>
-      <c r="Y22" s="74">
+      <c r="S22" s="74">
         <v>0.37279096058593852</v>
       </c>
-      <c r="Z22" s="72" t="str">
+      <c r="T22" s="72" t="str">
         <f>'Tube M'!G20</f>
         <v>C3</v>
       </c>
-      <c r="AA22" s="73">
+      <c r="U22" s="73">
         <f>'Tube M'!F20</f>
         <v>1.6594982090000006</v>
       </c>
-      <c r="AB22" s="74">
+      <c r="V22" s="74">
         <v>0.28464394883330324</v>
       </c>
-      <c r="AC22" s="72" t="str">
+      <c r="W22" s="72" t="str">
         <f>'Tube N'!G20</f>
         <v>H6</v>
       </c>
-      <c r="AD22" s="73">
+      <c r="X22" s="73">
         <f>'Tube N'!F20</f>
         <v>1.6489530749999997</v>
       </c>
-      <c r="AE22" s="74">
+      <c r="Y22" s="74">
         <v>0.30684574816920362</v>
       </c>
-      <c r="AF22" s="72" t="str">
+      <c r="Z22" s="72" t="str">
         <f>'Tube O'!G20</f>
         <v>B8</v>
       </c>
-      <c r="AG22" s="73">
+      <c r="AA22" s="73">
         <f>'Tube O'!F20</f>
         <v>1.6220165410000007</v>
       </c>
-      <c r="AH22" s="74">
+      <c r="AB22" s="74">
         <v>0.33503877461376219</v>
       </c>
-      <c r="AI22" s="72" t="str">
+      <c r="AC22" s="72" t="str">
         <f>'Tube P'!G20</f>
         <v>E11</v>
       </c>
-      <c r="AJ22" s="73">
+      <c r="AD22" s="73">
         <f>'Tube P'!F20</f>
         <v>1.6529962870000006</v>
       </c>
-      <c r="AK22" s="74">
+      <c r="AE22" s="74">
         <v>0.37039832998299582</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:31">
       <c r="A23" s="56">
         <v>20</v>
       </c>
@@ -22621,95 +21489,73 @@
         <v>0.14689832481370788</v>
       </c>
       <c r="N23" s="72" t="str">
-        <f>'Tube E'!G21</f>
-        <v>D3</v>
-      </c>
-      <c r="O23" s="73">
-        <f>'Tube E'!F21</f>
-        <v>1.5503041660000001</v>
-      </c>
-      <c r="P23" s="74">
-        <v>0.11322053679330339</v>
-      </c>
-      <c r="Q23" s="72" t="str">
-        <f>'Tube F'!G21</f>
-        <v>G6</v>
-      </c>
-      <c r="R23" s="73">
-        <f>'Tube F'!F21</f>
-        <v>1.5456052980000017</v>
-      </c>
-      <c r="S23" s="74">
-        <v>0.24513757490331053</v>
-      </c>
-      <c r="T23" s="72" t="str">
         <f>'Tube G'!G21</f>
         <v>A8</v>
       </c>
-      <c r="U23" s="73">
+      <c r="O23" s="73">
         <f>'Tube G'!F21</f>
         <v>1.5343498699999998</v>
       </c>
-      <c r="V23" s="74">
+      <c r="P23" s="74">
         <v>0.22623885588231551</v>
       </c>
-      <c r="W23" s="72" t="str">
+      <c r="Q23" s="72" t="str">
         <f>'Tube H'!G21</f>
         <v>F11</v>
       </c>
-      <c r="X23" s="73">
+      <c r="R23" s="73">
         <f>'Tube H'!F21</f>
         <v>1.5556860090000004</v>
       </c>
-      <c r="Y23" s="74">
+      <c r="S23" s="74">
         <v>0.24361587357315337</v>
       </c>
-      <c r="Z23" s="72" t="str">
+      <c r="T23" s="72" t="str">
         <f>'Tube M'!G21</f>
         <v>D3</v>
       </c>
-      <c r="AA23" s="73">
+      <c r="U23" s="73">
         <f>'Tube M'!F21</f>
         <v>1.5808194889999996</v>
       </c>
-      <c r="AB23" s="74">
+      <c r="V23" s="74">
         <v>0.31159665368443235</v>
       </c>
-      <c r="AC23" s="72" t="str">
+      <c r="W23" s="72" t="str">
         <f>'Tube N'!G21</f>
         <v>G6</v>
       </c>
-      <c r="AD23" s="73">
+      <c r="X23" s="73">
         <f>'Tube N'!F21</f>
         <v>1.543146587999999</v>
       </c>
-      <c r="AE23" s="74">
+      <c r="Y23" s="74">
         <v>0.23634801406445116</v>
       </c>
-      <c r="AF23" s="72" t="str">
+      <c r="Z23" s="72" t="str">
         <f>'Tube O'!G21</f>
         <v>A8</v>
       </c>
-      <c r="AG23" s="73">
+      <c r="AA23" s="73">
         <f>'Tube O'!F21</f>
         <v>1.4734011809999998</v>
       </c>
-      <c r="AH23" s="74">
+      <c r="AB23" s="74">
         <v>0.20737937141537097</v>
       </c>
-      <c r="AI23" s="72" t="str">
+      <c r="AC23" s="72" t="str">
         <f>'Tube P'!G21</f>
         <v>F11</v>
       </c>
-      <c r="AJ23" s="73">
+      <c r="AD23" s="73">
         <f>'Tube P'!F21</f>
         <v>1.5590189270000003</v>
       </c>
-      <c r="AK23" s="74">
+      <c r="AE23" s="74">
         <v>0.24272611441916739</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:31">
       <c r="A24" s="56">
         <v>21</v>
       </c>
@@ -22758,95 +21604,73 @@
         <v>9.5493150670842339E-2</v>
       </c>
       <c r="N24" s="69" t="str">
-        <f>'Tube E'!G22</f>
-        <v>E3</v>
-      </c>
-      <c r="O24" s="70">
-        <f>'Tube E'!F22</f>
-        <v>1.3339376860000005</v>
-      </c>
-      <c r="P24" s="71">
-        <v>6.6394910224652201E-2</v>
-      </c>
-      <c r="Q24" s="69" t="str">
-        <f>'Tube F'!G22</f>
-        <v>F6</v>
-      </c>
-      <c r="R24" s="70">
-        <f>'Tube F'!F22</f>
-        <v>1.3270532980000009</v>
-      </c>
-      <c r="S24" s="71">
-        <v>0.13722067463848683</v>
-      </c>
-      <c r="T24" s="69" t="str">
         <f>'Tube G'!G22</f>
         <v>A9</v>
       </c>
-      <c r="U24" s="70">
+      <c r="O24" s="70">
         <f>'Tube G'!F22</f>
         <v>1.3114268300000003</v>
       </c>
-      <c r="V24" s="71">
+      <c r="P24" s="71">
         <v>0.12648154709212375</v>
       </c>
-      <c r="W24" s="69" t="str">
+      <c r="Q24" s="69" t="str">
         <f>'Tube H'!G22</f>
         <v>G11</v>
       </c>
-      <c r="X24" s="70">
+      <c r="R24" s="70">
         <f>'Tube H'!F22</f>
         <v>1.3568036890000013</v>
       </c>
-      <c r="Y24" s="71">
+      <c r="S24" s="71">
         <v>0.15168361080621834</v>
       </c>
-      <c r="Z24" s="69" t="str">
+      <c r="T24" s="69" t="str">
         <f>'Tube M'!G22</f>
         <v>E3</v>
       </c>
-      <c r="AA24" s="70">
+      <c r="U24" s="70">
         <f>'Tube M'!F22</f>
         <v>1.383029929000001</v>
       </c>
-      <c r="AB24" s="71">
+      <c r="V24" s="71">
         <v>0.14171468903984297</v>
       </c>
-      <c r="AC24" s="69" t="str">
+      <c r="W24" s="69" t="str">
         <f>'Tube N'!G22</f>
         <v>F6</v>
       </c>
-      <c r="AD24" s="70">
+      <c r="X24" s="70">
         <f>'Tube N'!F22</f>
         <v>1.3235018279999995</v>
       </c>
-      <c r="AE24" s="71">
+      <c r="Y24" s="71">
         <v>0.12257788451101033</v>
       </c>
-      <c r="AF24" s="69" t="str">
+      <c r="Z24" s="69" t="str">
         <f>'Tube O'!G22</f>
         <v>A9</v>
       </c>
-      <c r="AG24" s="70">
+      <c r="AA24" s="70">
         <f>'Tube O'!F22</f>
         <v>1.2331852140000006</v>
       </c>
-      <c r="AH24" s="71">
+      <c r="AB24" s="71">
         <v>8.2658623408786866E-2</v>
       </c>
-      <c r="AI24" s="69" t="str">
+      <c r="AC24" s="69" t="str">
         <f>'Tube P'!G22</f>
         <v>G11</v>
       </c>
-      <c r="AJ24" s="70">
+      <c r="AD24" s="70">
         <f>'Tube P'!F22</f>
         <v>1.3481162470000019</v>
       </c>
-      <c r="AK24" s="71">
+      <c r="AE24" s="71">
         <v>0.14465994850337924</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="12.9" thickBot="1">
+    <row r="25" spans="1:31" ht="12.9" thickBot="1">
       <c r="A25" s="56">
         <v>22</v>
       </c>
@@ -22894,99 +21718,77 @@
       <c r="M25" s="80">
         <v>5.1375171438548778E-2</v>
       </c>
-      <c r="N25" s="78" t="str">
-        <f>'Tube E'!G23</f>
-        <v>F3</v>
-      </c>
-      <c r="O25" s="79">
-        <f>'Tube E'!F23</f>
-        <v>1.1066436060000004</v>
-      </c>
-      <c r="P25" s="80">
-        <v>1.2021890825825386E-2</v>
-      </c>
-      <c r="Q25" s="78" t="str">
-        <f>'Tube F'!G23</f>
-        <v>E6</v>
-      </c>
-      <c r="R25" s="79">
-        <f>'Tube F'!F23</f>
-        <v>1.1106868180000014</v>
-      </c>
-      <c r="S25" s="80">
-        <v>0.17936213691288194</v>
-      </c>
-      <c r="T25" s="69" t="str">
+      <c r="N25" s="69" t="str">
         <f>'Tube G'!G23</f>
         <v>B9</v>
       </c>
-      <c r="U25" s="79">
+      <c r="O25" s="79">
         <f>'Tube G'!F23</f>
         <v>1.1070807100000017</v>
       </c>
-      <c r="V25" s="80">
+      <c r="P25" s="80">
         <v>4.0870273539470585E-2</v>
       </c>
-      <c r="W25" s="78" t="str">
+      <c r="Q25" s="78" t="str">
         <f>'Tube H'!G23</f>
         <v>H11</v>
       </c>
-      <c r="X25" s="79">
+      <c r="R25" s="79">
         <f>'Tube H'!F23</f>
         <v>1.1338806490000017</v>
       </c>
-      <c r="Y25" s="80">
+      <c r="S25" s="80">
         <v>7.7027221348113198E-2</v>
       </c>
-      <c r="Z25" s="69" t="str">
+      <c r="T25" s="69" t="str">
         <f>'Tube M'!G23</f>
         <v>F3</v>
       </c>
-      <c r="AA25" s="70">
+      <c r="U25" s="70">
         <f>'Tube M'!F23</f>
         <v>1.1404372089999999</v>
       </c>
-      <c r="AB25" s="71">
+      <c r="V25" s="71">
         <v>5.3174064862824409E-2</v>
       </c>
-      <c r="AC25" s="89" t="str">
+      <c r="W25" s="89" t="str">
         <f>'Tube N'!G23</f>
         <v>E6</v>
       </c>
-      <c r="AD25" s="70">
+      <c r="X25" s="70">
         <f>'Tube N'!F23</f>
         <v>1.1224339879999992</v>
       </c>
-      <c r="AE25" s="88">
+      <c r="Y25" s="88">
         <v>3.3613356235393188E-2</v>
       </c>
-      <c r="AF25" s="69" t="str">
+      <c r="Z25" s="69" t="str">
         <f>'Tube O'!G23</f>
         <v>B9</v>
       </c>
-      <c r="AG25" s="70">
+      <c r="AA25" s="70">
         <f>'Tube O'!F23</f>
         <v>1.0954974540000002</v>
       </c>
-      <c r="AH25" s="88">
+      <c r="AB25" s="88">
         <v>2.7534671937592476E-2</v>
       </c>
-      <c r="AI25" s="69" t="str">
+      <c r="AC25" s="69" t="str">
         <f>'Tube P'!G23</f>
         <v>H11</v>
       </c>
-      <c r="AJ25" s="70">
+      <c r="AD25" s="70">
         <f>'Tube P'!F23</f>
         <v>1.1350280470000005</v>
       </c>
-      <c r="AK25" s="80">
+      <c r="AE25" s="80">
         <v>8.0676371015666395E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="12.9" thickTop="1">
+    <row r="26" spans="1:31" ht="12.9" thickTop="1">
       <c r="B26" s="73"/>
       <c r="C26" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D26" s="82">
         <f>SUM(D5:D25)*40/TubeLoading!J29*100</f>
@@ -22994,7 +21796,7 @@
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G26" s="82">
         <f>SUM(G5:G25)*40/TubeLoading!J30*100</f>
@@ -23002,7 +21804,7 @@
       </c>
       <c r="H26" s="73"/>
       <c r="I26" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J26" s="82">
         <f>SUM(J5:J25)*40/TubeLoading!J31*100</f>
@@ -23010,78 +21812,62 @@
       </c>
       <c r="K26" s="83"/>
       <c r="L26" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M26" s="82">
         <f>SUM(M5:M25)*40/TubeLoading!J32*100</f>
         <v>57.622146731846172</v>
       </c>
-      <c r="N26" s="73"/>
+      <c r="N26" s="87"/>
       <c r="O26" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P26" s="82">
-        <f>SUM(P5:P25)*40/TubeLoading!J33*100</f>
-        <v>44.543408475176868</v>
+        <f>SUM(P5:P25)*40/TubeLoading!J35*100</f>
+        <v>64.286969553839086</v>
       </c>
       <c r="Q26" s="73"/>
       <c r="R26" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S26" s="82">
-        <f>SUM(S5:S25)*40/TubeLoading!J34*100</f>
-        <v>75.593595322285182</v>
-      </c>
-      <c r="T26" s="87"/>
-      <c r="U26" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="V26" s="82">
-        <f>SUM(V5:V25)*40/TubeLoading!J35*100</f>
-        <v>64.286969553839086</v>
+        <f>SUM(S5:S25)*40/TubeLoading!J36*100</f>
+        <v>73.330591175662391</v>
+      </c>
+      <c r="T26" s="90"/>
+      <c r="U26" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="V26" s="92">
+        <f>SUM(V5:V25)*40/TubeLoading!J41*100</f>
+        <v>80.45097095349729</v>
       </c>
       <c r="W26" s="73"/>
-      <c r="X26" s="81" t="s">
-        <v>190</v>
+      <c r="X26" s="91" t="s">
+        <v>188</v>
       </c>
       <c r="Y26" s="82">
-        <f>SUM(Y5:Y25)*40/TubeLoading!J36*100</f>
-        <v>73.330591175662391</v>
+        <f>SUM(Y5:Y25)*40/TubeLoading!J42*100</f>
+        <v>73.835192341047971</v>
       </c>
       <c r="Z26" s="90"/>
       <c r="AA26" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB26" s="92">
-        <f>SUM(AB5:AB25)*40/TubeLoading!J41*100</f>
-        <v>80.45097095349729</v>
-      </c>
-      <c r="AC26" s="73"/>
-      <c r="AD26" s="91" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="AB26" s="82">
+        <f>SUM(AB5:AB25)*40/TubeLoading!J43*100</f>
+        <v>66.667936426690574</v>
+      </c>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="81" t="s">
+        <v>188</v>
       </c>
       <c r="AE26" s="82">
-        <f>SUM(AE5:AE25)*40/TubeLoading!J42*100</f>
-        <v>73.835192341047971</v>
-      </c>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="91" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH26" s="82">
-        <f>SUM(AH5:AH25)*40/TubeLoading!J43*100</f>
-        <v>66.667936426690574</v>
-      </c>
-      <c r="AI26" s="83"/>
-      <c r="AJ26" s="81" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK26" s="82">
-        <f>SUM(AK5:AK25)*40/TubeLoading!J44*100</f>
+        <f>SUM(AE5:AE25)*40/TubeLoading!J44*100</f>
         <v>71.313343562102091</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:31">
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
@@ -23095,7 +21881,7 @@
       <c r="L27" s="73"/>
       <c r="M27" s="73"/>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:31">
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
@@ -23109,13 +21895,13 @@
       <c r="L28" s="73"/>
       <c r="M28" s="73"/>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:31">
       <c r="A29" s="62"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:31">
       <c r="A30" s="62"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:31">
       <c r="A31" s="62"/>
     </row>
     <row r="55" spans="1:13">
@@ -23179,19 +21965,17 @@
       <c r="A86" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
+  <mergeCells count="10">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24053,13 +22837,13 @@
         <v>148</v>
       </c>
       <c r="J28" s="108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K28" s="109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L28" s="109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="14.15">
@@ -24808,7 +23592,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="23"/>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -27125,7 +25909,7 @@
         <v>1.6918985430000006</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -27150,7 +25934,7 @@
         <v>1.6842492230000001</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -27175,7 +25959,7 @@
         <v>1.6787854230000008</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27200,7 +25984,7 @@
         <v>1.6689505830000009</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27225,7 +26009,7 @@
         <v>1.6307039830000001</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -27250,7 +26034,7 @@
         <v>1.5161554160000001</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -27275,7 +26059,7 @@
         <v>1.3314789760000014</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -27300,7 +26084,7 @@
         <v>1.1478952960000015</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
